--- a/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
+++ b/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edwin\github\edwinkost\pgb_data_for_prometheus_primes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FD504C-722A-428F-8099-1E579C10C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D38D9C-8277-414E-B592-14C98E6C129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DD76264-C2FB-48A2-8B6A-B0A9CA53C1E5}"/>
   </bookViews>
@@ -2440,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1C3275-AD4E-4E48-923E-AC570E341997}">
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2462,7 @@
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2543,8 +2543,16 @@
         <f>I2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" t="str">
+        <f>IF(E2=0,"",IF(ISNA(F2),"",F2))</f>
+        <v/>
+      </c>
+      <c r="P2">
+        <f>MIN(O:O)</f>
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2587,8 +2595,12 @@
         <f t="shared" ref="M3:M66" si="2">I3</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="3">IF(E3=0,"",IF(ISNA(F3),"",F3))</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2631,8 +2643,12 @@
         <f t="shared" si="2"/>
         <v>13149</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>13149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2675,8 +2691,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2719,8 +2739,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2763,8 +2787,12 @@
         <f t="shared" si="2"/>
         <v>404</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2807,8 +2835,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2851,8 +2883,12 @@
         <f t="shared" si="2"/>
         <v>18185.189999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>18185.189999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2895,8 +2931,12 @@
         <f t="shared" si="2"/>
         <v>2257.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>2257.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2939,8 +2979,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2983,8 +3027,12 @@
         <f t="shared" si="2"/>
         <v>44916.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>44916.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3027,8 +3075,12 @@
         <f t="shared" si="2"/>
         <v>4332.0600000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>4332.0600000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3071,8 +3123,12 @@
         <f t="shared" si="2"/>
         <v>6183.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>6183.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3115,8 +3171,12 @@
         <f t="shared" si="2"/>
         <v>403.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>403.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3159,8 +3219,12 @@
         <f t="shared" si="2"/>
         <v>5394</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3203,8 +3267,12 @@
         <f t="shared" si="2"/>
         <v>8177.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>8177.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -3247,8 +3315,12 @@
         <f t="shared" si="2"/>
         <v>285.39999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>285.39999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3291,8 +3363,12 @@
         <f t="shared" si="2"/>
         <v>8596.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>8596.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -3335,8 +3411,12 @@
         <f t="shared" si="2"/>
         <v>11815</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3379,8 +3459,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -3423,8 +3507,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -3467,8 +3555,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3511,8 +3603,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3555,8 +3651,12 @@
         <f t="shared" si="2"/>
         <v>1129.18</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>1129.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3599,8 +3699,12 @@
         <f t="shared" si="2"/>
         <v>1765</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3643,8 +3747,12 @@
         <f t="shared" si="2"/>
         <v>742</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3687,8 +3795,12 @@
         <f t="shared" si="2"/>
         <v>23503.55</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>23503.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3731,8 +3843,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3775,8 +3891,12 @@
         <f t="shared" si="2"/>
         <v>876</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3819,8 +3939,12 @@
         <f t="shared" si="2"/>
         <v>6557.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>6557.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3863,8 +3987,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3907,8 +4035,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3951,8 +4083,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -3995,8 +4131,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4039,8 +4179,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -4083,8 +4227,12 @@
         <f t="shared" si="2"/>
         <v>43748.26</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>43748.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -4127,8 +4275,12 @@
         <f t="shared" si="2"/>
         <v>52.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>52.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -4171,8 +4323,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -4215,8 +4371,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -4259,8 +4419,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -4303,8 +4467,12 @@
         <f t="shared" si="2"/>
         <v>10849.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>10849.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -4347,8 +4515,12 @@
         <f t="shared" si="2"/>
         <v>673400.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>673400.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4391,8 +4563,12 @@
         <f t="shared" si="2"/>
         <v>5147.82</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>5147.82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -4435,8 +4611,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -4479,8 +4659,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -4523,8 +4707,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -4567,8 +4755,12 @@
         <f t="shared" si="2"/>
         <v>341</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -4611,8 +4803,12 @@
         <f t="shared" si="2"/>
         <v>821</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -4655,8 +4851,12 @@
         <f t="shared" si="2"/>
         <v>1895.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>1895.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -4699,8 +4899,12 @@
         <f t="shared" si="2"/>
         <v>4346.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>4346.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -4743,8 +4947,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O52" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -4787,8 +4995,12 @@
         <f t="shared" si="2"/>
         <v>1255.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>1255.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -4831,8 +5043,12 @@
         <f t="shared" si="2"/>
         <v>13745.42</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>13745.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -4875,8 +5091,12 @@
         <f t="shared" si="2"/>
         <v>5356</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -4919,8 +5139,12 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -4963,8 +5187,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -5007,8 +5235,12 @@
         <f t="shared" si="2"/>
         <v>3293.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <f t="shared" si="3"/>
+        <v>3293.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -5051,8 +5283,12 @@
         <f t="shared" si="2"/>
         <v>1706.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <f t="shared" si="3"/>
+        <v>1706.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -5095,8 +5331,12 @@
         <f t="shared" si="2"/>
         <v>27131.360000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>27131.360000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -5139,8 +5379,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O61" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -5183,8 +5427,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O62" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -5227,8 +5475,12 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -5271,8 +5523,12 @@
         <f t="shared" si="2"/>
         <v>3170</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <f t="shared" si="3"/>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -5315,8 +5571,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -5359,8 +5619,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O66" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -5388,11 +5652,11 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">IF(E67=0,0,IF(ISNA(F67),"",F67))</f>
+        <f t="shared" ref="I67:I130" si="4">IF(E67=0,0,IF(ISNA(F67),"",F67))</f>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="4">G67</f>
+        <f t="shared" ref="K67:K130" si="5">G67</f>
         <v>81</v>
       </c>
       <c r="L67" s="3">
@@ -5400,11 +5664,15 @@
         <v>0</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" ref="M67:M130" si="5">I67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M67:M130" si="6">I67</f>
+        <v>0</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O130" si="7">IF(E67=0,"",IF(ISNA(F67),"",F67))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -5432,11 +5700,11 @@
         <v>98.79</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8813</v>
       </c>
       <c r="K68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="L68" s="3">
@@ -5444,11 +5712,15 @@
         <v>98.79</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8813</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <f t="shared" si="7"/>
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -5476,11 +5748,11 @@
         <v>81.06</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84524.08</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="L69" s="3">
@@ -5488,11 +5760,15 @@
         <v>81.06</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84524.08</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <f t="shared" si="7"/>
+        <v>84524.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -5520,11 +5796,11 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L70" s="3">
@@ -5532,11 +5808,15 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -5564,11 +5844,11 @@
         <v>76.56</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="L71" s="3">
@@ -5576,11 +5856,15 @@
         <v>76.56</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -5608,11 +5892,11 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="L72" s="3">
@@ -5620,11 +5904,15 @@
         <v>0</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -5652,11 +5940,11 @@
         <v>3.19</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1278</v>
       </c>
       <c r="K73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="L73" s="3">
@@ -5664,11 +5952,15 @@
         <v>3.19</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1278</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <f t="shared" si="7"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -5696,11 +5988,11 @@
         <v>26.73</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93758.75</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="L74" s="3">
@@ -5708,11 +6000,15 @@
         <v>26.73</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93758.75</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <f t="shared" si="7"/>
+        <v>93758.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -5740,11 +6036,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1214</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="L75" s="3">
@@ -5752,11 +6048,15 @@
         <v>19.989999999999998</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1214</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <f t="shared" si="7"/>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -5784,11 +6084,11 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="L76" s="3">
@@ -5796,11 +6096,15 @@
         <v>0</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -5828,11 +6132,11 @@
         <v>37.770000000000003</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12041.41</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="L77" s="3">
@@ -5840,11 +6144,15 @@
         <v>37.770000000000003</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12041.41</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <f t="shared" si="7"/>
+        <v>12041.41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -5872,11 +6180,11 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="L78" s="3">
@@ -5884,11 +6192,15 @@
         <v>0</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5916,11 +6228,11 @@
         <v>99.75</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>355</v>
       </c>
       <c r="K79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="L79" s="3">
@@ -5928,11 +6240,15 @@
         <v>99.75</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <f t="shared" si="7"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -5960,11 +6276,11 @@
         <v>0.25</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>677</v>
       </c>
       <c r="K80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="L80" s="3">
@@ -5972,11 +6288,15 @@
         <v>0.25</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>677</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <f t="shared" si="7"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -6004,11 +6324,11 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="L81" s="3">
@@ -6016,11 +6336,15 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -6048,11 +6372,11 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="L82" s="3">
@@ -6060,11 +6384,15 @@
         <v>0</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -6092,11 +6420,11 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="L83" s="3">
@@ -6104,11 +6432,15 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -6136,11 +6468,11 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="L84" s="3">
@@ -6148,11 +6480,15 @@
         <v>0</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -6180,11 +6516,11 @@
         <v>1.27</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>735.2</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="L85" s="3">
@@ -6192,11 +6528,15 @@
         <v>1.27</v>
       </c>
       <c r="M85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>735.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <f t="shared" si="7"/>
+        <v>735.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -6224,11 +6564,11 @@
         <v>94.69</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12098</v>
       </c>
       <c r="K86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="L86" s="3">
@@ -6236,11 +6576,15 @@
         <v>94.69</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12098</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <f t="shared" si="7"/>
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>177</v>
       </c>
@@ -6268,11 +6612,11 @@
         <v>52.18</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4122.3</v>
       </c>
       <c r="K87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="L87" s="3">
@@ -6280,11 +6624,15 @@
         <v>52.18</v>
       </c>
       <c r="M87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4122.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <f t="shared" si="7"/>
+        <v>4122.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -6312,11 +6660,11 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="L88" s="3">
@@ -6324,11 +6672,15 @@
         <v>0</v>
       </c>
       <c r="M88" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -6356,11 +6708,11 @@
         <v>34.43</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189457.59</v>
       </c>
       <c r="K89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="L89" s="3">
@@ -6368,11 +6720,15 @@
         <v>34.43</v>
       </c>
       <c r="M89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>189457.59</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <f t="shared" si="7"/>
+        <v>189457.59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -6400,11 +6756,11 @@
         <v>92.53</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35301.39</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="L90" s="3">
@@ -6412,11 +6768,15 @@
         <v>92.53</v>
       </c>
       <c r="M90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35301.39</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <f t="shared" si="7"/>
+        <v>35301.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -6444,11 +6804,11 @@
         <v>65.959999999999994</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58815.41</v>
       </c>
       <c r="K91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="L91" s="3">
@@ -6456,11 +6816,15 @@
         <v>65.959999999999994</v>
       </c>
       <c r="M91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58815.41</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <f t="shared" si="7"/>
+        <v>58815.41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -6488,11 +6852,11 @@
         <v>94.27</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17343</v>
       </c>
       <c r="K92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="L92" s="3">
@@ -6500,11 +6864,15 @@
         <v>94.27</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17343</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <f t="shared" si="7"/>
+        <v>17343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -6532,11 +6900,11 @@
         <v>43.6</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5892</v>
       </c>
       <c r="K93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="L93" s="3">
@@ -6544,11 +6912,15 @@
         <v>43.6</v>
       </c>
       <c r="M93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5892</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <f t="shared" si="7"/>
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -6576,11 +6948,11 @@
         <v>0.42</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="L94" s="3">
@@ -6588,11 +6960,15 @@
         <v>0.42</v>
       </c>
       <c r="M94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -6620,11 +6996,11 @@
         <v>96.43</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14484</v>
       </c>
       <c r="K95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="L95" s="3">
@@ -6632,11 +7008,15 @@
         <v>96.43</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14484</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <f t="shared" si="7"/>
+        <v>14484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -6664,11 +7044,11 @@
         <v>53.94</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75539.679999999993</v>
       </c>
       <c r="K96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="L96" s="3">
@@ -6676,11 +7056,15 @@
         <v>53.94</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75539.679999999993</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <f t="shared" si="7"/>
+        <v>75539.679999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -6708,11 +7092,11 @@
         <v>96.45</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>694.06</v>
       </c>
       <c r="K97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="L97" s="3">
@@ -6720,11 +7104,15 @@
         <v>96.45</v>
       </c>
       <c r="M97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>694.06</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <f t="shared" si="7"/>
+        <v>694.06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -6752,11 +7140,11 @@
         <v>97.04</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220250.4</v>
       </c>
       <c r="K98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="L98" s="3">
@@ -6764,11 +7152,15 @@
         <v>97.04</v>
       </c>
       <c r="M98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220250.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <f t="shared" si="7"/>
+        <v>220250.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -6796,11 +7188,11 @@
         <v>0.8</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4237</v>
       </c>
       <c r="K99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="L99" s="3">
@@ -6808,11 +7200,15 @@
         <v>0.8</v>
       </c>
       <c r="M99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4237</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <f t="shared" si="7"/>
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -6840,11 +7236,11 @@
         <v>53.62</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17494</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="L100" s="3">
@@ -6852,11 +7248,15 @@
         <v>53.62</v>
       </c>
       <c r="M100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17494</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <f t="shared" si="7"/>
+        <v>17494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -6884,11 +7284,11 @@
         <v>0.03</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>679.21</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L101" s="3">
@@ -6896,11 +7296,15 @@
         <v>0.03</v>
       </c>
       <c r="M101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>679.21</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <f t="shared" si="7"/>
+        <v>679.21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -6928,11 +7332,11 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L102" s="3">
@@ -6940,11 +7344,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -6972,11 +7380,11 @@
         <v>93.94</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3170</v>
       </c>
       <c r="K103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="L103" s="3">
@@ -6984,11 +7392,15 @@
         <v>93.94</v>
       </c>
       <c r="M103" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3170</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <f t="shared" si="7"/>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>211</v>
       </c>
@@ -7016,11 +7428,11 @@
         <v>95.11</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77112.710000000006</v>
       </c>
       <c r="K104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="L104" s="3">
@@ -7028,11 +7440,15 @@
         <v>95.11</v>
       </c>
       <c r="M104" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77112.710000000006</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <f t="shared" si="7"/>
+        <v>77112.710000000006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -7060,11 +7476,11 @@
         <v>98.89</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15217.3</v>
       </c>
       <c r="K105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="L105" s="3">
@@ -7072,11 +7488,15 @@
         <v>98.89</v>
       </c>
       <c r="M105" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15217.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <f t="shared" si="7"/>
+        <v>15217.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>215</v>
       </c>
@@ -7104,11 +7524,11 @@
         <v>80.040000000000006</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>728</v>
       </c>
       <c r="K106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="L106" s="3">
@@ -7116,11 +7536,15 @@
         <v>80.040000000000006</v>
       </c>
       <c r="M106" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>728</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <f t="shared" si="7"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>217</v>
       </c>
@@ -7148,11 +7572,11 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="L107" s="3">
@@ -7160,11 +7584,15 @@
         <v>0</v>
       </c>
       <c r="M107" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>219</v>
       </c>
@@ -7192,11 +7620,11 @@
         <v>1.01</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>894</v>
       </c>
       <c r="K108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="L108" s="3">
@@ -7204,11 +7632,15 @@
         <v>1.01</v>
       </c>
       <c r="M108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>894</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <f t="shared" si="7"/>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>221</v>
       </c>
@@ -7236,11 +7668,11 @@
         <v>6.77</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2172.6</v>
       </c>
       <c r="K109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="L109" s="3">
@@ -7248,11 +7680,15 @@
         <v>6.77</v>
       </c>
       <c r="M109" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2172.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <f t="shared" si="7"/>
+        <v>2172.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>223</v>
       </c>
@@ -7280,11 +7716,11 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="L110" s="3">
@@ -7292,11 +7728,15 @@
         <v>0</v>
       </c>
       <c r="M110" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>225</v>
       </c>
@@ -7324,11 +7764,11 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="K111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="L111" s="3">
@@ -7336,11 +7776,15 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="M111" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>227</v>
       </c>
@@ -7368,11 +7812,11 @@
         <v>1.8</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10714</v>
       </c>
       <c r="K112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="L112" s="3">
@@ -7380,11 +7824,15 @@
         <v>1.8</v>
       </c>
       <c r="M112" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10714</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <f t="shared" si="7"/>
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>229</v>
       </c>
@@ -7412,11 +7860,11 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="L113" s="3">
@@ -7424,11 +7872,15 @@
         <v>0</v>
       </c>
       <c r="M113" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O113" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>231</v>
       </c>
@@ -7456,11 +7908,11 @@
         <v>95.77</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3063</v>
       </c>
       <c r="K114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="L114" s="3">
@@ -7468,11 +7920,15 @@
         <v>95.77</v>
       </c>
       <c r="M114" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3063</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <f t="shared" si="7"/>
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -7500,11 +7956,11 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="L115" s="3">
@@ -7512,11 +7968,15 @@
         <v>0</v>
       </c>
       <c r="M115" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>235</v>
       </c>
@@ -7544,11 +8004,11 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="L116" s="3">
@@ -7556,11 +8016,15 @@
         <v>0</v>
       </c>
       <c r="M116" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>237</v>
       </c>
@@ -7588,11 +8052,11 @@
         <v>22.84</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1230</v>
       </c>
       <c r="K117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="L117" s="3">
@@ -7600,11 +8064,15 @@
         <v>22.84</v>
       </c>
       <c r="M117" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1230</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <f t="shared" si="7"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -7632,11 +8100,11 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="K118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="L118" s="3">
@@ -7644,11 +8112,15 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="M118" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>241</v>
       </c>
@@ -7676,11 +8148,11 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="L119" s="3">
@@ -7688,11 +8160,15 @@
         <v>0</v>
       </c>
       <c r="M119" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -7720,11 +8196,11 @@
         <v>82.06</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21769.5</v>
       </c>
       <c r="K120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="L120" s="3">
@@ -7732,11 +8208,15 @@
         <v>82.06</v>
       </c>
       <c r="M120" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21769.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <f t="shared" si="7"/>
+        <v>21769.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -7764,11 +8244,11 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="L121" s="3">
@@ -7776,11 +8256,15 @@
         <v>0</v>
       </c>
       <c r="M121" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>247</v>
       </c>
@@ -7808,11 +8292,11 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="L122" s="3">
@@ -7820,11 +8304,15 @@
         <v>0</v>
       </c>
       <c r="M122" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O122" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>249</v>
       </c>
@@ -7852,11 +8340,11 @@
         <v>86.32</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>452.8</v>
       </c>
       <c r="K123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="L123" s="3">
@@ -7864,11 +8352,15 @@
         <v>86.32</v>
       </c>
       <c r="M123" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>452.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <f t="shared" si="7"/>
+        <v>452.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>251</v>
       </c>
@@ -7896,11 +8388,11 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="L124" s="3">
@@ -7908,11 +8400,15 @@
         <v>0</v>
       </c>
       <c r="M124" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O124" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>253</v>
       </c>
@@ -7940,11 +8436,11 @@
         <v>88.32</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.8</v>
       </c>
       <c r="K125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="L125" s="3">
@@ -7952,11 +8448,15 @@
         <v>88.32</v>
       </c>
       <c r="M125" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <f t="shared" si="7"/>
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>255</v>
       </c>
@@ -7984,11 +8484,11 @@
         <v>48.94</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>476</v>
       </c>
       <c r="K126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="L126" s="3">
@@ -7996,11 +8496,15 @@
         <v>48.94</v>
       </c>
       <c r="M126" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>476</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <f t="shared" si="7"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -8028,11 +8532,11 @@
         <v>62.43</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42594.83</v>
       </c>
       <c r="K127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="L127" s="3">
@@ -8040,11 +8544,15 @@
         <v>62.43</v>
       </c>
       <c r="M127" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42594.83</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <f t="shared" si="7"/>
+        <v>42594.83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>259</v>
       </c>
@@ -8072,11 +8580,11 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="L128" s="3">
@@ -8084,11 +8592,15 @@
         <v>0</v>
       </c>
       <c r="M128" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O128" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>261</v>
       </c>
@@ -8116,11 +8628,11 @@
         <v>90.4</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2520</v>
       </c>
       <c r="K129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="L129" s="3">
@@ -8128,11 +8640,15 @@
         <v>90.4</v>
       </c>
       <c r="M129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <f t="shared" si="7"/>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>263</v>
       </c>
@@ -8160,11 +8676,11 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="L130" s="3">
@@ -8172,11 +8688,15 @@
         <v>0</v>
       </c>
       <c r="M130" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>265</v>
       </c>
@@ -8204,11 +8724,11 @@
         <v>0.69</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="6">IF(E131=0,0,IF(ISNA(F131),"",F131))</f>
+        <f t="shared" ref="I131:I194" si="8">IF(E131=0,0,IF(ISNA(F131),"",F131))</f>
         <v>1888</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="7">G131</f>
+        <f t="shared" ref="K131:K194" si="9">G131</f>
         <v>139</v>
       </c>
       <c r="L131" s="3">
@@ -8216,11 +8736,15 @@
         <v>0.69</v>
       </c>
       <c r="M131" s="3">
-        <f t="shared" ref="M131:M194" si="8">I131</f>
+        <f t="shared" ref="M131:M194" si="10">I131</f>
         <v>1888</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <f t="shared" ref="O131:O194" si="11">IF(E131=0,"",IF(ISNA(F131),"",F131))</f>
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>267</v>
       </c>
@@ -8248,11 +8772,11 @@
         <v>2.59</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>218.5</v>
       </c>
       <c r="K132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="L132" s="3">
@@ -8260,11 +8784,15 @@
         <v>2.59</v>
       </c>
       <c r="M132" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>218.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <f t="shared" si="11"/>
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>269</v>
       </c>
@@ -8292,11 +8820,11 @@
         <v>69.05</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4921.7</v>
       </c>
       <c r="K133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>157</v>
       </c>
       <c r="L133" s="3">
@@ -8304,11 +8832,15 @@
         <v>69.05</v>
       </c>
       <c r="M133" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4921.7</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <f t="shared" si="11"/>
+        <v>4921.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>271</v>
       </c>
@@ -8336,11 +8868,11 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="L134" s="3">
@@ -8348,11 +8880,15 @@
         <v>0</v>
       </c>
       <c r="M134" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>273</v>
       </c>
@@ -8380,11 +8916,11 @@
         <v>0.09</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>901.3</v>
       </c>
       <c r="K135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>146</v>
       </c>
       <c r="L135" s="3">
@@ -8392,11 +8928,15 @@
         <v>0.09</v>
       </c>
       <c r="M135" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>901.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <f t="shared" si="11"/>
+        <v>901.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>275</v>
       </c>
@@ -8424,11 +8964,11 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="L136" s="3">
@@ -8436,11 +8976,15 @@
         <v>0</v>
       </c>
       <c r="M136" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>277</v>
       </c>
@@ -8468,11 +9012,11 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>164</v>
       </c>
       <c r="L137" s="3">
@@ -8480,11 +9024,15 @@
         <v>0</v>
       </c>
       <c r="M137" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>279</v>
       </c>
@@ -8512,11 +9060,11 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="L138" s="3">
@@ -8524,11 +9072,15 @@
         <v>0</v>
       </c>
       <c r="M138" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O138" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>281</v>
       </c>
@@ -8556,11 +9108,11 @@
         <v>83.4</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23097.53</v>
       </c>
       <c r="K139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>158</v>
       </c>
       <c r="L139" s="3">
@@ -8568,11 +9120,15 @@
         <v>83.4</v>
       </c>
       <c r="M139" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23097.53</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <f t="shared" si="11"/>
+        <v>23097.53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>283</v>
       </c>
@@ -8600,11 +9156,11 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
       <c r="L140" s="3">
@@ -8612,11 +9168,15 @@
         <v>0</v>
       </c>
       <c r="M140" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O140" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -8644,11 +9204,11 @@
         <v>6.21</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2454.4</v>
       </c>
       <c r="K141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="L141" s="3">
@@ -8656,11 +9216,15 @@
         <v>6.21</v>
       </c>
       <c r="M141" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2454.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <f t="shared" si="11"/>
+        <v>2454.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>287</v>
       </c>
@@ -8688,11 +9252,11 @@
         <v>0.27</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>186.3</v>
       </c>
       <c r="K142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="L142" s="3">
@@ -8700,11 +9264,15 @@
         <v>0.27</v>
       </c>
       <c r="M142" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>186.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <f t="shared" si="11"/>
+        <v>186.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>289</v>
       </c>
@@ -8732,11 +9300,11 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
       <c r="L143" s="3">
@@ -8744,11 +9312,15 @@
         <v>0</v>
       </c>
       <c r="M143" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O143" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>291</v>
       </c>
@@ -8776,11 +9348,11 @@
         <v>88.76</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8919.1</v>
       </c>
       <c r="K144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="L144" s="3">
@@ -8788,11 +9360,15 @@
         <v>88.76</v>
       </c>
       <c r="M144" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8919.1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <f t="shared" si="11"/>
+        <v>8919.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>293</v>
       </c>
@@ -8820,11 +9396,11 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>142</v>
       </c>
       <c r="L145" s="3">
@@ -8832,11 +9408,15 @@
         <v>0</v>
       </c>
       <c r="M145" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O145" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>295</v>
       </c>
@@ -8864,11 +9444,11 @@
         <v>48.26</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1235</v>
       </c>
       <c r="K146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>159</v>
       </c>
       <c r="L146" s="3">
@@ -8876,11 +9456,15 @@
         <v>48.26</v>
       </c>
       <c r="M146" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1235</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <f t="shared" si="11"/>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>297</v>
       </c>
@@ -8908,11 +9492,11 @@
         <v>1.41</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8118.85</v>
       </c>
       <c r="K147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="L147" s="3">
@@ -8920,11 +9504,15 @@
         <v>1.41</v>
       </c>
       <c r="M147" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8118.85</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <f t="shared" si="11"/>
+        <v>8118.85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>299</v>
       </c>
@@ -8952,11 +9540,11 @@
         <v>1.92</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16932.61</v>
       </c>
       <c r="K148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
       <c r="L148" s="3">
@@ -8964,11 +9552,15 @@
         <v>1.92</v>
       </c>
       <c r="M148" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16932.61</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <f t="shared" si="11"/>
+        <v>16932.61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>301</v>
       </c>
@@ -8996,11 +9588,11 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
       <c r="L149" s="3">
@@ -9008,11 +9600,15 @@
         <v>0</v>
       </c>
       <c r="M149" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O149" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>303</v>
       </c>
@@ -9040,11 +9636,11 @@
         <v>81.62</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>879.71</v>
       </c>
       <c r="K150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
       <c r="L150" s="3">
@@ -9052,11 +9648,15 @@
         <v>81.62</v>
       </c>
       <c r="M150" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>879.71</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <f t="shared" si="11"/>
+        <v>879.71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>305</v>
       </c>
@@ -9084,11 +9684,11 @@
         <v>0</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
       <c r="L151" s="3">
@@ -9096,11 +9696,15 @@
         <v>0</v>
       </c>
       <c r="M151" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O151" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>307</v>
       </c>
@@ -9128,11 +9732,11 @@
         <v>0</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>182</v>
       </c>
       <c r="L152" s="3">
@@ -9140,11 +9744,15 @@
         <v>0</v>
       </c>
       <c r="M152" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>309</v>
       </c>
@@ -9172,11 +9780,11 @@
         <v>13.77</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4676.2700000000004</v>
       </c>
       <c r="K153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>166</v>
       </c>
       <c r="L153" s="3">
@@ -9184,11 +9792,15 @@
         <v>13.77</v>
       </c>
       <c r="M153" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4676.2700000000004</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <f t="shared" si="11"/>
+        <v>4676.2700000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>311</v>
       </c>
@@ -9216,11 +9828,11 @@
         <v>96.36</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11124.38</v>
       </c>
       <c r="K154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="L154" s="3">
@@ -9228,11 +9840,15 @@
         <v>96.36</v>
       </c>
       <c r="M154" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11124.38</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <f t="shared" si="11"/>
+        <v>11124.38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>313</v>
       </c>
@@ -9260,11 +9876,11 @@
         <v>67.58</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30188.2</v>
       </c>
       <c r="K155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>177</v>
       </c>
       <c r="L155" s="3">
@@ -9272,11 +9888,15 @@
         <v>67.58</v>
       </c>
       <c r="M155" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30188.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <f t="shared" si="11"/>
+        <v>30188.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>315</v>
       </c>
@@ -9304,11 +9924,11 @@
         <v>1.7</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6141</v>
       </c>
       <c r="K156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="L156" s="3">
@@ -9316,11 +9936,15 @@
         <v>1.7</v>
       </c>
       <c r="M156" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6141</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <f t="shared" si="11"/>
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>317</v>
       </c>
@@ -9348,11 +9972,11 @@
         <v>52.41</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5524.5</v>
       </c>
       <c r="K157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
       <c r="L157" s="3">
@@ -9360,11 +9984,15 @@
         <v>52.41</v>
       </c>
       <c r="M157" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5524.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <f t="shared" si="11"/>
+        <v>5524.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>319</v>
       </c>
@@ -9392,11 +10020,11 @@
         <v>94.92</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10541.5</v>
       </c>
       <c r="K158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>183</v>
       </c>
       <c r="L158" s="3">
@@ -9404,11 +10032,15 @@
         <v>94.92</v>
       </c>
       <c r="M158" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10541.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <f t="shared" si="11"/>
+        <v>10541.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>321</v>
       </c>
@@ -9436,11 +10068,11 @@
         <v>58.73</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11302</v>
       </c>
       <c r="K159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
       <c r="L159" s="3">
@@ -9448,11 +10080,15 @@
         <v>58.73</v>
       </c>
       <c r="M159" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11302</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <f t="shared" si="11"/>
+        <v>11302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>323</v>
       </c>
@@ -9480,11 +10116,11 @@
         <v>91.95</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>192238.04</v>
       </c>
       <c r="K160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>176</v>
       </c>
       <c r="L160" s="3">
@@ -9492,11 +10128,15 @@
         <v>91.95</v>
       </c>
       <c r="M160" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>192238.04</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <f t="shared" si="11"/>
+        <v>192238.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>325</v>
       </c>
@@ -9524,11 +10164,11 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="L161" s="3">
@@ -9536,11 +10176,15 @@
         <v>0</v>
       </c>
       <c r="M161" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O161" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>327</v>
       </c>
@@ -9568,11 +10212,11 @@
         <v>0</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>238</v>
       </c>
       <c r="L162" s="3">
@@ -9580,11 +10224,15 @@
         <v>0</v>
       </c>
       <c r="M162" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O162" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>329</v>
       </c>
@@ -9612,11 +10260,11 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>210</v>
       </c>
       <c r="L163" s="3">
@@ -9624,11 +10272,15 @@
         <v>0</v>
       </c>
       <c r="M163" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O163" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>331</v>
       </c>
@@ -9656,11 +10308,11 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="L164" s="3">
@@ -9668,11 +10320,15 @@
         <v>0</v>
       </c>
       <c r="M164" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O164" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>333</v>
       </c>
@@ -9700,11 +10356,11 @@
         <v>89.49</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>62841.599999999999</v>
       </c>
       <c r="K165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
       <c r="L165" s="3">
@@ -9712,11 +10368,15 @@
         <v>89.49</v>
       </c>
       <c r="M165" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62841.599999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <f t="shared" si="11"/>
+        <v>62841.599999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>335</v>
       </c>
@@ -9744,11 +10404,11 @@
         <v>8.75</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>475.4</v>
       </c>
       <c r="K166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>218</v>
       </c>
       <c r="L166" s="3">
@@ -9756,11 +10416,15 @@
         <v>8.75</v>
       </c>
       <c r="M166" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>475.4</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <f t="shared" si="11"/>
+        <v>475.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>337</v>
       </c>
@@ -9788,11 +10452,11 @@
         <v>81.66</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4565.5</v>
       </c>
       <c r="K167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
       <c r="L167" s="3">
@@ -9800,11 +10464,15 @@
         <v>81.66</v>
       </c>
       <c r="M167" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4565.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <f t="shared" si="11"/>
+        <v>4565.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>339</v>
       </c>
@@ -9832,11 +10500,11 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
       <c r="L168" s="3">
@@ -9844,11 +10512,15 @@
         <v>0</v>
       </c>
       <c r="M168" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O168" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>341</v>
       </c>
@@ -9876,11 +10548,11 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>209</v>
       </c>
       <c r="L169" s="3">
@@ -9888,11 +10560,15 @@
         <v>0</v>
       </c>
       <c r="M169" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O169" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>343</v>
       </c>
@@ -9920,11 +10596,11 @@
         <v>98.16</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12413.7</v>
       </c>
       <c r="K170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>219</v>
       </c>
       <c r="L170" s="3">
@@ -9932,11 +10608,15 @@
         <v>98.16</v>
       </c>
       <c r="M170" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12413.7</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <f t="shared" si="11"/>
+        <v>12413.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>345</v>
       </c>
@@ -9964,11 +10644,11 @@
         <v>99.37</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="K171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>234</v>
       </c>
       <c r="L171" s="3">
@@ -9976,11 +10656,15 @@
         <v>99.37</v>
       </c>
       <c r="M171" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>347</v>
       </c>
@@ -10008,11 +10692,11 @@
         <v>14.45</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3965</v>
       </c>
       <c r="K172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>212</v>
       </c>
       <c r="L172" s="3">
@@ -10020,11 +10704,15 @@
         <v>14.45</v>
       </c>
       <c r="M172" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3965</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O172">
+        <f t="shared" si="11"/>
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>349</v>
       </c>
@@ -10052,11 +10740,11 @@
         <v>46.77</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1938</v>
       </c>
       <c r="K173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>194</v>
       </c>
       <c r="L173" s="3">
@@ -10064,11 +10752,15 @@
         <v>46.77</v>
       </c>
       <c r="M173" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1938</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O173">
+        <f t="shared" si="11"/>
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>351</v>
       </c>
@@ -10096,11 +10788,11 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>185</v>
       </c>
       <c r="L174" s="3">
@@ -10108,11 +10800,15 @@
         <v>0</v>
       </c>
       <c r="M174" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O174" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>353</v>
       </c>
@@ -10140,11 +10836,11 @@
         <v>0</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="L175" s="3">
@@ -10152,11 +10848,15 @@
         <v>0</v>
       </c>
       <c r="M175" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O175" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -10184,11 +10884,11 @@
         <v>69.849999999999994</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>43221.3</v>
       </c>
       <c r="K176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>227</v>
       </c>
       <c r="L176" s="3">
@@ -10196,11 +10896,15 @@
         <v>69.849999999999994</v>
       </c>
       <c r="M176" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43221.3</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O176">
+        <f t="shared" si="11"/>
+        <v>43221.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>357</v>
       </c>
@@ -10228,11 +10932,11 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>196</v>
       </c>
       <c r="L177" s="3">
@@ -10240,11 +10944,15 @@
         <v>0</v>
       </c>
       <c r="M177" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O177" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -10272,11 +10980,11 @@
         <v>64.98</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50315.03</v>
       </c>
       <c r="K178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="L178" s="3">
@@ -10284,11 +10992,15 @@
         <v>64.98</v>
       </c>
       <c r="M178" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50315.03</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O178">
+        <f t="shared" si="11"/>
+        <v>50315.03</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>361</v>
       </c>
@@ -10316,11 +11028,11 @@
         <v>80.400000000000006</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2219.3000000000002</v>
       </c>
       <c r="K179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="L179" s="3">
@@ -10328,11 +11040,15 @@
         <v>80.400000000000006</v>
       </c>
       <c r="M179" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2219.3000000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O179">
+        <f t="shared" si="11"/>
+        <v>2219.3000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>363</v>
       </c>
@@ -10360,11 +11076,11 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
       <c r="L180" s="3">
@@ -10372,11 +11088,15 @@
         <v>0</v>
       </c>
       <c r="M180" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O180" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>365</v>
       </c>
@@ -10404,11 +11124,11 @@
         <v>47.23</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>77.2</v>
       </c>
       <c r="K181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="L181" s="3">
@@ -10416,11 +11136,15 @@
         <v>47.23</v>
       </c>
       <c r="M181" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>77.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O181">
+        <f t="shared" si="11"/>
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>367</v>
       </c>
@@ -10448,11 +11172,11 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>251</v>
       </c>
       <c r="L182" s="3">
@@ -10460,11 +11184,15 @@
         <v>0</v>
       </c>
       <c r="M182" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O182" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>369</v>
       </c>
@@ -10492,11 +11220,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2200</v>
       </c>
       <c r="K183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>188</v>
       </c>
       <c r="L183" s="3">
@@ -10504,11 +11232,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M183" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2200</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O183">
+        <f t="shared" si="11"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>371</v>
       </c>
@@ -10536,11 +11268,11 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="L184" s="3">
@@ -10548,11 +11280,15 @@
         <v>0</v>
       </c>
       <c r="M184" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O184" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>373</v>
       </c>
@@ -10580,11 +11316,11 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>203</v>
       </c>
       <c r="L185" s="3">
@@ -10592,11 +11328,15 @@
         <v>0</v>
       </c>
       <c r="M185" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O185" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>375</v>
       </c>
@@ -10624,11 +11364,11 @@
         <v>98.94</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13350</v>
       </c>
       <c r="K186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>189</v>
       </c>
       <c r="L186" s="3">
@@ -10636,11 +11376,15 @@
         <v>98.94</v>
       </c>
       <c r="M186" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13350</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O186">
+        <f t="shared" si="11"/>
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>377</v>
       </c>
@@ -10668,11 +11412,11 @@
         <v>72.84</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3443</v>
       </c>
       <c r="K187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="L187" s="3">
@@ -10680,11 +11424,15 @@
         <v>72.84</v>
       </c>
       <c r="M187" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3443</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O187">
+        <f t="shared" si="11"/>
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>379</v>
       </c>
@@ -10712,11 +11460,11 @@
         <v>10.43</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7469</v>
       </c>
       <c r="K188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="L188" s="3">
@@ -10724,11 +11472,15 @@
         <v>10.43</v>
       </c>
       <c r="M188" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7469</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O188">
+        <f t="shared" si="11"/>
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>381</v>
       </c>
@@ -10756,11 +11508,11 @@
         <v>98.15</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>198</v>
       </c>
       <c r="L189" s="3">
@@ -10768,11 +11520,15 @@
         <v>98.15</v>
       </c>
       <c r="M189" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O189" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>383</v>
       </c>
@@ -10800,11 +11556,11 @@
         <v>0.81</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>822.16</v>
       </c>
       <c r="K190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
       <c r="L190" s="3">
@@ -10812,11 +11568,15 @@
         <v>0.81</v>
       </c>
       <c r="M190" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>822.16</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O190">
+        <f t="shared" si="11"/>
+        <v>822.16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>385</v>
       </c>
@@ -10844,11 +11604,11 @@
         <v>1.67</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35334.03</v>
       </c>
       <c r="K191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>215</v>
       </c>
       <c r="L191" s="3">
@@ -10856,11 +11616,15 @@
         <v>1.67</v>
       </c>
       <c r="M191" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35334.03</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O191">
+        <f t="shared" si="11"/>
+        <v>35334.03</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>387</v>
       </c>
@@ -10888,11 +11652,11 @@
         <v>0</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>202</v>
       </c>
       <c r="L192" s="3">
@@ -10900,11 +11664,15 @@
         <v>0</v>
       </c>
       <c r="M192" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O192" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>389</v>
       </c>
@@ -10932,11 +11700,11 @@
         <v>0</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>214</v>
       </c>
       <c r="L193" s="3">
@@ -10944,11 +11712,15 @@
         <v>0</v>
       </c>
       <c r="M193" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O193" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>391</v>
       </c>
@@ -10976,11 +11748,11 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="L194" s="3">
@@ -10988,11 +11760,15 @@
         <v>0</v>
       </c>
       <c r="M194" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O194" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>393</v>
       </c>
@@ -11020,11 +11796,11 @@
         <v>99.1</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I215" si="9">IF(E195=0,0,IF(ISNA(F195),"",F195))</f>
+        <f t="shared" ref="I195:I215" si="12">IF(E195=0,0,IF(ISNA(F195),"",F195))</f>
         <v>2308.6</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K215" si="10">G195</f>
+        <f t="shared" ref="K195:K215" si="13">G195</f>
         <v>192</v>
       </c>
       <c r="L195" s="3">
@@ -11032,11 +11808,15 @@
         <v>99.1</v>
       </c>
       <c r="M195" s="3">
-        <f t="shared" ref="M195:M215" si="11">I195</f>
+        <f t="shared" ref="M195:M215" si="14">I195</f>
         <v>2308.6</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O195">
+        <f t="shared" ref="O195:O215" si="15">IF(E195=0,"",IF(ISNA(F195),"",F195))</f>
+        <v>2308.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>395</v>
       </c>
@@ -11064,11 +11844,11 @@
         <v>80.959999999999994</v>
       </c>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3231</v>
       </c>
       <c r="K196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>211</v>
       </c>
       <c r="L196" s="3">
@@ -11076,11 +11856,15 @@
         <v>80.959999999999994</v>
       </c>
       <c r="M196" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3231</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O196">
+        <f t="shared" si="15"/>
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>397</v>
       </c>
@@ -11108,11 +11892,11 @@
         <v>19.55</v>
       </c>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>35337.72</v>
       </c>
       <c r="K197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>217</v>
       </c>
       <c r="L197" s="3">
@@ -11120,11 +11904,15 @@
         <v>19.55</v>
       </c>
       <c r="M197" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>35337.72</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O197">
+        <f t="shared" si="15"/>
+        <v>35337.72</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>399</v>
       </c>
@@ -11152,11 +11940,11 @@
         <v>83.56</v>
       </c>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3112</v>
       </c>
       <c r="K198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>208</v>
       </c>
       <c r="L198" s="3">
@@ -11164,11 +11952,15 @@
         <v>83.56</v>
       </c>
       <c r="M198" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3112</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O198">
+        <f t="shared" si="15"/>
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>401</v>
       </c>
@@ -11196,11 +11988,11 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>204</v>
       </c>
       <c r="L199" s="3">
@@ -11208,11 +12000,15 @@
         <v>0</v>
       </c>
       <c r="M199" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O199" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>403</v>
       </c>
@@ -11240,11 +12036,11 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>193</v>
       </c>
       <c r="L200" s="3">
@@ -11252,11 +12048,15 @@
         <v>0</v>
       </c>
       <c r="M200" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O200" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>405</v>
       </c>
@@ -11284,11 +12084,11 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>222</v>
       </c>
       <c r="L201" s="3">
@@ -11296,11 +12096,15 @@
         <v>0</v>
       </c>
       <c r="M201" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O201" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>407</v>
       </c>
@@ -11328,11 +12132,11 @@
         <v>94.94</v>
       </c>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46512.84</v>
       </c>
       <c r="K202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>206</v>
       </c>
       <c r="L202" s="3">
@@ -11340,11 +12144,15 @@
         <v>94.94</v>
       </c>
       <c r="M202" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>46512.84</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O202">
+        <f t="shared" si="15"/>
+        <v>46512.84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>409</v>
       </c>
@@ -11372,11 +12180,11 @@
         <v>0.24</v>
       </c>
       <c r="I203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>34049.1</v>
       </c>
       <c r="K203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="L203" s="3">
@@ -11384,11 +12192,15 @@
         <v>0.24</v>
       </c>
       <c r="M203" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>34049.1</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O203">
+        <f t="shared" si="15"/>
+        <v>34049.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>411</v>
       </c>
@@ -11416,11 +12228,11 @@
         <v>78.95</v>
       </c>
       <c r="I204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>69743</v>
       </c>
       <c r="K204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>223</v>
       </c>
       <c r="L204" s="3">
@@ -11428,11 +12240,15 @@
         <v>78.95</v>
       </c>
       <c r="M204" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>69743</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O204">
+        <f t="shared" si="15"/>
+        <v>69743</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>413</v>
       </c>
@@ -11460,11 +12276,11 @@
         <v>71.63</v>
       </c>
       <c r="I205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>933080.5</v>
       </c>
       <c r="K205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>230</v>
       </c>
       <c r="L205" s="3">
@@ -11472,11 +12288,15 @@
         <v>71.63</v>
       </c>
       <c r="M205" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>933080.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <f t="shared" si="15"/>
+        <v>933080.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>415</v>
       </c>
@@ -11504,11 +12324,11 @@
         <v>96.73</v>
       </c>
       <c r="I206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>993</v>
       </c>
       <c r="K206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>235</v>
       </c>
       <c r="L206" s="3">
@@ -11516,11 +12336,15 @@
         <v>96.73</v>
       </c>
       <c r="M206" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>993</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <f t="shared" si="15"/>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>417</v>
       </c>
@@ -11548,11 +12372,11 @@
         <v>40.81</v>
       </c>
       <c r="I207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>11256</v>
       </c>
       <c r="K207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>249</v>
       </c>
       <c r="L207" s="3">
@@ -11560,11 +12384,15 @@
         <v>40.81</v>
       </c>
       <c r="M207" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11256</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <f t="shared" si="15"/>
+        <v>11256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>419</v>
       </c>
@@ -11592,11 +12420,11 @@
         <v>0</v>
       </c>
       <c r="I208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>236</v>
       </c>
       <c r="L208" s="3">
@@ -11604,11 +12432,15 @@
         <v>0</v>
       </c>
       <c r="M208" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O208" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>421</v>
       </c>
@@ -11636,11 +12468,11 @@
         <v>84.19</v>
       </c>
       <c r="I209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>11993.89</v>
       </c>
       <c r="K209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>257</v>
       </c>
       <c r="L209" s="3">
@@ -11648,11 +12480,15 @@
         <v>84.19</v>
       </c>
       <c r="M209" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11993.89</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <f t="shared" si="15"/>
+        <v>11993.89</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>423</v>
       </c>
@@ -11680,11 +12516,11 @@
         <v>71.86</v>
       </c>
       <c r="I210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15335.26</v>
       </c>
       <c r="K210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>228</v>
       </c>
       <c r="L210" s="3">
@@ -11692,11 +12528,15 @@
         <v>71.86</v>
       </c>
       <c r="M210" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>15335.26</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <f t="shared" si="15"/>
+        <v>15335.26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>425</v>
       </c>
@@ -11724,11 +12564,11 @@
         <v>12.25</v>
       </c>
       <c r="I211" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>225</v>
       </c>
       <c r="L211" s="3">
@@ -11736,11 +12576,15 @@
         <v>12.25</v>
       </c>
       <c r="M211" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O211" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>427</v>
       </c>
@@ -11768,11 +12612,11 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>179</v>
       </c>
       <c r="L212" s="3">
@@ -11780,11 +12624,15 @@
         <v>0</v>
       </c>
       <c r="M212" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>429</v>
       </c>
@@ -11812,11 +12660,11 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>226</v>
       </c>
       <c r="L213" s="3">
@@ -11824,11 +12672,15 @@
         <v>0</v>
       </c>
       <c r="M213" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O213" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>431</v>
       </c>
@@ -11856,11 +12708,11 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>229</v>
       </c>
       <c r="L214" s="3">
@@ -11868,11 +12720,15 @@
         <v>0</v>
       </c>
       <c r="M214" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O214" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -11900,11 +12756,11 @@
         <v>3.78</v>
       </c>
       <c r="I215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1130</v>
       </c>
       <c r="K215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>231</v>
       </c>
       <c r="L215" s="3">
@@ -11912,7 +12768,11 @@
         <v>3.78</v>
       </c>
       <c r="M215" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>1130</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="15"/>
         <v>1130</v>
       </c>
     </row>

--- a/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
+++ b/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edwin\github\edwinkost\pgb_data_for_prometheus_primes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D503C-7D70-46A3-81CA-705F59A836A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF3DA05-3850-453B-BE4C-85F698F16C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="734" activeTab="3" xr2:uid="{8DD76264-C2FB-48A2-8B6A-B0A9CA53C1E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="734" activeTab="1" xr2:uid="{8DD76264-C2FB-48A2-8B6A-B0A9CA53C1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="pgb_industrial_split_pow_ic" sheetId="1" r:id="rId1"/>
@@ -1447,7 +1447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,12 +1581,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1936,7 +1930,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1947,6 +1941,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5783,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1C3275-AD4E-4E48-923E-AC570E341997}">
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <f>IF(E2=0,0,IF(ISNA(F2),"",F2))</f>
+        <f t="shared" ref="K2:K38" si="1">IF(E2=0,0,IF(ISNA(F2),"",F2))</f>
         <v>0</v>
       </c>
       <c r="M2">
@@ -5900,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <f>IF(E2=0,"",IF(ISNA(F2),"",F2))</f>
+        <f t="shared" ref="Q2:Q33" si="2">IF(E2=0,"",IF(ISNA(F2),"",F2))</f>
         <v/>
       </c>
       <c r="R2">
@@ -5940,27 +5935,27 @@
         <v>262130000</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">I3*H3</f>
+        <f t="shared" ref="J3:J66" si="3">I3*H3</f>
         <v>1502004900</v>
       </c>
       <c r="K3" s="2">
-        <f>IF(E3=0,0,IF(ISNA(F3),"",F3))</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="M3">
-        <f>G3</f>
+        <f t="shared" ref="M3:M66" si="4">G3</f>
         <v>11</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N66" si="2">H3</f>
+        <f t="shared" ref="N3:N66" si="5">H3</f>
         <v>5.73</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="3">K3</f>
+        <f t="shared" ref="O3:O66" si="6">K3</f>
         <v>97</v>
       </c>
       <c r="Q3">
-        <f>IF(E3=0,"",IF(ISNA(F3),"",F3))</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
     </row>
@@ -5996,27 +5991,27 @@
         <v>1097370000</v>
       </c>
       <c r="J4">
+        <f t="shared" si="3"/>
+        <v>438948000</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>438948000</v>
-      </c>
-      <c r="K4" s="2">
-        <f>IF(E4=0,0,IF(ISNA(F4),"",F4))</f>
         <v>13149</v>
       </c>
       <c r="M4">
-        <f>G4</f>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="N4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="6"/>
+        <v>13149</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="3"/>
-        <v>13149</v>
-      </c>
-      <c r="Q4">
-        <f>IF(E4=0,"",IF(ISNA(F4),"",F4))</f>
         <v>13149</v>
       </c>
     </row>
@@ -6052,27 +6047,27 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
-        <f>IF(E5=0,0,IF(ISNA(F5),"",F5))</f>
-        <v>0</v>
-      </c>
       <c r="M5">
-        <f>G5</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N5" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" t="str">
-        <f>IF(E5=0,"",IF(ISNA(F5),"",F5))</f>
         <v/>
       </c>
     </row>
@@ -6108,27 +6103,27 @@
         <v>49746000</v>
       </c>
       <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <f>IF(E6=0,0,IF(ISNA(F6),"",F6))</f>
-        <v>0</v>
-      </c>
       <c r="M6">
-        <f>G6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N6" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" t="str">
-        <f>IF(E6=0,"",IF(ISNA(F6),"",F6))</f>
         <v/>
       </c>
     </row>
@@ -6164,27 +6159,27 @@
         <v>47558800</v>
       </c>
       <c r="J7">
+        <f t="shared" si="3"/>
+        <v>3107491992</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>3107491992</v>
-      </c>
-      <c r="K7" s="2">
-        <f>IF(E7=0,0,IF(ISNA(F7),"",F7))</f>
         <v>404</v>
       </c>
       <c r="M7">
-        <f>G7</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N7" s="2">
+        <f t="shared" si="5"/>
+        <v>65.34</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="2"/>
-        <v>65.34</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="3"/>
-        <v>404</v>
-      </c>
-      <c r="Q7">
-        <f>IF(E7=0,"",IF(ISNA(F7),"",F7))</f>
         <v>404</v>
       </c>
     </row>
@@ -6220,27 +6215,27 @@
         <v>238474</v>
       </c>
       <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
-        <f>IF(E8=0,0,IF(ISNA(F8),"",F8))</f>
-        <v>0</v>
-      </c>
       <c r="M8">
-        <f>G8</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N8" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>IF(E8=0,"",IF(ISNA(F8),"",F8))</f>
         <v/>
       </c>
     </row>
@@ -6276,27 +6271,27 @@
         <v>9099100000</v>
       </c>
       <c r="J9">
+        <f t="shared" si="3"/>
+        <v>638028892000</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>638028892000</v>
-      </c>
-      <c r="K9" s="2">
-        <f>IF(E9=0,0,IF(ISNA(F9),"",F9))</f>
         <v>18185.189999999999</v>
       </c>
       <c r="M9">
-        <f>G9</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="N9" s="2">
+        <f t="shared" si="5"/>
+        <v>70.12</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="6"/>
+        <v>18185.189999999999</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="2"/>
-        <v>70.12</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="3"/>
-        <v>18185.189999999999</v>
-      </c>
-      <c r="Q9">
-        <f>IF(E9=0,"",IF(ISNA(F9),"",F9))</f>
         <v>18185.189999999999</v>
       </c>
     </row>
@@ -6332,27 +6327,27 @@
         <v>937381000</v>
       </c>
       <c r="J10">
+        <f t="shared" si="3"/>
+        <v>12054719660</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>12054719660</v>
-      </c>
-      <c r="K10" s="2">
-        <f>IF(E10=0,0,IF(ISNA(F10),"",F10))</f>
         <v>2257.9</v>
       </c>
       <c r="M10">
-        <f>G10</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N10" s="2">
+        <f t="shared" si="5"/>
+        <v>12.86</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="6"/>
+        <v>2257.9</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="2"/>
-        <v>12.86</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="3"/>
-        <v>2257.9</v>
-      </c>
-      <c r="Q10">
-        <f>IF(E10=0,"",IF(ISNA(F10),"",F10))</f>
         <v>2257.9</v>
       </c>
     </row>
@@ -6388,27 +6383,27 @@
         <v>2164290</v>
       </c>
       <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
-        <f>IF(E11=0,0,IF(ISNA(F11),"",F11))</f>
-        <v>0</v>
-      </c>
       <c r="M11">
-        <f>G11</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="N11" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>IF(E11=0,"",IF(ISNA(F11),"",F11))</f>
         <v/>
       </c>
     </row>
@@ -6444,27 +6439,27 @@
         <v>410689000</v>
       </c>
       <c r="J12">
+        <f t="shared" si="3"/>
+        <v>34124149010</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>34124149010</v>
-      </c>
-      <c r="K12" s="2">
-        <f>IF(E12=0,0,IF(ISNA(F12),"",F12))</f>
         <v>44916.2</v>
       </c>
       <c r="M12">
-        <f>G12</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="N12" s="2">
+        <f t="shared" si="5"/>
+        <v>83.09</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="6"/>
+        <v>44916.2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="2"/>
-        <v>83.09</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="3"/>
-        <v>44916.2</v>
-      </c>
-      <c r="Q12">
-        <f>IF(E12=0,"",IF(ISNA(F12),"",F12))</f>
         <v>44916.2</v>
       </c>
     </row>
@@ -6500,27 +6495,27 @@
         <v>2334730000</v>
       </c>
       <c r="J13">
+        <f t="shared" si="3"/>
+        <v>96541085500</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>96541085500</v>
-      </c>
-      <c r="K13" s="2">
-        <f>IF(E13=0,0,IF(ISNA(F13),"",F13))</f>
         <v>4332.0600000000004</v>
       </c>
       <c r="M13">
-        <f>G13</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="N13" s="2">
+        <f t="shared" si="5"/>
+        <v>41.35</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="6"/>
+        <v>4332.0600000000004</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="2"/>
-        <v>41.35</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="3"/>
-        <v>4332.0600000000004</v>
-      </c>
-      <c r="Q13">
-        <f>IF(E13=0,"",IF(ISNA(F13),"",F13))</f>
         <v>4332.0600000000004</v>
       </c>
     </row>
@@ -6556,27 +6551,27 @@
         <v>6131870000</v>
       </c>
       <c r="J14">
+        <f t="shared" si="3"/>
+        <v>434504308200</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>434504308200</v>
-      </c>
-      <c r="K14" s="2">
-        <f>IF(E14=0,0,IF(ISNA(F14),"",F14))</f>
         <v>6183.9</v>
       </c>
       <c r="M14">
-        <f>G14</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="N14" s="2">
+        <f t="shared" si="5"/>
+        <v>70.86</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="6"/>
+        <v>6183.9</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="2"/>
-        <v>70.86</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="3"/>
-        <v>6183.9</v>
-      </c>
-      <c r="Q14">
-        <f>IF(E14=0,"",IF(ISNA(F14),"",F14))</f>
         <v>6183.9</v>
       </c>
     </row>
@@ -6612,27 +6607,27 @@
         <v>19674600</v>
       </c>
       <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1935193656</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>1935193656</v>
-      </c>
-      <c r="K15" s="2">
-        <f>IF(E15=0,0,IF(ISNA(F15),"",F15))</f>
         <v>403.8</v>
       </c>
       <c r="M15">
-        <f>G15</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="N15" s="2">
+        <f t="shared" si="5"/>
+        <v>98.36</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="6"/>
+        <v>403.8</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="2"/>
-        <v>98.36</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="3"/>
-        <v>403.8</v>
-      </c>
-      <c r="Q15">
-        <f>IF(E15=0,"",IF(ISNA(F15),"",F15))</f>
         <v>403.8</v>
       </c>
     </row>
@@ -6668,27 +6663,27 @@
         <v>3209710</v>
       </c>
       <c r="J16">
+        <f t="shared" si="3"/>
+        <v>316894668.30000001</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>316894668.30000001</v>
-      </c>
-      <c r="K16" s="2">
-        <f>IF(E16=0,0,IF(ISNA(F16),"",F16))</f>
         <v>5394</v>
       </c>
       <c r="M16">
-        <f>G16</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="N16" s="2">
+        <f t="shared" si="5"/>
+        <v>98.73</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="6"/>
+        <v>5394</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="2"/>
-        <v>98.73</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="3"/>
-        <v>5394</v>
-      </c>
-      <c r="Q16">
-        <f>IF(E16=0,"",IF(ISNA(F16),"",F16))</f>
         <v>5394</v>
       </c>
     </row>
@@ -6724,27 +6719,27 @@
         <v>505321000</v>
       </c>
       <c r="J17">
+        <f t="shared" si="3"/>
+        <v>46853363120</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>46853363120</v>
-      </c>
-      <c r="K17" s="2">
-        <f>IF(E17=0,0,IF(ISNA(F17),"",F17))</f>
         <v>8177.7</v>
       </c>
       <c r="M17">
-        <f>G17</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="N17" s="2">
+        <f t="shared" si="5"/>
+        <v>92.72</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="6"/>
+        <v>8177.7</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="2"/>
-        <v>92.72</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="3"/>
-        <v>8177.7</v>
-      </c>
-      <c r="Q17">
-        <f>IF(E17=0,"",IF(ISNA(F17),"",F17))</f>
         <v>8177.7</v>
       </c>
     </row>
@@ -6780,27 +6775,27 @@
         <v>436724</v>
       </c>
       <c r="J18">
+        <f t="shared" si="3"/>
+        <v>25548354</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>25548354</v>
-      </c>
-      <c r="K18" s="2">
-        <f>IF(E18=0,0,IF(ISNA(F18),"",F18))</f>
         <v>285.39999999999998</v>
       </c>
       <c r="M18">
-        <f>G18</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N18" s="2">
+        <f t="shared" si="5"/>
+        <v>58.5</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="6"/>
+        <v>285.39999999999998</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="2"/>
-        <v>58.5</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="3"/>
-        <v>285.39999999999998</v>
-      </c>
-      <c r="Q18">
-        <f>IF(E18=0,"",IF(ISNA(F18),"",F18))</f>
         <v>285.39999999999998</v>
       </c>
     </row>
@@ -6836,27 +6831,27 @@
         <v>2777800000</v>
       </c>
       <c r="J19">
+        <f t="shared" si="3"/>
+        <v>204834972000</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>204834972000</v>
-      </c>
-      <c r="K19" s="2">
-        <f>IF(E19=0,0,IF(ISNA(F19),"",F19))</f>
         <v>8596.01</v>
       </c>
       <c r="M19">
-        <f>G19</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="N19" s="2">
+        <f t="shared" si="5"/>
+        <v>73.739999999999995</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="6"/>
+        <v>8596.01</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="2"/>
-        <v>73.739999999999995</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="3"/>
-        <v>8596.01</v>
-      </c>
-      <c r="Q19">
-        <f>IF(E19=0,"",IF(ISNA(F19),"",F19))</f>
         <v>8596.01</v>
       </c>
     </row>
@@ -6892,27 +6887,27 @@
         <v>11683000000</v>
       </c>
       <c r="J20">
+        <f t="shared" si="3"/>
+        <v>158538310000</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>158538310000</v>
-      </c>
-      <c r="K20" s="2">
-        <f>IF(E20=0,0,IF(ISNA(F20),"",F20))</f>
         <v>11815</v>
       </c>
       <c r="M20">
-        <f>G20</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="N20" s="2">
+        <f t="shared" si="5"/>
+        <v>13.57</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="6"/>
+        <v>11815</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="2"/>
-        <v>13.57</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="3"/>
-        <v>11815</v>
-      </c>
-      <c r="Q20">
-        <f>IF(E20=0,"",IF(ISNA(F20),"",F20))</f>
         <v>11815</v>
       </c>
     </row>
@@ -6948,27 +6943,27 @@
         <v>13314300</v>
       </c>
       <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="2">
-        <f>IF(E21=0,0,IF(ISNA(F21),"",F21))</f>
-        <v>0</v>
-      </c>
       <c r="M21">
-        <f>G21</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="N21" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" t="str">
-        <f>IF(E21=0,"",IF(ISNA(F21),"",F21))</f>
         <v/>
       </c>
     </row>
@@ -7004,27 +6999,27 @@
         <v>20996800</v>
       </c>
       <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
-        <f>IF(E22=0,0,IF(ISNA(F22),"",F22))</f>
-        <v>0</v>
-      </c>
       <c r="M22">
-        <f>G22</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" t="str">
-        <f>IF(E22=0,"",IF(ISNA(F22),"",F22))</f>
         <v/>
       </c>
     </row>
@@ -7060,27 +7055,27 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="2">
-        <f>IF(E23=0,0,IF(ISNA(F23),"",F23))</f>
-        <v>0</v>
-      </c>
       <c r="M23">
-        <f>G23</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" t="str">
-        <f>IF(E23=0,"",IF(ISNA(F23),"",F23))</f>
         <v/>
       </c>
     </row>
@@ -7116,27 +7111,27 @@
         <v>10724500</v>
       </c>
       <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="2">
-        <f>IF(E24=0,0,IF(ISNA(F24),"",F24))</f>
-        <v>0</v>
-      </c>
       <c r="M24">
-        <f>G24</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" t="str">
-        <f>IF(E24=0,"",IF(ISNA(F24),"",F24))</f>
         <v/>
       </c>
     </row>
@@ -7172,27 +7167,27 @@
         <v>119961000</v>
       </c>
       <c r="J25">
+        <f t="shared" si="3"/>
+        <v>89970750</v>
+      </c>
+      <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>89970750</v>
-      </c>
-      <c r="K25" s="2">
-        <f>IF(E25=0,0,IF(ISNA(F25),"",F25))</f>
         <v>1129.18</v>
       </c>
       <c r="M25">
-        <f>G25</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="N25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="6"/>
+        <v>1129.18</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="3"/>
-        <v>1129.18</v>
-      </c>
-      <c r="Q25">
-        <f>IF(E25=0,"",IF(ISNA(F25),"",F25))</f>
         <v>1129.18</v>
       </c>
     </row>
@@ -7228,27 +7223,27 @@
         <v>3813850000</v>
       </c>
       <c r="J26">
+        <f t="shared" si="3"/>
+        <v>10449949000</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>10449949000</v>
-      </c>
-      <c r="K26" s="2">
-        <f>IF(E26=0,0,IF(ISNA(F26),"",F26))</f>
         <v>1765</v>
       </c>
       <c r="M26">
-        <f>G26</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="N26" s="2">
+        <f t="shared" si="5"/>
+        <v>2.74</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="6"/>
+        <v>1765</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="2"/>
-        <v>2.74</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="3"/>
-        <v>1765</v>
-      </c>
-      <c r="Q26">
-        <f>IF(E26=0,"",IF(ISNA(F26),"",F26))</f>
         <v>1765</v>
       </c>
     </row>
@@ -7284,27 +7279,27 @@
         <v>35506700</v>
       </c>
       <c r="J27">
+        <f t="shared" si="3"/>
+        <v>220141540</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>220141540</v>
-      </c>
-      <c r="K27" s="2">
-        <f>IF(E27=0,0,IF(ISNA(F27),"",F27))</f>
         <v>742</v>
       </c>
       <c r="M27">
-        <f>G27</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="N27" s="2">
+        <f t="shared" si="5"/>
+        <v>6.2</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="6"/>
+        <v>742</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="2"/>
-        <v>6.2</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="3"/>
-        <v>742</v>
-      </c>
-      <c r="Q27">
-        <f>IF(E27=0,"",IF(ISNA(F27),"",F27))</f>
         <v>742</v>
       </c>
     </row>
@@ -7340,27 +7335,27 @@
         <v>12125000000</v>
       </c>
       <c r="J28">
+        <f t="shared" si="3"/>
+        <v>467418749999.99994</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>467418749999.99994</v>
-      </c>
-      <c r="K28" s="2">
-        <f>IF(E28=0,0,IF(ISNA(F28),"",F28))</f>
         <v>23503.55</v>
       </c>
       <c r="M28">
-        <f>G28</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="N28" s="2">
+        <f t="shared" si="5"/>
+        <v>38.549999999999997</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="6"/>
+        <v>23503.55</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="2"/>
-        <v>38.549999999999997</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="3"/>
-        <v>23503.55</v>
-      </c>
-      <c r="Q28">
-        <f>IF(E28=0,"",IF(ISNA(F28),"",F28))</f>
         <v>23503.55</v>
       </c>
     </row>
@@ -7396,27 +7391,27 @@
         <v>455643</v>
       </c>
       <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29" s="2">
-        <f>IF(E29=0,0,IF(ISNA(F29),"",F29))</f>
-        <v>0</v>
-      </c>
       <c r="M29">
-        <f>G29</f>
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
       <c r="N29" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" t="str">
-        <f>IF(E29=0,"",IF(ISNA(F29),"",F29))</f>
         <v/>
       </c>
     </row>
@@ -7452,27 +7447,27 @@
         <v>191706000</v>
       </c>
       <c r="J30">
+        <f t="shared" si="3"/>
+        <v>2281301400</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>2281301400</v>
-      </c>
-      <c r="K30" s="2">
-        <f>IF(E30=0,0,IF(ISNA(F30),"",F30))</f>
         <v>876</v>
       </c>
       <c r="M30">
-        <f>G30</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="N30" s="2">
+        <f t="shared" si="5"/>
+        <v>11.9</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="6"/>
+        <v>876</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="2"/>
-        <v>11.9</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" si="3"/>
-        <v>876</v>
-      </c>
-      <c r="Q30">
-        <f>IF(E30=0,"",IF(ISNA(F30),"",F30))</f>
         <v>876</v>
       </c>
     </row>
@@ -7508,27 +7503,27 @@
         <v>17652000000</v>
       </c>
       <c r="J31">
+        <f t="shared" si="3"/>
+        <v>1581795720000</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>1581795720000</v>
-      </c>
-      <c r="K31" s="2">
-        <f>IF(E31=0,0,IF(ISNA(F31),"",F31))</f>
         <v>6557.2</v>
       </c>
       <c r="M31">
-        <f>G31</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N31" s="2">
+        <f t="shared" si="5"/>
+        <v>89.61</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="6"/>
+        <v>6557.2</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="2"/>
-        <v>89.61</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="3"/>
-        <v>6557.2</v>
-      </c>
-      <c r="Q31">
-        <f>IF(E31=0,"",IF(ISNA(F31),"",F31))</f>
         <v>6557.2</v>
       </c>
     </row>
@@ -7564,27 +7559,27 @@
         <v>1751900</v>
       </c>
       <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="2">
-        <f>IF(E32=0,0,IF(ISNA(F32),"",F32))</f>
-        <v>0</v>
-      </c>
       <c r="M32">
-        <f>G32</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="N32" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" t="str">
-        <f>IF(E32=0,"",IF(ISNA(F32),"",F32))</f>
         <v/>
       </c>
     </row>
@@ -7620,27 +7615,27 @@
         <v>1318950</v>
       </c>
       <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K33" s="2">
-        <f>IF(E33=0,0,IF(ISNA(F33),"",F33))</f>
-        <v>0</v>
-      </c>
       <c r="M33">
-        <f>G33</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="N33" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" t="str">
-        <f>IF(E33=0,"",IF(ISNA(F33),"",F33))</f>
         <v/>
       </c>
     </row>
@@ -7676,27 +7671,27 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K34" s="2">
-        <f>IF(E34=0,0,IF(ISNA(F34),"",F34))</f>
-        <v>0</v>
-      </c>
       <c r="M34">
-        <f>G34</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q34" t="str">
-        <f>IF(E34=0,"",IF(ISNA(F34),"",F34))</f>
+        <f t="shared" ref="Q34:Q65" si="7">IF(E34=0,"",IF(ISNA(F34),"",F34))</f>
         <v/>
       </c>
     </row>
@@ -7732,27 +7727,27 @@
         <v>17470300</v>
       </c>
       <c r="J35">
+        <f t="shared" si="3"/>
+        <v>1140810590</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>1140810590</v>
-      </c>
-      <c r="K35" s="2">
-        <f>IF(E35=0,0,IF(ISNA(F35),"",F35))</f>
         <v>100</v>
       </c>
       <c r="M35">
-        <f>G35</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>65.3</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="Q35">
-        <f>IF(E35=0,"",IF(ISNA(F35),"",F35))</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
@@ -7788,27 +7783,27 @@
         <v>64714600</v>
       </c>
       <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="2">
-        <f>IF(E36=0,0,IF(ISNA(F36),"",F36))</f>
-        <v>0</v>
-      </c>
       <c r="M36">
-        <f>G36</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q36" t="str">
-        <f>IF(E36=0,"",IF(ISNA(F36),"",F36))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7844,27 +7839,27 @@
         <v>44272900000</v>
       </c>
       <c r="J37">
+        <f t="shared" si="3"/>
+        <v>3911953444000</v>
+      </c>
+      <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>3911953444000</v>
-      </c>
-      <c r="K37" s="2">
-        <f>IF(E37=0,0,IF(ISNA(F37),"",F37))</f>
         <v>43748.26</v>
       </c>
       <c r="M37">
-        <f>G37</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>88.36</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43748.26</v>
       </c>
       <c r="Q37">
-        <f>IF(E37=0,"",IF(ISNA(F37),"",F37))</f>
+        <f t="shared" si="7"/>
         <v>43748.26</v>
       </c>
     </row>
@@ -7900,27 +7895,27 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <f>IF(E38=0,0,IF(ISNA(F38),"",F38))</f>
         <v>52.75</v>
       </c>
       <c r="M38">
-        <f>G38</f>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>98.7</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>52.75</v>
       </c>
       <c r="Q38">
-        <f>IF(E38=0,"",IF(ISNA(F38),"",F38))</f>
+        <f t="shared" si="7"/>
         <v>52.75</v>
       </c>
     </row>
@@ -7956,7 +7951,7 @@
         <v>8323670</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>797574059.39999998</v>
       </c>
       <c r="K39" s="5">
@@ -7964,19 +7959,19 @@
         <v>71</v>
       </c>
       <c r="M39">
-        <f>G39</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>95.82</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="Q39" t="str">
-        <f>IF(E39=0,"",IF(ISNA(F39),"",F39))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8012,7 +8007,7 @@
         <v>8938090</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K40" s="2">
@@ -8020,19 +8015,19 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <f>G40</f>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q40" t="str">
-        <f>IF(E40=0,"",IF(ISNA(F40),"",F40))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8068,7 +8063,7 @@
         <v>31322400</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39466224</v>
       </c>
       <c r="K41" s="5">
@@ -8076,19 +8071,19 @@
         <v>459.4009953559123</v>
       </c>
       <c r="M41">
-        <f>G41</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.26</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>459.4009953559123</v>
       </c>
       <c r="Q41" t="str">
-        <f>IF(E41=0,"",IF(ISNA(F41),"",F41))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8124,7 +8119,7 @@
         <v>1432000000</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>132431360000</v>
       </c>
       <c r="K42" s="2">
@@ -8132,19 +8127,19 @@
         <v>10849.2</v>
       </c>
       <c r="M42">
-        <f>G42</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>92.48</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10849.2</v>
       </c>
       <c r="Q42">
-        <f>IF(E42=0,"",IF(ISNA(F42),"",F42))</f>
+        <f t="shared" si="7"/>
         <v>10849.2</v>
       </c>
     </row>
@@ -8180,7 +8175,7 @@
         <v>72042400000</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4643853104000</v>
       </c>
       <c r="K43" s="2">
@@ -8188,19 +8183,19 @@
         <v>673400.1</v>
       </c>
       <c r="M43">
-        <f>G43</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>64.459999999999994</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>673400.1</v>
       </c>
       <c r="Q43">
-        <f>IF(E43=0,"",IF(ISNA(F43),"",F43))</f>
+        <f t="shared" si="7"/>
         <v>673400.1</v>
       </c>
     </row>
@@ -8236,7 +8231,7 @@
         <v>1592950000</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114756118000.00002</v>
       </c>
       <c r="K44" s="2">
@@ -8244,19 +8239,19 @@
         <v>5147.82</v>
       </c>
       <c r="M44">
-        <f>G44</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>72.040000000000006</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5147.82</v>
       </c>
       <c r="Q44">
-        <f>IF(E44=0,"",IF(ISNA(F44),"",F44))</f>
+        <f t="shared" si="7"/>
         <v>5147.82</v>
       </c>
     </row>
@@ -8292,7 +8287,7 @@
         <v>37375.9</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K45" s="2">
@@ -8300,19 +8295,19 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <f>G45</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q45" t="str">
-        <f>IF(E45=0,"",IF(ISNA(F45),"",F45))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8348,7 +8343,7 @@
         <v>91780600</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K46" s="2">
@@ -8356,19 +8351,19 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <f>G46</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q46" t="str">
-        <f>IF(E46=0,"",IF(ISNA(F46),"",F46))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8404,7 +8399,7 @@
         <v>14177700</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52173936</v>
       </c>
       <c r="K47" s="5">
@@ -8412,19 +8407,19 @@
         <v>510.76627374319855</v>
       </c>
       <c r="M47">
-        <f>G47</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.68</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>510.76627374319855</v>
       </c>
       <c r="Q47" t="str">
-        <f>IF(E47=0,"",IF(ISNA(F47),"",F47))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8460,27 +8455,27 @@
         <v>262518000</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10164696960</v>
       </c>
       <c r="K48" s="2">
-        <f>IF(E48=0,0,IF(ISNA(F48),"",F48))</f>
+        <f t="shared" ref="K48:K79" si="8">IF(E48=0,0,IF(ISNA(F48),"",F48))</f>
         <v>341</v>
       </c>
       <c r="M48">
-        <f>G48</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38.72</v>
       </c>
       <c r="O48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="Q48">
-        <f>IF(E48=0,"",IF(ISNA(F48),"",F48))</f>
+        <f t="shared" si="7"/>
         <v>341</v>
       </c>
     </row>
@@ -8516,27 +8511,27 @@
         <v>131792000</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67213920</v>
       </c>
       <c r="K49" s="2">
-        <f>IF(E49=0,0,IF(ISNA(F49),"",F49))</f>
+        <f t="shared" si="8"/>
         <v>821</v>
       </c>
       <c r="M49">
-        <f>G49</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.51</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>821</v>
       </c>
       <c r="Q49">
-        <f>IF(E49=0,"",IF(ISNA(F49),"",F49))</f>
+        <f t="shared" si="7"/>
         <v>821</v>
       </c>
     </row>
@@ -8572,27 +8567,27 @@
         <v>2603870000</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124152521600</v>
       </c>
       <c r="K50" s="2">
-        <f>IF(E50=0,0,IF(ISNA(F50),"",F50))</f>
+        <f t="shared" si="8"/>
         <v>1895.8</v>
       </c>
       <c r="M50">
-        <f>G50</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47.68</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1895.8</v>
       </c>
       <c r="Q50">
-        <f>IF(E50=0,"",IF(ISNA(F50),"",F50))</f>
+        <f t="shared" si="7"/>
         <v>1895.8</v>
       </c>
     </row>
@@ -8628,27 +8623,27 @@
         <v>175633000</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17015325040</v>
       </c>
       <c r="K51" s="2">
-        <f>IF(E51=0,0,IF(ISNA(F51),"",F51))</f>
+        <f t="shared" si="8"/>
         <v>4346.2</v>
       </c>
       <c r="M51">
-        <f>G51</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96.88</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4346.2</v>
       </c>
       <c r="Q51">
-        <f>IF(E51=0,"",IF(ISNA(F51),"",F51))</f>
+        <f t="shared" si="7"/>
         <v>4346.2</v>
       </c>
     </row>
@@ -8684,27 +8679,27 @@
         <v>9074110</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K52" s="2">
-        <f>IF(E52=0,0,IF(ISNA(F52),"",F52))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>G52</f>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q52" t="str">
-        <f>IF(E52=0,"",IF(ISNA(F52),"",F52))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8740,27 +8735,27 @@
         <v>30236700</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2903025567</v>
       </c>
       <c r="K53" s="2">
-        <f>IF(E53=0,0,IF(ISNA(F53),"",F53))</f>
+        <f t="shared" si="8"/>
         <v>1255.3</v>
       </c>
       <c r="M53">
-        <f>G53</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96.01</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1255.3</v>
       </c>
       <c r="Q53">
-        <f>IF(E53=0,"",IF(ISNA(F53),"",F53))</f>
+        <f t="shared" si="7"/>
         <v>1255.3</v>
       </c>
     </row>
@@ -8796,27 +8791,27 @@
         <v>3081710000</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38182386900</v>
       </c>
       <c r="K54" s="2">
-        <f>IF(E54=0,0,IF(ISNA(F54),"",F54))</f>
+        <f t="shared" si="8"/>
         <v>13745.42</v>
       </c>
       <c r="M54">
-        <f>G54</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.39</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13745.42</v>
       </c>
       <c r="Q54">
-        <f>IF(E54=0,"",IF(ISNA(F54),"",F54))</f>
+        <f t="shared" si="7"/>
         <v>13745.42</v>
       </c>
     </row>
@@ -8852,27 +8847,27 @@
         <v>781859000</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70453314490</v>
       </c>
       <c r="K55" s="2">
-        <f>IF(E55=0,0,IF(ISNA(F55),"",F55))</f>
+        <f t="shared" si="8"/>
         <v>5356</v>
       </c>
       <c r="M55">
-        <f>G55</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>90.11</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5356</v>
       </c>
       <c r="Q55">
-        <f>IF(E55=0,"",IF(ISNA(F55),"",F55))</f>
+        <f t="shared" si="7"/>
         <v>5356</v>
       </c>
     </row>
@@ -8908,27 +8903,27 @@
         <v>4803170</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61912861.300000004</v>
       </c>
       <c r="K56" s="2">
-        <f>IF(E56=0,0,IF(ISNA(F56),"",F56))</f>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="M56">
-        <f>G56</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12.89</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="Q56">
-        <f>IF(E56=0,"",IF(ISNA(F56),"",F56))</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
@@ -8964,27 +8959,27 @@
         <v>93913.5</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K57" s="2">
-        <f>IF(E57=0,0,IF(ISNA(F57),"",F57))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f>G57</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q57" t="str">
-        <f>IF(E57=0,"",IF(ISNA(F57),"",F57))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9020,27 +9015,27 @@
         <v>194647000</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18725041400</v>
       </c>
       <c r="K58" s="2">
-        <f>IF(E58=0,0,IF(ISNA(F58),"",F58))</f>
+        <f t="shared" si="8"/>
         <v>3293.8</v>
       </c>
       <c r="M58">
-        <f>G58</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96.2</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3293.8</v>
       </c>
       <c r="Q58">
-        <f>IF(E58=0,"",IF(ISNA(F58),"",F58))</f>
+        <f t="shared" si="7"/>
         <v>3293.8</v>
       </c>
     </row>
@@ -9076,27 +9071,27 @@
         <v>311078000</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23816131680</v>
       </c>
       <c r="K59" s="2">
-        <f>IF(E59=0,0,IF(ISNA(F59),"",F59))</f>
+        <f t="shared" si="8"/>
         <v>1706.9</v>
       </c>
       <c r="M59">
-        <f>G59</f>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>76.56</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1706.9</v>
       </c>
       <c r="Q59">
-        <f>IF(E59=0,"",IF(ISNA(F59),"",F59))</f>
+        <f t="shared" si="7"/>
         <v>1706.9</v>
       </c>
     </row>
@@ -9132,27 +9127,27 @@
         <v>5554030000</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>402056231700</v>
       </c>
       <c r="K60" s="2">
-        <f>IF(E60=0,0,IF(ISNA(F60),"",F60))</f>
+        <f t="shared" si="8"/>
         <v>27131.360000000001</v>
       </c>
       <c r="M60">
-        <f>G60</f>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>72.39</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27131.360000000001</v>
       </c>
       <c r="Q60">
-        <f>IF(E60=0,"",IF(ISNA(F60),"",F60))</f>
+        <f t="shared" si="7"/>
         <v>27131.360000000001</v>
       </c>
     </row>
@@ -9188,27 +9183,27 @@
         <v>57603600</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <f>IF(E61=0,0,IF(ISNA(F61),"",F61))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f>G61</f>
+        <f t="shared" si="4"/>
         <v>199</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q61" t="str">
-        <f>IF(E61=0,"",IF(ISNA(F61),"",F61))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9244,27 +9239,27 @@
         <v>10619800</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <f>IF(E62=0,0,IF(ISNA(F62),"",F62))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f>G62</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q62" t="str">
-        <f>IF(E62=0,"",IF(ISNA(F62),"",F62))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9300,27 +9295,27 @@
         <v>7888910</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>359418739.60000002</v>
       </c>
       <c r="K63" s="2">
-        <f>IF(E63=0,0,IF(ISNA(F63),"",F63))</f>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="M63">
-        <f>G63</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45.56</v>
       </c>
       <c r="O63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="Q63">
-        <f>IF(E63=0,"",IF(ISNA(F63),"",F63))</f>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
@@ -9356,27 +9351,27 @@
         <v>3786420000</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>350092393200</v>
       </c>
       <c r="K64" s="2">
-        <f>IF(E64=0,0,IF(ISNA(F64),"",F64))</f>
+        <f t="shared" si="8"/>
         <v>3170</v>
       </c>
       <c r="M64">
-        <f>G64</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>92.46</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3170</v>
       </c>
       <c r="Q64">
-        <f>IF(E64=0,"",IF(ISNA(F64),"",F64))</f>
+        <f t="shared" si="7"/>
         <v>3170</v>
       </c>
     </row>
@@ -9412,27 +9407,27 @@
         <v>172498000</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <f>IF(E65=0,0,IF(ISNA(F65),"",F65))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f>G65</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q65" t="str">
-        <f>IF(E65=0,"",IF(ISNA(F65),"",F65))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9460,7 +9455,7 @@
         <v>76</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H129" si="4">E66</f>
+        <f t="shared" ref="H66:H129" si="9">E66</f>
         <v>0</v>
       </c>
       <c r="I66">
@@ -9468,27 +9463,27 @@
         <v>600092</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <f>IF(E66=0,0,IF(ISNA(F66),"",F66))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f>G66</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q66" t="str">
-        <f>IF(E66=0,"",IF(ISNA(F66),"",F66))</f>
+        <f t="shared" ref="Q66:Q97" si="10">IF(E66=0,"",IF(ISNA(F66),"",F66))</f>
         <v/>
       </c>
     </row>
@@ -9516,7 +9511,7 @@
         <v>81</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I67">
@@ -9524,27 +9519,27 @@
         <v>7040100</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="5">I67*H67</f>
+        <f t="shared" ref="J67:J130" si="11">I67*H67</f>
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <f>IF(E67=0,0,IF(ISNA(F67),"",F67))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f>G67</f>
+        <f t="shared" ref="M67:M130" si="12">G67</f>
         <v>81</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" ref="N67:N130" si="6">H67</f>
+        <f t="shared" ref="N67:N130" si="13">H67</f>
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O130" si="7">K67</f>
+        <f t="shared" ref="O67:O130" si="14">K67</f>
         <v>0</v>
       </c>
       <c r="Q67" t="str">
-        <f>IF(E67=0,"",IF(ISNA(F67),"",F67))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9572,7 +9567,7 @@
         <v>80</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>98.79</v>
       </c>
       <c r="I68">
@@ -9580,27 +9575,27 @@
         <v>3035910000</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>299917548900</v>
       </c>
       <c r="K68" s="2">
-        <f>IF(E68=0,0,IF(ISNA(F68),"",F68))</f>
+        <f t="shared" si="8"/>
         <v>8813</v>
       </c>
       <c r="M68">
-        <f>G68</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>98.79</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8813</v>
       </c>
       <c r="Q68">
-        <f>IF(E68=0,"",IF(ISNA(F68),"",F68))</f>
+        <f t="shared" si="10"/>
         <v>8813</v>
       </c>
     </row>
@@ -9628,7 +9623,7 @@
         <v>77</v>
       </c>
       <c r="H69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>81.06</v>
       </c>
       <c r="I69">
@@ -9636,27 +9631,27 @@
         <v>36052500000</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2922415650000</v>
       </c>
       <c r="K69" s="2">
-        <f>IF(E69=0,0,IF(ISNA(F69),"",F69))</f>
+        <f t="shared" si="8"/>
         <v>84524.08</v>
       </c>
       <c r="M69">
-        <f>G69</f>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>81.06</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>84524.08</v>
       </c>
       <c r="Q69">
-        <f>IF(E69=0,"",IF(ISNA(F69),"",F69))</f>
+        <f t="shared" si="10"/>
         <v>84524.08</v>
       </c>
     </row>
@@ -9684,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I70">
@@ -9692,27 +9687,27 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <f>IF(E70=0,0,IF(ISNA(F70),"",F70))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f>G70</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q70" t="str">
-        <f>IF(E70=0,"",IF(ISNA(F70),"",F70))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9740,7 +9735,7 @@
         <v>78</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>76.56</v>
       </c>
       <c r="I71">
@@ -9748,27 +9743,27 @@
         <v>13383000</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1024602480</v>
       </c>
       <c r="K71" s="2">
-        <f>IF(E71=0,0,IF(ISNA(F71),"",F71))</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="M71">
-        <f>G71</f>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>76.56</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="Q71">
-        <f>IF(E71=0,"",IF(ISNA(F71),"",F71))</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
@@ -9796,7 +9791,7 @@
         <v>89</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I72">
@@ -9804,27 +9799,27 @@
         <v>702624</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <f>IF(E72=0,0,IF(ISNA(F72),"",F72))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f>G72</f>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q72" t="str">
-        <f>IF(E72=0,"",IF(ISNA(F72),"",F72))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9852,7 +9847,7 @@
         <v>71</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.19</v>
       </c>
       <c r="I73">
@@ -9860,27 +9855,27 @@
         <v>2056200000</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6559278000</v>
       </c>
       <c r="K73" s="2">
-        <f>IF(E73=0,0,IF(ISNA(F73),"",F73))</f>
+        <f t="shared" si="8"/>
         <v>1278</v>
       </c>
       <c r="M73">
-        <f>G73</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.19</v>
       </c>
       <c r="O73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1278</v>
       </c>
       <c r="Q73">
-        <f>IF(E73=0,"",IF(ISNA(F73),"",F73))</f>
+        <f t="shared" si="10"/>
         <v>1278</v>
       </c>
     </row>
@@ -9908,7 +9903,7 @@
         <v>69</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>26.73</v>
       </c>
       <c r="I74">
@@ -9916,27 +9911,27 @@
         <v>43018600000</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1149887178000</v>
       </c>
       <c r="K74" s="2">
-        <f>IF(E74=0,0,IF(ISNA(F74),"",F74))</f>
+        <f t="shared" si="8"/>
         <v>93758.75</v>
       </c>
       <c r="M74">
-        <f>G74</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>26.73</v>
       </c>
       <c r="O74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>93758.75</v>
       </c>
       <c r="Q74">
-        <f>IF(E74=0,"",IF(ISNA(F74),"",F74))</f>
+        <f t="shared" si="10"/>
         <v>93758.75</v>
       </c>
     </row>
@@ -9964,7 +9959,7 @@
         <v>73</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19.989999999999998</v>
       </c>
       <c r="I75">
@@ -9972,27 +9967,27 @@
         <v>215803000</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4313901970</v>
       </c>
       <c r="K75" s="2">
-        <f>IF(E75=0,0,IF(ISNA(F75),"",F75))</f>
+        <f t="shared" si="8"/>
         <v>1214</v>
       </c>
       <c r="M75">
-        <f>G75</f>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>19.989999999999998</v>
       </c>
       <c r="O75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1214</v>
       </c>
       <c r="Q75">
-        <f>IF(E75=0,"",IF(ISNA(F75),"",F75))</f>
+        <f t="shared" si="10"/>
         <v>1214</v>
       </c>
     </row>
@@ -10020,7 +10015,7 @@
         <v>74</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I76" t="e">
@@ -10028,27 +10023,27 @@
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K76" s="2">
-        <f>IF(E76=0,0,IF(ISNA(F76),"",F76))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f>G76</f>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="N76" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q76" t="str">
-        <f>IF(E76=0,"",IF(ISNA(F76),"",F76))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10076,7 +10071,7 @@
         <v>63</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>37.770000000000003</v>
       </c>
       <c r="I77">
@@ -10084,27 +10079,27 @@
         <v>2018480000</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>76237989600</v>
       </c>
       <c r="K77" s="2">
-        <f>IF(E77=0,0,IF(ISNA(F77),"",F77))</f>
+        <f t="shared" si="8"/>
         <v>12041.41</v>
       </c>
       <c r="M77">
-        <f>G77</f>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="N77" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>37.770000000000003</v>
       </c>
       <c r="O77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12041.41</v>
       </c>
       <c r="Q77">
-        <f>IF(E77=0,"",IF(ISNA(F77),"",F77))</f>
+        <f t="shared" si="10"/>
         <v>12041.41</v>
       </c>
     </row>
@@ -10132,7 +10127,7 @@
         <v>70</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I78">
@@ -10140,27 +10135,27 @@
         <v>76951.5</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <f>IF(E78=0,0,IF(ISNA(F78),"",F78))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f>G78</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="N78" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q78" t="str">
-        <f>IF(E78=0,"",IF(ISNA(F78),"",F78))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10188,7 +10183,7 @@
         <v>94</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>99.75</v>
       </c>
       <c r="I79">
@@ -10196,27 +10191,27 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <f>IF(E79=0,0,IF(ISNA(F79),"",F79))</f>
+        <f t="shared" si="8"/>
         <v>355</v>
       </c>
       <c r="M79">
-        <f>G79</f>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="N79" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>99.75</v>
       </c>
       <c r="O79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>355</v>
       </c>
       <c r="Q79">
-        <f>IF(E79=0,"",IF(ISNA(F79),"",F79))</f>
+        <f t="shared" si="10"/>
         <v>355</v>
       </c>
     </row>
@@ -10244,7 +10239,7 @@
         <v>93</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="I80">
@@ -10252,27 +10247,27 @@
         <v>295022000</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>73755500</v>
       </c>
       <c r="K80" s="2">
-        <f>IF(E80=0,0,IF(ISNA(F80),"",F80))</f>
+        <f t="shared" ref="K80:K111" si="15">IF(E80=0,0,IF(ISNA(F80),"",F80))</f>
         <v>677</v>
       </c>
       <c r="M80">
-        <f>G80</f>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="N80" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="O80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>677</v>
       </c>
       <c r="Q80">
-        <f>IF(E80=0,"",IF(ISNA(F80),"",F80))</f>
+        <f t="shared" si="10"/>
         <v>677</v>
       </c>
     </row>
@@ -10300,7 +10295,7 @@
         <v>90</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I81">
@@ -10308,27 +10303,27 @@
         <v>22201600</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <f>IF(E81=0,0,IF(ISNA(F81),"",F81))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f>G81</f>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="N81" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q81" t="str">
-        <f>IF(E81=0,"",IF(ISNA(F81),"",F81))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10356,7 +10351,7 @@
         <v>96</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I82">
@@ -10364,27 +10359,27 @@
         <v>16707.8</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <f>IF(E82=0,0,IF(ISNA(F82),"",F82))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M82">
-        <f>G82</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="N82" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q82" t="str">
-        <f>IF(E82=0,"",IF(ISNA(F82),"",F82))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10412,7 +10407,7 @@
         <v>83</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I83">
@@ -10420,27 +10415,27 @@
         <v>85153.7</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <f>IF(E83=0,0,IF(ISNA(F83),"",F83))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f>G83</f>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="N83" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q83" t="str">
-        <f>IF(E83=0,"",IF(ISNA(F83),"",F83))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10468,7 +10463,7 @@
         <v>95</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I84">
@@ -10476,27 +10471,27 @@
         <v>4021890</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <f>IF(E84=0,0,IF(ISNA(F84),"",F84))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M84">
-        <f>G84</f>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q84" t="str">
-        <f>IF(E84=0,"",IF(ISNA(F84),"",F84))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10524,7 +10519,7 @@
         <v>86</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.27</v>
       </c>
       <c r="I85">
@@ -10532,27 +10527,27 @@
         <v>118932000</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>151043640</v>
       </c>
       <c r="K85" s="2">
-        <f>IF(E85=0,0,IF(ISNA(F85),"",F85))</f>
+        <f t="shared" si="15"/>
         <v>735.2</v>
       </c>
       <c r="M85">
-        <f>G85</f>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="N85" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.27</v>
       </c>
       <c r="O85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>735.2</v>
       </c>
       <c r="Q85">
-        <f>IF(E85=0,"",IF(ISNA(F85),"",F85))</f>
+        <f t="shared" si="10"/>
         <v>735.2</v>
       </c>
     </row>
@@ -10580,7 +10575,7 @@
         <v>84</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>94.69</v>
       </c>
       <c r="I86">
@@ -10588,27 +10583,27 @@
         <v>362334000</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>34309406460</v>
       </c>
       <c r="K86" s="2">
-        <f>IF(E86=0,0,IF(ISNA(F86),"",F86))</f>
+        <f t="shared" si="15"/>
         <v>12098</v>
       </c>
       <c r="M86">
-        <f>G86</f>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>94.69</v>
       </c>
       <c r="O86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12098</v>
       </c>
       <c r="Q86">
-        <f>IF(E86=0,"",IF(ISNA(F86),"",F86))</f>
+        <f t="shared" si="10"/>
         <v>12098</v>
       </c>
     </row>
@@ -10636,7 +10631,7 @@
         <v>97</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>52.18</v>
       </c>
       <c r="I87">
@@ -10644,27 +10639,27 @@
         <v>6160590000</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>321459586200</v>
       </c>
       <c r="K87" s="2">
-        <f>IF(E87=0,0,IF(ISNA(F87),"",F87))</f>
+        <f t="shared" si="15"/>
         <v>4122.3</v>
       </c>
       <c r="M87">
-        <f>G87</f>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="N87" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>52.18</v>
       </c>
       <c r="O87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4122.3</v>
       </c>
       <c r="Q87">
-        <f>IF(E87=0,"",IF(ISNA(F87),"",F87))</f>
+        <f t="shared" si="10"/>
         <v>4122.3</v>
       </c>
     </row>
@@ -10692,7 +10687,7 @@
         <v>106</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I88">
@@ -10700,27 +10695,27 @@
         <v>109339000</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <f>IF(E88=0,0,IF(ISNA(F88),"",F88))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M88">
-        <f>G88</f>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q88" t="str">
-        <f>IF(E88=0,"",IF(ISNA(F88),"",F88))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10748,7 +10743,7 @@
         <v>100</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>34.43</v>
       </c>
       <c r="I89">
@@ -10756,27 +10751,27 @@
         <v>37334800000</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1285437164000</v>
       </c>
       <c r="K89" s="2">
-        <f>IF(E89=0,0,IF(ISNA(F89),"",F89))</f>
+        <f t="shared" si="15"/>
         <v>189457.59</v>
       </c>
       <c r="M89">
-        <f>G89</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>34.43</v>
       </c>
       <c r="O89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>189457.59</v>
       </c>
       <c r="Q89">
-        <f>IF(E89=0,"",IF(ISNA(F89),"",F89))</f>
+        <f t="shared" si="10"/>
         <v>189457.59</v>
       </c>
     </row>
@@ -10804,7 +10799,7 @@
         <v>98</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92.53</v>
       </c>
       <c r="I90">
@@ -10812,27 +10807,27 @@
         <v>3395210000</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>314158781300</v>
       </c>
       <c r="K90" s="2">
-        <f>IF(E90=0,0,IF(ISNA(F90),"",F90))</f>
+        <f t="shared" si="15"/>
         <v>35301.39</v>
       </c>
       <c r="M90">
-        <f>G90</f>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>92.53</v>
       </c>
       <c r="O90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>35301.39</v>
       </c>
       <c r="Q90">
-        <f>IF(E90=0,"",IF(ISNA(F90),"",F90))</f>
+        <f t="shared" si="10"/>
         <v>35301.39</v>
       </c>
     </row>
@@ -10860,7 +10855,7 @@
         <v>105</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>65.959999999999994</v>
       </c>
       <c r="I91">
@@ -10868,27 +10863,27 @@
         <v>2764630000</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>182354994799.99997</v>
       </c>
       <c r="K91" s="2">
-        <f>IF(E91=0,0,IF(ISNA(F91),"",F91))</f>
+        <f t="shared" si="15"/>
         <v>58815.41</v>
       </c>
       <c r="M91">
-        <f>G91</f>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>65.959999999999994</v>
       </c>
       <c r="O91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>58815.41</v>
       </c>
       <c r="Q91">
-        <f>IF(E91=0,"",IF(ISNA(F91),"",F91))</f>
+        <f t="shared" si="10"/>
         <v>58815.41</v>
       </c>
     </row>
@@ -10916,7 +10911,7 @@
         <v>104</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>94.27</v>
       </c>
       <c r="I92">
@@ -10924,27 +10919,27 @@
         <v>3673190000</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>346271621300</v>
       </c>
       <c r="K92" s="2">
-        <f>IF(E92=0,0,IF(ISNA(F92),"",F92))</f>
+        <f t="shared" si="15"/>
         <v>17343</v>
       </c>
       <c r="M92">
-        <f>G92</f>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>94.27</v>
       </c>
       <c r="O92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>17343</v>
       </c>
       <c r="Q92">
-        <f>IF(E92=0,"",IF(ISNA(F92),"",F92))</f>
+        <f t="shared" si="10"/>
         <v>17343</v>
       </c>
     </row>
@@ -10972,7 +10967,7 @@
         <v>99</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>43.6</v>
       </c>
       <c r="I93">
@@ -10980,27 +10975,27 @@
         <v>954183000</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>41602378800</v>
       </c>
       <c r="K93" s="2">
-        <f>IF(E93=0,0,IF(ISNA(F93),"",F93))</f>
+        <f t="shared" si="15"/>
         <v>5892</v>
       </c>
       <c r="M93">
-        <f>G93</f>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>43.6</v>
       </c>
       <c r="O93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5892</v>
       </c>
       <c r="Q93">
-        <f>IF(E93=0,"",IF(ISNA(F93),"",F93))</f>
+        <f t="shared" si="10"/>
         <v>5892</v>
       </c>
     </row>
@@ -11028,7 +11023,7 @@
         <v>102</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.42</v>
       </c>
       <c r="I94">
@@ -11036,27 +11031,27 @@
         <v>17981900</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7552398</v>
       </c>
       <c r="K94" s="2">
-        <f>IF(E94=0,0,IF(ISNA(F94),"",F94))</f>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
       <c r="M94">
-        <f>G94</f>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.42</v>
       </c>
       <c r="O94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="Q94">
-        <f>IF(E94=0,"",IF(ISNA(F94),"",F94))</f>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
     </row>
@@ -11084,7 +11079,7 @@
         <v>101</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>96.43</v>
       </c>
       <c r="I95">
@@ -11092,27 +11087,27 @@
         <v>133751000</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12897608930</v>
       </c>
       <c r="K95" s="2">
-        <f>IF(E95=0,0,IF(ISNA(F95),"",F95))</f>
+        <f t="shared" si="15"/>
         <v>14484</v>
       </c>
       <c r="M95">
-        <f>G95</f>
+        <f t="shared" si="12"/>
         <v>101</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>96.43</v>
       </c>
       <c r="O95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14484</v>
       </c>
       <c r="Q95">
-        <f>IF(E95=0,"",IF(ISNA(F95),"",F95))</f>
+        <f t="shared" si="10"/>
         <v>14484</v>
       </c>
     </row>
@@ -11140,7 +11135,7 @@
         <v>107</v>
       </c>
       <c r="H96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>53.94</v>
       </c>
       <c r="I96">
@@ -11148,27 +11143,27 @@
         <v>18314600000</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>987889524000</v>
       </c>
       <c r="K96" s="2">
-        <f>IF(E96=0,0,IF(ISNA(F96),"",F96))</f>
+        <f t="shared" si="15"/>
         <v>75539.679999999993</v>
       </c>
       <c r="M96">
-        <f>G96</f>
+        <f t="shared" si="12"/>
         <v>107</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>53.94</v>
       </c>
       <c r="O96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>75539.679999999993</v>
       </c>
       <c r="Q96">
-        <f>IF(E96=0,"",IF(ISNA(F96),"",F96))</f>
+        <f t="shared" si="10"/>
         <v>75539.679999999993</v>
       </c>
     </row>
@@ -11196,7 +11191,7 @@
         <v>118</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>96.45</v>
       </c>
       <c r="I97">
@@ -11204,27 +11199,27 @@
         <v>15899500</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1533506775</v>
       </c>
       <c r="K97" s="2">
-        <f>IF(E97=0,0,IF(ISNA(F97),"",F97))</f>
+        <f t="shared" si="15"/>
         <v>694.06</v>
       </c>
       <c r="M97">
-        <f>G97</f>
+        <f t="shared" si="12"/>
         <v>118</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>96.45</v>
       </c>
       <c r="O97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>694.06</v>
       </c>
       <c r="Q97">
-        <f>IF(E97=0,"",IF(ISNA(F97),"",F97))</f>
+        <f t="shared" si="10"/>
         <v>694.06</v>
       </c>
     </row>
@@ -11252,7 +11247,7 @@
         <v>113</v>
       </c>
       <c r="H98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>97.04</v>
       </c>
       <c r="I98">
@@ -11260,27 +11255,27 @@
         <v>28142300000</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2730928792000</v>
       </c>
       <c r="K98" s="2">
-        <f>IF(E98=0,0,IF(ISNA(F98),"",F98))</f>
+        <f t="shared" si="15"/>
         <v>220250.4</v>
       </c>
       <c r="M98">
-        <f>G98</f>
+        <f t="shared" si="12"/>
         <v>113</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>97.04</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>220250.4</v>
       </c>
       <c r="Q98">
-        <f>IF(E98=0,"",IF(ISNA(F98),"",F98))</f>
+        <f t="shared" ref="Q98:Q129" si="16">IF(E98=0,"",IF(ISNA(F98),"",F98))</f>
         <v>220250.4</v>
       </c>
     </row>
@@ -11308,7 +11303,7 @@
         <v>119</v>
       </c>
       <c r="H99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="I99">
@@ -11316,27 +11311,27 @@
         <v>35984100</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>28787280</v>
       </c>
       <c r="K99" s="2">
-        <f>IF(E99=0,0,IF(ISNA(F99),"",F99))</f>
+        <f t="shared" si="15"/>
         <v>4237</v>
       </c>
       <c r="M99">
-        <f>G99</f>
+        <f t="shared" si="12"/>
         <v>119</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
       <c r="O99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4237</v>
       </c>
       <c r="Q99">
-        <f>IF(E99=0,"",IF(ISNA(F99),"",F99))</f>
+        <f t="shared" si="16"/>
         <v>4237</v>
       </c>
     </row>
@@ -11364,7 +11359,7 @@
         <v>130</v>
       </c>
       <c r="H100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>53.62</v>
       </c>
       <c r="I100">
@@ -11372,27 +11367,27 @@
         <v>13057900000</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>700164598000</v>
       </c>
       <c r="K100" s="2">
-        <f>IF(E100=0,0,IF(ISNA(F100),"",F100))</f>
+        <f t="shared" si="15"/>
         <v>17494</v>
       </c>
       <c r="M100">
-        <f>G100</f>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>53.62</v>
       </c>
       <c r="O100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>17494</v>
       </c>
       <c r="Q100">
-        <f>IF(E100=0,"",IF(ISNA(F100),"",F100))</f>
+        <f t="shared" si="16"/>
         <v>17494</v>
       </c>
     </row>
@@ -11420,7 +11415,7 @@
         <v>120</v>
       </c>
       <c r="H101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="I101">
@@ -11428,27 +11423,27 @@
         <v>144667000</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4340010</v>
       </c>
       <c r="K101" s="2">
-        <f>IF(E101=0,0,IF(ISNA(F101),"",F101))</f>
+        <f t="shared" si="15"/>
         <v>679.21</v>
       </c>
       <c r="M101">
-        <f>G101</f>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.03</v>
       </c>
       <c r="O101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>679.21</v>
       </c>
       <c r="Q101">
-        <f>IF(E101=0,"",IF(ISNA(F101),"",F101))</f>
+        <f t="shared" si="16"/>
         <v>679.21</v>
       </c>
     </row>
@@ -11476,7 +11471,7 @@
         <v>2</v>
       </c>
       <c r="H102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I102">
@@ -11484,27 +11479,27 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K102" s="2">
-        <f>IF(E102=0,0,IF(ISNA(F102),"",F102))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f>G102</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q102" t="str">
-        <f>IF(E102=0,"",IF(ISNA(F102),"",F102))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -11532,7 +11527,7 @@
         <v>131</v>
       </c>
       <c r="H103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>93.94</v>
       </c>
       <c r="I103">
@@ -11540,27 +11535,27 @@
         <v>1360770000</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>127830733800</v>
       </c>
       <c r="K103" s="2">
-        <f>IF(E103=0,0,IF(ISNA(F103),"",F103))</f>
+        <f t="shared" si="15"/>
         <v>3170</v>
       </c>
       <c r="M103">
-        <f>G103</f>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>93.94</v>
       </c>
       <c r="O103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3170</v>
       </c>
       <c r="Q103">
-        <f>IF(E103=0,"",IF(ISNA(F103),"",F103))</f>
+        <f t="shared" si="16"/>
         <v>3170</v>
       </c>
     </row>
@@ -11588,7 +11583,7 @@
         <v>132</v>
       </c>
       <c r="H104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.11</v>
       </c>
       <c r="I104">
@@ -11596,27 +11591,27 @@
         <v>14863800000</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1413696018000</v>
       </c>
       <c r="K104" s="2">
-        <f>IF(E104=0,0,IF(ISNA(F104),"",F104))</f>
+        <f t="shared" si="15"/>
         <v>77112.710000000006</v>
       </c>
       <c r="M104">
-        <f>G104</f>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>95.11</v>
       </c>
       <c r="O104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>77112.710000000006</v>
       </c>
       <c r="Q104">
-        <f>IF(E104=0,"",IF(ISNA(F104),"",F104))</f>
+        <f t="shared" si="16"/>
         <v>77112.710000000006</v>
       </c>
     </row>
@@ -11644,7 +11639,7 @@
         <v>124</v>
       </c>
       <c r="H105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>98.89</v>
       </c>
       <c r="I105">
@@ -11652,27 +11647,27 @@
         <v>46816200</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4629654018</v>
       </c>
       <c r="K105" s="2">
-        <f>IF(E105=0,0,IF(ISNA(F105),"",F105))</f>
+        <f t="shared" si="15"/>
         <v>15217.3</v>
       </c>
       <c r="M105">
-        <f>G105</f>
+        <f t="shared" si="12"/>
         <v>124</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>98.89</v>
       </c>
       <c r="O105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15217.3</v>
       </c>
       <c r="Q105">
-        <f>IF(E105=0,"",IF(ISNA(F105),"",F105))</f>
+        <f t="shared" si="16"/>
         <v>15217.3</v>
       </c>
     </row>
@@ -11700,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="H106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>80.040000000000006</v>
       </c>
       <c r="I106">
@@ -11708,27 +11703,27 @@
         <v>871009000</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>69715560360</v>
       </c>
       <c r="K106" s="2">
-        <f>IF(E106=0,0,IF(ISNA(F106),"",F106))</f>
+        <f t="shared" si="15"/>
         <v>728</v>
       </c>
       <c r="M106">
-        <f>G106</f>
+        <f t="shared" si="12"/>
         <v>123</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>80.040000000000006</v>
       </c>
       <c r="O106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>728</v>
       </c>
       <c r="Q106">
-        <f>IF(E106=0,"",IF(ISNA(F106),"",F106))</f>
+        <f t="shared" si="16"/>
         <v>728</v>
       </c>
     </row>
@@ -11756,7 +11751,7 @@
         <v>108</v>
       </c>
       <c r="H107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I107">
@@ -11764,27 +11759,27 @@
         <v>77986700</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K107" s="2">
-        <f>IF(E107=0,0,IF(ISNA(F107),"",F107))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f>G107</f>
+        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q107" t="str">
-        <f>IF(E107=0,"",IF(ISNA(F107),"",F107))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -11812,7 +11807,7 @@
         <v>122</v>
       </c>
       <c r="H108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.01</v>
       </c>
       <c r="I108">
@@ -11820,27 +11815,27 @@
         <v>702462000</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>709486620</v>
       </c>
       <c r="K108" s="2">
-        <f>IF(E108=0,0,IF(ISNA(F108),"",F108))</f>
+        <f t="shared" si="15"/>
         <v>894</v>
       </c>
       <c r="M108">
-        <f>G108</f>
+        <f t="shared" si="12"/>
         <v>122</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.01</v>
       </c>
       <c r="O108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>894</v>
       </c>
       <c r="Q108">
-        <f>IF(E108=0,"",IF(ISNA(F108),"",F108))</f>
+        <f t="shared" si="16"/>
         <v>894</v>
       </c>
     </row>
@@ -11868,7 +11863,7 @@
         <v>109</v>
       </c>
       <c r="H109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.77</v>
       </c>
       <c r="I109">
@@ -11876,27 +11871,27 @@
         <v>92954200</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>629299934</v>
       </c>
       <c r="K109" s="2">
-        <f>IF(E109=0,0,IF(ISNA(F109),"",F109))</f>
+        <f t="shared" si="15"/>
         <v>2172.6</v>
       </c>
       <c r="M109">
-        <f>G109</f>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="N109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.77</v>
       </c>
       <c r="O109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2172.6</v>
       </c>
       <c r="Q109">
-        <f>IF(E109=0,"",IF(ISNA(F109),"",F109))</f>
+        <f t="shared" si="16"/>
         <v>2172.6</v>
       </c>
     </row>
@@ -11924,7 +11919,7 @@
         <v>116</v>
       </c>
       <c r="H110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I110">
@@ -11932,27 +11927,27 @@
         <v>8593330</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K110" s="2">
-        <f>IF(E110=0,0,IF(ISNA(F110),"",F110))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f>G110</f>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="N110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q110" t="str">
-        <f>IF(E110=0,"",IF(ISNA(F110),"",F110))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -11980,7 +11975,7 @@
         <v>114</v>
       </c>
       <c r="H111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="I111">
@@ -11988,27 +11983,27 @@
         <v>6876.95</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>17536.2225</v>
       </c>
       <c r="K111" s="2">
-        <f>IF(E111=0,0,IF(ISNA(F111),"",F111))</f>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="M111">
-        <f>G111</f>
+        <f t="shared" si="12"/>
         <v>114</v>
       </c>
       <c r="N111" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="O111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="Q111">
-        <f>IF(E111=0,"",IF(ISNA(F111),"",F111))</f>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
     </row>
@@ -12036,7 +12031,7 @@
         <v>127</v>
       </c>
       <c r="H112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="I112">
@@ -12044,27 +12039,27 @@
         <v>117603000</v>
       </c>
       <c r="J112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>211685400</v>
       </c>
       <c r="K112" s="2">
-        <f>IF(E112=0,0,IF(ISNA(F112),"",F112))</f>
+        <f t="shared" ref="K112:K143" si="17">IF(E112=0,0,IF(ISNA(F112),"",F112))</f>
         <v>10714</v>
       </c>
       <c r="M112">
-        <f>G112</f>
+        <f t="shared" si="12"/>
         <v>127</v>
       </c>
       <c r="N112" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
       <c r="O112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10714</v>
       </c>
       <c r="Q112">
-        <f>IF(E112=0,"",IF(ISNA(F112),"",F112))</f>
+        <f t="shared" si="16"/>
         <v>10714</v>
       </c>
     </row>
@@ -12092,7 +12087,7 @@
         <v>111</v>
       </c>
       <c r="H113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I113">
@@ -12100,27 +12095,27 @@
         <v>11818100</v>
       </c>
       <c r="J113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K113" s="2">
-        <f>IF(E113=0,0,IF(ISNA(F113),"",F113))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M113">
-        <f>G113</f>
+        <f t="shared" si="12"/>
         <v>111</v>
       </c>
       <c r="N113" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q113" t="str">
-        <f>IF(E113=0,"",IF(ISNA(F113),"",F113))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12148,7 +12143,7 @@
         <v>117</v>
       </c>
       <c r="H114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.77</v>
       </c>
       <c r="I114">
@@ -12156,27 +12151,27 @@
         <v>5406330000</v>
       </c>
       <c r="J114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>517764224100</v>
       </c>
       <c r="K114" s="2">
-        <f>IF(E114=0,0,IF(ISNA(F114),"",F114))</f>
+        <f t="shared" si="17"/>
         <v>3063</v>
       </c>
       <c r="M114">
-        <f>G114</f>
+        <f t="shared" si="12"/>
         <v>117</v>
       </c>
       <c r="N114" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>95.77</v>
       </c>
       <c r="O114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3063</v>
       </c>
       <c r="Q114">
-        <f>IF(E114=0,"",IF(ISNA(F114),"",F114))</f>
+        <f t="shared" si="16"/>
         <v>3063</v>
       </c>
     </row>
@@ -12204,7 +12199,7 @@
         <v>121</v>
       </c>
       <c r="H115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I115">
@@ -12212,27 +12207,27 @@
         <v>378485000</v>
       </c>
       <c r="J115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K115" s="2">
-        <f>IF(E115=0,0,IF(ISNA(F115),"",F115))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M115">
-        <f>G115</f>
+        <f t="shared" si="12"/>
         <v>121</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q115" t="str">
-        <f>IF(E115=0,"",IF(ISNA(F115),"",F115))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12260,7 +12255,7 @@
         <v>140</v>
       </c>
       <c r="H116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I116">
@@ -12268,27 +12263,27 @@
         <v>25957700</v>
       </c>
       <c r="J116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K116" s="2">
-        <f>IF(E116=0,0,IF(ISNA(F116),"",F116))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M116">
-        <f>G116</f>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q116" t="str">
-        <f>IF(E116=0,"",IF(ISNA(F116),"",F116))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12316,7 +12311,7 @@
         <v>138</v>
       </c>
       <c r="H117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>22.84</v>
       </c>
       <c r="I117">
@@ -12324,27 +12319,27 @@
         <v>543557000</v>
       </c>
       <c r="J117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12414841880</v>
       </c>
       <c r="K117" s="2">
-        <f>IF(E117=0,0,IF(ISNA(F117),"",F117))</f>
+        <f t="shared" si="17"/>
         <v>1230</v>
       </c>
       <c r="M117">
-        <f>G117</f>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>22.84</v>
       </c>
       <c r="O117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1230</v>
       </c>
       <c r="Q117">
-        <f>IF(E117=0,"",IF(ISNA(F117),"",F117))</f>
+        <f t="shared" si="16"/>
         <v>1230</v>
       </c>
     </row>
@@ -12372,7 +12367,7 @@
         <v>151</v>
       </c>
       <c r="H118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="I118">
@@ -12380,27 +12375,27 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K118" s="2">
-        <f>IF(E118=0,0,IF(ISNA(F118),"",F118))</f>
+        <f t="shared" si="17"/>
         <v>135</v>
       </c>
       <c r="M118">
-        <f>G118</f>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="N118" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="O118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>135</v>
       </c>
       <c r="Q118">
-        <f>IF(E118=0,"",IF(ISNA(F118),"",F118))</f>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
     </row>
@@ -12428,7 +12423,7 @@
         <v>134</v>
       </c>
       <c r="H119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I119">
@@ -12436,27 +12431,27 @@
         <v>44248000</v>
       </c>
       <c r="J119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K119" s="2">
-        <f>IF(E119=0,0,IF(ISNA(F119),"",F119))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M119">
-        <f>G119</f>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q119" t="str">
-        <f>IF(E119=0,"",IF(ISNA(F119),"",F119))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12484,7 +12479,7 @@
         <v>136</v>
       </c>
       <c r="H120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>82.06</v>
       </c>
       <c r="I120">
@@ -12492,27 +12487,27 @@
         <v>3912660000</v>
       </c>
       <c r="J120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>321072879600</v>
       </c>
       <c r="K120" s="2">
-        <f>IF(E120=0,0,IF(ISNA(F120),"",F120))</f>
+        <f t="shared" si="17"/>
         <v>21769.5</v>
       </c>
       <c r="M120">
-        <f>G120</f>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="N120" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>82.06</v>
       </c>
       <c r="O120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>21769.5</v>
       </c>
       <c r="Q120">
-        <f>IF(E120=0,"",IF(ISNA(F120),"",F120))</f>
+        <f t="shared" si="16"/>
         <v>21769.5</v>
       </c>
     </row>
@@ -12540,7 +12535,7 @@
         <v>133</v>
       </c>
       <c r="H121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I121">
@@ -12548,27 +12543,27 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K121" s="2">
-        <f>IF(E121=0,0,IF(ISNA(F121),"",F121))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M121">
-        <f>G121</f>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="N121" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q121" t="str">
-        <f>IF(E121=0,"",IF(ISNA(F121),"",F121))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12596,7 +12591,7 @@
         <v>145</v>
       </c>
       <c r="H122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I122">
@@ -12604,27 +12599,27 @@
         <v>24804500</v>
       </c>
       <c r="J122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K122" s="2">
-        <f>IF(E122=0,0,IF(ISNA(F122),"",F122))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M122">
-        <f>G122</f>
+        <f t="shared" si="12"/>
         <v>145</v>
       </c>
       <c r="N122" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q122" t="str">
-        <f>IF(E122=0,"",IF(ISNA(F122),"",F122))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12652,7 +12647,7 @@
         <v>148</v>
       </c>
       <c r="H123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>86.32</v>
       </c>
       <c r="I123">
@@ -12660,27 +12655,27 @@
         <v>53763400</v>
       </c>
       <c r="J123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4640856688</v>
       </c>
       <c r="K123" s="2">
-        <f>IF(E123=0,0,IF(ISNA(F123),"",F123))</f>
+        <f t="shared" si="17"/>
         <v>452.8</v>
       </c>
       <c r="M123">
-        <f>G123</f>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="N123" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>86.32</v>
       </c>
       <c r="O123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>452.8</v>
       </c>
       <c r="Q123">
-        <f>IF(E123=0,"",IF(ISNA(F123),"",F123))</f>
+        <f t="shared" si="16"/>
         <v>452.8</v>
       </c>
     </row>
@@ -12708,7 +12703,7 @@
         <v>137</v>
       </c>
       <c r="H124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I124">
@@ -12716,27 +12711,27 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K124" s="2">
-        <f>IF(E124=0,0,IF(ISNA(F124),"",F124))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M124">
-        <f>G124</f>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="N124" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q124" t="str">
-        <f>IF(E124=0,"",IF(ISNA(F124),"",F124))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12764,7 +12759,7 @@
         <v>143</v>
       </c>
       <c r="H125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>88.32</v>
       </c>
       <c r="I125">
@@ -12772,27 +12767,27 @@
         <v>36351100</v>
       </c>
       <c r="J125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3210529151.9999995</v>
       </c>
       <c r="K125" s="2">
-        <f>IF(E125=0,0,IF(ISNA(F125),"",F125))</f>
+        <f t="shared" si="17"/>
         <v>51.8</v>
       </c>
       <c r="M125">
-        <f>G125</f>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="N125" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>88.32</v>
       </c>
       <c r="O125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>51.8</v>
       </c>
       <c r="Q125">
-        <f>IF(E125=0,"",IF(ISNA(F125),"",F125))</f>
+        <f t="shared" si="16"/>
         <v>51.8</v>
       </c>
     </row>
@@ -12820,7 +12815,7 @@
         <v>149</v>
       </c>
       <c r="H126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>48.94</v>
       </c>
       <c r="I126">
@@ -12828,27 +12823,27 @@
         <v>3512.06</v>
       </c>
       <c r="J126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>171880.21639999998</v>
       </c>
       <c r="K126" s="2">
-        <f>IF(E126=0,0,IF(ISNA(F126),"",F126))</f>
+        <f t="shared" si="17"/>
         <v>476</v>
       </c>
       <c r="M126">
-        <f>G126</f>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="N126" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>48.94</v>
       </c>
       <c r="O126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>476</v>
       </c>
       <c r="Q126">
-        <f>IF(E126=0,"",IF(ISNA(F126),"",F126))</f>
+        <f t="shared" si="16"/>
         <v>476</v>
       </c>
     </row>
@@ -12876,7 +12871,7 @@
         <v>135</v>
       </c>
       <c r="H127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>62.43</v>
       </c>
       <c r="I127">
@@ -12884,27 +12879,27 @@
         <v>9289330000</v>
       </c>
       <c r="J127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>579932871900</v>
       </c>
       <c r="K127" s="2">
-        <f>IF(E127=0,0,IF(ISNA(F127),"",F127))</f>
+        <f t="shared" si="17"/>
         <v>42594.83</v>
       </c>
       <c r="M127">
-        <f>G127</f>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="N127" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>62.43</v>
       </c>
       <c r="O127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>42594.83</v>
       </c>
       <c r="Q127">
-        <f>IF(E127=0,"",IF(ISNA(F127),"",F127))</f>
+        <f t="shared" si="16"/>
         <v>42594.83</v>
       </c>
     </row>
@@ -12932,7 +12927,7 @@
         <v>75</v>
       </c>
       <c r="H128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I128">
@@ -12940,27 +12935,27 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K128" s="2">
-        <f>IF(E128=0,0,IF(ISNA(F128),"",F128))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M128">
-        <f>G128</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="N128" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q128" t="str">
-        <f>IF(E128=0,"",IF(ISNA(F128),"",F128))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12988,7 +12983,7 @@
         <v>147</v>
       </c>
       <c r="H129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>90.4</v>
       </c>
       <c r="I129">
@@ -12996,27 +12991,27 @@
         <v>2282460000</v>
       </c>
       <c r="J129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>206334384000</v>
       </c>
       <c r="K129" s="2">
-        <f>IF(E129=0,0,IF(ISNA(F129),"",F129))</f>
+        <f t="shared" si="17"/>
         <v>2520</v>
       </c>
       <c r="M129">
-        <f>G129</f>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="N129" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>90.4</v>
       </c>
       <c r="O129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2520</v>
       </c>
       <c r="Q129">
-        <f>IF(E129=0,"",IF(ISNA(F129),"",F129))</f>
+        <f t="shared" si="16"/>
         <v>2520</v>
       </c>
     </row>
@@ -13044,7 +13039,7 @@
         <v>141</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H193" si="8">E130</f>
+        <f t="shared" ref="H130:H193" si="18">E130</f>
         <v>0</v>
       </c>
       <c r="I130" t="e">
@@ -13052,27 +13047,27 @@
         <v>#N/A</v>
       </c>
       <c r="J130" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K130" s="2">
-        <f>IF(E130=0,0,IF(ISNA(F130),"",F130))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M130">
-        <f>G130</f>
+        <f t="shared" si="12"/>
         <v>141</v>
       </c>
       <c r="N130" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q130" t="str">
-        <f>IF(E130=0,"",IF(ISNA(F130),"",F130))</f>
+        <f t="shared" ref="Q130:Q161" si="19">IF(E130=0,"",IF(ISNA(F130),"",F130))</f>
         <v/>
       </c>
     </row>
@@ -13100,7 +13095,7 @@
         <v>139</v>
       </c>
       <c r="H131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0.69</v>
       </c>
       <c r="I131">
@@ -13108,27 +13103,27 @@
         <v>339186000</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="9">I131*H131</f>
+        <f t="shared" ref="J131:J194" si="20">I131*H131</f>
         <v>234038339.99999997</v>
       </c>
       <c r="K131" s="2">
-        <f>IF(E131=0,0,IF(ISNA(F131),"",F131))</f>
+        <f t="shared" si="17"/>
         <v>1888</v>
       </c>
       <c r="M131">
-        <f>G131</f>
+        <f t="shared" ref="M131:M194" si="21">G131</f>
         <v>139</v>
       </c>
       <c r="N131" s="2">
-        <f t="shared" ref="N131:N194" si="10">H131</f>
+        <f t="shared" ref="N131:N194" si="22">H131</f>
         <v>0.69</v>
       </c>
       <c r="O131" s="2">
-        <f t="shared" ref="O131:O194" si="11">K131</f>
+        <f t="shared" ref="O131:O194" si="23">K131</f>
         <v>1888</v>
       </c>
       <c r="Q131">
-        <f>IF(E131=0,"",IF(ISNA(F131),"",F131))</f>
+        <f t="shared" si="19"/>
         <v>1888</v>
       </c>
     </row>
@@ -13156,7 +13151,7 @@
         <v>150</v>
       </c>
       <c r="H132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.59</v>
       </c>
       <c r="I132">
@@ -13164,27 +13159,27 @@
         <v>316852000</v>
       </c>
       <c r="J132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>820646680</v>
       </c>
       <c r="K132" s="2">
-        <f>IF(E132=0,0,IF(ISNA(F132),"",F132))</f>
+        <f t="shared" si="17"/>
         <v>218.5</v>
       </c>
       <c r="M132">
-        <f>G132</f>
+        <f t="shared" si="21"/>
         <v>150</v>
       </c>
       <c r="N132" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.59</v>
       </c>
       <c r="O132" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>218.5</v>
       </c>
       <c r="Q132">
-        <f>IF(E132=0,"",IF(ISNA(F132),"",F132))</f>
+        <f t="shared" si="19"/>
         <v>218.5</v>
       </c>
     </row>
@@ -13212,7 +13207,7 @@
         <v>157</v>
       </c>
       <c r="H133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>69.05</v>
       </c>
       <c r="I133">
@@ -13220,27 +13215,27 @@
         <v>353809000</v>
       </c>
       <c r="J133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>24430511450</v>
       </c>
       <c r="K133" s="2">
-        <f>IF(E133=0,0,IF(ISNA(F133),"",F133))</f>
+        <f t="shared" si="17"/>
         <v>4921.7</v>
       </c>
       <c r="M133">
-        <f>G133</f>
+        <f t="shared" si="21"/>
         <v>157</v>
       </c>
       <c r="N133" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>69.05</v>
       </c>
       <c r="O133" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4921.7</v>
       </c>
       <c r="Q133">
-        <f>IF(E133=0,"",IF(ISNA(F133),"",F133))</f>
+        <f t="shared" si="19"/>
         <v>4921.7</v>
       </c>
     </row>
@@ -13268,7 +13263,7 @@
         <v>160</v>
       </c>
       <c r="H134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I134">
@@ -13276,27 +13271,27 @@
         <v>15306500</v>
       </c>
       <c r="J134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K134" s="2">
-        <f>IF(E134=0,0,IF(ISNA(F134),"",F134))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M134">
-        <f>G134</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="N134" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O134" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q134" t="str">
-        <f>IF(E134=0,"",IF(ISNA(F134),"",F134))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -13324,7 +13319,7 @@
         <v>146</v>
       </c>
       <c r="H135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0.09</v>
       </c>
       <c r="I135">
@@ -13332,27 +13327,27 @@
         <v>202771000</v>
       </c>
       <c r="J135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>18249390</v>
       </c>
       <c r="K135" s="2">
-        <f>IF(E135=0,0,IF(ISNA(F135),"",F135))</f>
+        <f t="shared" si="17"/>
         <v>901.3</v>
       </c>
       <c r="M135">
-        <f>G135</f>
+        <f t="shared" si="21"/>
         <v>146</v>
       </c>
       <c r="N135" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.09</v>
       </c>
       <c r="O135" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>901.3</v>
       </c>
       <c r="Q135">
-        <f>IF(E135=0,"",IF(ISNA(F135),"",F135))</f>
+        <f t="shared" si="19"/>
         <v>901.3</v>
       </c>
     </row>
@@ -13380,7 +13375,7 @@
         <v>161</v>
       </c>
       <c r="H136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I136">
@@ -13388,27 +13383,27 @@
         <v>13514400</v>
       </c>
       <c r="J136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K136" s="2">
-        <f>IF(E136=0,0,IF(ISNA(F136),"",F136))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M136">
-        <f>G136</f>
+        <f t="shared" si="21"/>
         <v>161</v>
       </c>
       <c r="N136" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O136" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q136" t="str">
-        <f>IF(E136=0,"",IF(ISNA(F136),"",F136))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -13436,7 +13431,7 @@
         <v>164</v>
       </c>
       <c r="H137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I137" t="e">
@@ -13444,27 +13439,27 @@
         <v>#N/A</v>
       </c>
       <c r="J137" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="K137" s="2">
-        <f>IF(E137=0,0,IF(ISNA(F137),"",F137))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M137">
-        <f>G137</f>
+        <f t="shared" si="21"/>
         <v>164</v>
       </c>
       <c r="N137" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O137" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q137" t="str">
-        <f>IF(E137=0,"",IF(ISNA(F137),"",F137))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -13492,7 +13487,7 @@
         <v>163</v>
       </c>
       <c r="H138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I138">
@@ -13500,27 +13495,27 @@
         <v>95009800</v>
       </c>
       <c r="J138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K138" s="2">
-        <f>IF(E138=0,0,IF(ISNA(F138),"",F138))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M138">
-        <f>G138</f>
+        <f t="shared" si="21"/>
         <v>163</v>
       </c>
       <c r="N138" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O138" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q138" t="str">
-        <f>IF(E138=0,"",IF(ISNA(F138),"",F138))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -13548,7 +13543,7 @@
         <v>158</v>
       </c>
       <c r="H139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>83.4</v>
       </c>
       <c r="I139">
@@ -13556,27 +13551,27 @@
         <v>7138910000</v>
       </c>
       <c r="J139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>595385094000</v>
       </c>
       <c r="K139" s="2">
-        <f>IF(E139=0,0,IF(ISNA(F139),"",F139))</f>
+        <f t="shared" si="17"/>
         <v>23097.53</v>
       </c>
       <c r="M139">
-        <f>G139</f>
+        <f t="shared" si="21"/>
         <v>158</v>
       </c>
       <c r="N139" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>83.4</v>
       </c>
       <c r="O139" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>23097.53</v>
       </c>
       <c r="Q139">
-        <f>IF(E139=0,"",IF(ISNA(F139),"",F139))</f>
+        <f t="shared" si="19"/>
         <v>23097.53</v>
       </c>
     </row>
@@ -13604,7 +13599,7 @@
         <v>152</v>
       </c>
       <c r="H140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I140">
@@ -13612,27 +13607,27 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K140" s="2">
-        <f>IF(E140=0,0,IF(ISNA(F140),"",F140))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M140">
-        <f>G140</f>
+        <f t="shared" si="21"/>
         <v>152</v>
       </c>
       <c r="N140" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O140" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q140" t="str">
-        <f>IF(E140=0,"",IF(ISNA(F140),"",F140))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -13660,7 +13655,7 @@
         <v>170</v>
       </c>
       <c r="H141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6.21</v>
       </c>
       <c r="I141">
@@ -13668,27 +13663,27 @@
         <v>309893000</v>
       </c>
       <c r="J141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1924435530</v>
       </c>
       <c r="K141" s="2">
-        <f>IF(E141=0,0,IF(ISNA(F141),"",F141))</f>
+        <f t="shared" si="17"/>
         <v>2454.4</v>
       </c>
       <c r="M141">
-        <f>G141</f>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="N141" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>6.21</v>
       </c>
       <c r="O141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2454.4</v>
       </c>
       <c r="Q141">
-        <f>IF(E141=0,"",IF(ISNA(F141),"",F141))</f>
+        <f t="shared" si="19"/>
         <v>2454.4</v>
       </c>
     </row>
@@ -13716,7 +13711,7 @@
         <v>156</v>
       </c>
       <c r="H142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0.27</v>
       </c>
       <c r="I142">
@@ -13724,27 +13719,27 @@
         <v>323466000</v>
       </c>
       <c r="J142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>87335820</v>
       </c>
       <c r="K142" s="2">
-        <f>IF(E142=0,0,IF(ISNA(F142),"",F142))</f>
+        <f t="shared" si="17"/>
         <v>186.3</v>
       </c>
       <c r="M142">
-        <f>G142</f>
+        <f t="shared" si="21"/>
         <v>156</v>
       </c>
       <c r="N142" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.27</v>
       </c>
       <c r="O142" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>186.3</v>
       </c>
       <c r="Q142">
-        <f>IF(E142=0,"",IF(ISNA(F142),"",F142))</f>
+        <f t="shared" si="19"/>
         <v>186.3</v>
       </c>
     </row>
@@ -13772,7 +13767,7 @@
         <v>153</v>
       </c>
       <c r="H143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I143">
@@ -13780,27 +13775,27 @@
         <v>22086200</v>
       </c>
       <c r="J143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K143" s="2">
-        <f>IF(E143=0,0,IF(ISNA(F143),"",F143))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M143">
-        <f>G143</f>
+        <f t="shared" si="21"/>
         <v>153</v>
       </c>
       <c r="N143" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O143" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q143" t="str">
-        <f>IF(E143=0,"",IF(ISNA(F143),"",F143))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -13828,7 +13823,7 @@
         <v>155</v>
       </c>
       <c r="H144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>88.76</v>
       </c>
       <c r="I144">
@@ -13836,27 +13831,27 @@
         <v>1091100000</v>
       </c>
       <c r="J144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>96846036000</v>
       </c>
       <c r="K144" s="2">
-        <f>IF(E144=0,0,IF(ISNA(F144),"",F144))</f>
+        <f t="shared" ref="K144:K175" si="24">IF(E144=0,0,IF(ISNA(F144),"",F144))</f>
         <v>8919.1</v>
       </c>
       <c r="M144">
-        <f>G144</f>
+        <f t="shared" si="21"/>
         <v>155</v>
       </c>
       <c r="N144" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>88.76</v>
       </c>
       <c r="O144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>8919.1</v>
       </c>
       <c r="Q144">
-        <f>IF(E144=0,"",IF(ISNA(F144),"",F144))</f>
+        <f t="shared" si="19"/>
         <v>8919.1</v>
       </c>
     </row>
@@ -13884,7 +13879,7 @@
         <v>142</v>
       </c>
       <c r="H145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I145">
@@ -13892,27 +13887,27 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K145" s="2">
-        <f>IF(E145=0,0,IF(ISNA(F145),"",F145))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M145">
-        <f>G145</f>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="N145" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O145" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q145" t="str">
-        <f>IF(E145=0,"",IF(ISNA(F145),"",F145))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -13940,7 +13935,7 @@
         <v>159</v>
       </c>
       <c r="H146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>48.26</v>
       </c>
       <c r="I146">
@@ -13948,27 +13943,27 @@
         <v>1994190000</v>
       </c>
       <c r="J146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>96239609400</v>
       </c>
       <c r="K146" s="2">
-        <f>IF(E146=0,0,IF(ISNA(F146),"",F146))</f>
+        <f t="shared" si="24"/>
         <v>1235</v>
       </c>
       <c r="M146">
-        <f>G146</f>
+        <f t="shared" si="21"/>
         <v>159</v>
       </c>
       <c r="N146" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>48.26</v>
       </c>
       <c r="O146" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1235</v>
       </c>
       <c r="Q146">
-        <f>IF(E146=0,"",IF(ISNA(F146),"",F146))</f>
+        <f t="shared" si="19"/>
         <v>1235</v>
       </c>
     </row>
@@ -13996,7 +13991,7 @@
         <v>171</v>
       </c>
       <c r="H147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.41</v>
       </c>
       <c r="I147">
@@ -14004,27 +13999,27 @@
         <v>35640900</v>
       </c>
       <c r="J147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>50253669</v>
       </c>
       <c r="K147" s="2">
-        <f>IF(E147=0,0,IF(ISNA(F147),"",F147))</f>
+        <f t="shared" si="24"/>
         <v>8118.85</v>
       </c>
       <c r="M147">
-        <f>G147</f>
+        <f t="shared" si="21"/>
         <v>171</v>
       </c>
       <c r="N147" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.41</v>
       </c>
       <c r="O147" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>8118.85</v>
       </c>
       <c r="Q147">
-        <f>IF(E147=0,"",IF(ISNA(F147),"",F147))</f>
+        <f t="shared" si="19"/>
         <v>8118.85</v>
       </c>
     </row>
@@ -14052,7 +14047,7 @@
         <v>169</v>
       </c>
       <c r="H148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.92</v>
       </c>
       <c r="I148">
@@ -14060,27 +14055,27 @@
         <v>4673420000</v>
       </c>
       <c r="J148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>8972966400</v>
       </c>
       <c r="K148" s="2">
-        <f>IF(E148=0,0,IF(ISNA(F148),"",F148))</f>
+        <f t="shared" si="24"/>
         <v>16932.61</v>
       </c>
       <c r="M148">
-        <f>G148</f>
+        <f t="shared" si="21"/>
         <v>169</v>
       </c>
       <c r="N148" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.92</v>
       </c>
       <c r="O148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>16932.61</v>
       </c>
       <c r="Q148">
-        <f>IF(E148=0,"",IF(ISNA(F148),"",F148))</f>
+        <f t="shared" si="19"/>
         <v>16932.61</v>
       </c>
     </row>
@@ -14108,7 +14103,7 @@
         <v>181</v>
       </c>
       <c r="H149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I149">
@@ -14116,27 +14111,27 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K149" s="2">
-        <f>IF(E149=0,0,IF(ISNA(F149),"",F149))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M149">
-        <f>G149</f>
+        <f t="shared" si="21"/>
         <v>181</v>
       </c>
       <c r="N149" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q149" t="str">
-        <f>IF(E149=0,"",IF(ISNA(F149),"",F149))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14164,7 +14159,7 @@
         <v>162</v>
       </c>
       <c r="H150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>81.62</v>
       </c>
       <c r="I150">
@@ -14172,27 +14167,27 @@
         <v>276835000</v>
       </c>
       <c r="J150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>22595272700</v>
       </c>
       <c r="K150" s="2">
-        <f>IF(E150=0,0,IF(ISNA(F150),"",F150))</f>
+        <f t="shared" si="24"/>
         <v>879.71</v>
       </c>
       <c r="M150">
-        <f>G150</f>
+        <f t="shared" si="21"/>
         <v>162</v>
       </c>
       <c r="N150" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>81.62</v>
       </c>
       <c r="O150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>879.71</v>
       </c>
       <c r="Q150">
-        <f>IF(E150=0,"",IF(ISNA(F150),"",F150))</f>
+        <f t="shared" si="19"/>
         <v>879.71</v>
       </c>
     </row>
@@ -14220,7 +14215,7 @@
         <v>167</v>
       </c>
       <c r="H151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I151">
@@ -14228,27 +14223,27 @@
         <v>24165300</v>
       </c>
       <c r="J151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K151" s="2">
-        <f>IF(E151=0,0,IF(ISNA(F151),"",F151))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M151">
-        <f>G151</f>
+        <f t="shared" si="21"/>
         <v>167</v>
       </c>
       <c r="N151" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O151" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q151" t="str">
-        <f>IF(E151=0,"",IF(ISNA(F151),"",F151))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14276,7 +14271,7 @@
         <v>182</v>
       </c>
       <c r="H152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I152">
@@ -14284,27 +14279,27 @@
         <v>277918000</v>
       </c>
       <c r="J152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K152" s="2">
-        <f>IF(E152=0,0,IF(ISNA(F152),"",F152))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M152">
-        <f>G152</f>
+        <f t="shared" si="21"/>
         <v>182</v>
       </c>
       <c r="N152" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O152" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q152" t="str">
-        <f>IF(E152=0,"",IF(ISNA(F152),"",F152))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14332,7 +14327,7 @@
         <v>166</v>
       </c>
       <c r="H153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>13.77</v>
       </c>
       <c r="I153">
@@ -14340,27 +14335,27 @@
         <v>803033000</v>
       </c>
       <c r="J153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>11057764410</v>
       </c>
       <c r="K153" s="2">
-        <f>IF(E153=0,0,IF(ISNA(F153),"",F153))</f>
+        <f t="shared" si="24"/>
         <v>4676.2700000000004</v>
       </c>
       <c r="M153">
-        <f>G153</f>
+        <f t="shared" si="21"/>
         <v>166</v>
       </c>
       <c r="N153" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>13.77</v>
       </c>
       <c r="O153" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4676.2700000000004</v>
       </c>
       <c r="Q153">
-        <f>IF(E153=0,"",IF(ISNA(F153),"",F153))</f>
+        <f t="shared" si="19"/>
         <v>4676.2700000000004</v>
       </c>
     </row>
@@ -14388,7 +14383,7 @@
         <v>168</v>
       </c>
       <c r="H154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>96.36</v>
       </c>
       <c r="I154">
@@ -14396,27 +14391,27 @@
         <v>7865710000</v>
       </c>
       <c r="J154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>757939815600</v>
       </c>
       <c r="K154" s="2">
-        <f>IF(E154=0,0,IF(ISNA(F154),"",F154))</f>
+        <f t="shared" si="24"/>
         <v>11124.38</v>
       </c>
       <c r="M154">
-        <f>G154</f>
+        <f t="shared" si="21"/>
         <v>168</v>
       </c>
       <c r="N154" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>96.36</v>
       </c>
       <c r="O154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>11124.38</v>
       </c>
       <c r="Q154">
-        <f>IF(E154=0,"",IF(ISNA(F154),"",F154))</f>
+        <f t="shared" si="19"/>
         <v>11124.38</v>
       </c>
     </row>
@@ -14444,7 +14439,7 @@
         <v>177</v>
       </c>
       <c r="H155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>67.58</v>
       </c>
       <c r="I155">
@@ -14452,27 +14447,27 @@
         <v>15145200000</v>
       </c>
       <c r="J155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1023512616000</v>
       </c>
       <c r="K155" s="2">
-        <f>IF(E155=0,0,IF(ISNA(F155),"",F155))</f>
+        <f t="shared" si="24"/>
         <v>30188.2</v>
       </c>
       <c r="M155">
-        <f>G155</f>
+        <f t="shared" si="21"/>
         <v>177</v>
       </c>
       <c r="N155" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>67.58</v>
       </c>
       <c r="O155" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>30188.2</v>
       </c>
       <c r="Q155">
-        <f>IF(E155=0,"",IF(ISNA(F155),"",F155))</f>
+        <f t="shared" si="19"/>
         <v>30188.2</v>
       </c>
     </row>
@@ -14500,7 +14495,7 @@
         <v>180</v>
       </c>
       <c r="H156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.7</v>
       </c>
       <c r="I156">
@@ -14508,27 +14503,27 @@
         <v>3313800000</v>
       </c>
       <c r="J156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>5633460000</v>
       </c>
       <c r="K156" s="2">
-        <f>IF(E156=0,0,IF(ISNA(F156),"",F156))</f>
+        <f t="shared" si="24"/>
         <v>6141</v>
       </c>
       <c r="M156">
-        <f>G156</f>
+        <f t="shared" si="21"/>
         <v>180</v>
       </c>
       <c r="N156" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.7</v>
       </c>
       <c r="O156" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>6141</v>
       </c>
       <c r="Q156">
-        <f>IF(E156=0,"",IF(ISNA(F156),"",F156))</f>
+        <f t="shared" si="19"/>
         <v>6141</v>
       </c>
     </row>
@@ -14556,7 +14551,7 @@
         <v>178</v>
       </c>
       <c r="H157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>52.41</v>
       </c>
       <c r="I157">
@@ -14564,27 +14559,27 @@
         <v>231068000</v>
       </c>
       <c r="J157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>12110273880</v>
       </c>
       <c r="K157" s="2">
-        <f>IF(E157=0,0,IF(ISNA(F157),"",F157))</f>
+        <f t="shared" si="24"/>
         <v>5524.5</v>
       </c>
       <c r="M157">
-        <f>G157</f>
+        <f t="shared" si="21"/>
         <v>178</v>
       </c>
       <c r="N157" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>52.41</v>
       </c>
       <c r="O157" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>5524.5</v>
       </c>
       <c r="Q157">
-        <f>IF(E157=0,"",IF(ISNA(F157),"",F157))</f>
+        <f t="shared" si="19"/>
         <v>5524.5</v>
       </c>
     </row>
@@ -14612,7 +14607,7 @@
         <v>183</v>
       </c>
       <c r="H158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>94.92</v>
       </c>
       <c r="I158">
@@ -14620,27 +14615,27 @@
         <v>14081600</v>
       </c>
       <c r="J158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>1336625472</v>
       </c>
       <c r="K158" s="2">
-        <f>IF(E158=0,0,IF(ISNA(F158),"",F158))</f>
+        <f t="shared" si="24"/>
         <v>10541.5</v>
       </c>
       <c r="M158">
-        <f>G158</f>
+        <f t="shared" si="21"/>
         <v>183</v>
       </c>
       <c r="N158" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>94.92</v>
       </c>
       <c r="O158" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>10541.5</v>
       </c>
       <c r="Q158">
-        <f>IF(E158=0,"",IF(ISNA(F158),"",F158))</f>
+        <f t="shared" si="19"/>
         <v>10541.5</v>
       </c>
     </row>
@@ -14668,7 +14663,7 @@
         <v>172</v>
       </c>
       <c r="H159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>58.73</v>
       </c>
       <c r="I159">
@@ -14676,27 +14671,27 @@
         <v>16925300000</v>
       </c>
       <c r="J159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>994022869000</v>
       </c>
       <c r="K159" s="2">
-        <f>IF(E159=0,0,IF(ISNA(F159),"",F159))</f>
+        <f t="shared" si="24"/>
         <v>11302</v>
       </c>
       <c r="M159">
-        <f>G159</f>
+        <f t="shared" si="21"/>
         <v>172</v>
       </c>
       <c r="N159" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>58.73</v>
       </c>
       <c r="O159" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>11302</v>
       </c>
       <c r="Q159">
-        <f>IF(E159=0,"",IF(ISNA(F159),"",F159))</f>
+        <f t="shared" si="19"/>
         <v>11302</v>
       </c>
     </row>
@@ -14724,7 +14719,7 @@
         <v>176</v>
       </c>
       <c r="H160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>91.95</v>
       </c>
       <c r="I160">
@@ -14732,27 +14727,27 @@
         <v>130975000000</v>
       </c>
       <c r="J160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>12043151250000</v>
       </c>
       <c r="K160" s="2">
-        <f>IF(E160=0,0,IF(ISNA(F160),"",F160))</f>
+        <f t="shared" si="24"/>
         <v>192238.04</v>
       </c>
       <c r="M160">
-        <f>G160</f>
+        <f t="shared" si="21"/>
         <v>176</v>
       </c>
       <c r="N160" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>91.95</v>
       </c>
       <c r="O160" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>192238.04</v>
       </c>
       <c r="Q160">
-        <f>IF(E160=0,"",IF(ISNA(F160),"",F160))</f>
+        <f t="shared" si="19"/>
         <v>192238.04</v>
       </c>
     </row>
@@ -14780,7 +14775,7 @@
         <v>187</v>
       </c>
       <c r="H161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I161">
@@ -14788,27 +14783,27 @@
         <v>22122600</v>
       </c>
       <c r="J161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K161" s="2">
-        <f>IF(E161=0,0,IF(ISNA(F161),"",F161))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M161">
-        <f>G161</f>
+        <f t="shared" si="21"/>
         <v>187</v>
       </c>
       <c r="N161" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O161" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q161" t="str">
-        <f>IF(E161=0,"",IF(ISNA(F161),"",F161))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14836,7 +14831,7 @@
         <v>238</v>
       </c>
       <c r="H162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I162">
@@ -14844,27 +14839,27 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K162" s="2">
-        <f>IF(E162=0,0,IF(ISNA(F162),"",F162))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M162">
-        <f>G162</f>
+        <f t="shared" si="21"/>
         <v>238</v>
       </c>
       <c r="N162" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O162" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q162" t="str">
-        <f>IF(E162=0,"",IF(ISNA(F162),"",F162))</f>
+        <f t="shared" ref="Q162:Q194" si="25">IF(E162=0,"",IF(ISNA(F162),"",F162))</f>
         <v/>
       </c>
     </row>
@@ -14892,7 +14887,7 @@
         <v>210</v>
       </c>
       <c r="H163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I163">
@@ -14900,27 +14895,27 @@
         <v>12338400</v>
       </c>
       <c r="J163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K163" s="2">
-        <f>IF(E163=0,0,IF(ISNA(F163),"",F163))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M163">
-        <f>G163</f>
+        <f t="shared" si="21"/>
         <v>210</v>
       </c>
       <c r="N163" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O163" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q163" t="str">
-        <f>IF(E163=0,"",IF(ISNA(F163),"",F163))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -14948,7 +14943,7 @@
         <v>197</v>
       </c>
       <c r="H164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I164">
@@ -14956,27 +14951,27 @@
         <v>43570.400000000001</v>
       </c>
       <c r="J164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K164" s="2">
-        <f>IF(E164=0,0,IF(ISNA(F164),"",F164))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M164">
-        <f>G164</f>
+        <f t="shared" si="21"/>
         <v>197</v>
       </c>
       <c r="N164" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O164" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q164" t="str">
-        <f>IF(E164=0,"",IF(ISNA(F164),"",F164))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15004,7 +14999,7 @@
         <v>184</v>
       </c>
       <c r="H165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>89.49</v>
       </c>
       <c r="I165">
@@ -15012,27 +15007,27 @@
         <v>277036000</v>
       </c>
       <c r="J165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>24791951640</v>
       </c>
       <c r="K165" s="2">
-        <f>IF(E165=0,0,IF(ISNA(F165),"",F165))</f>
+        <f t="shared" si="24"/>
         <v>62841.599999999999</v>
       </c>
       <c r="M165">
-        <f>G165</f>
+        <f t="shared" si="21"/>
         <v>184</v>
       </c>
       <c r="N165" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>89.49</v>
       </c>
       <c r="O165" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>62841.599999999999</v>
       </c>
       <c r="Q165">
-        <f>IF(E165=0,"",IF(ISNA(F165),"",F165))</f>
+        <f t="shared" si="25"/>
         <v>62841.599999999999</v>
       </c>
     </row>
@@ -15060,7 +15055,7 @@
         <v>218</v>
       </c>
       <c r="H166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>8.75</v>
       </c>
       <c r="I166">
@@ -15068,27 +15063,27 @@
         <v>63823000</v>
       </c>
       <c r="J166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>558451250</v>
       </c>
       <c r="K166" s="2">
-        <f>IF(E166=0,0,IF(ISNA(F166),"",F166))</f>
+        <f t="shared" si="24"/>
         <v>475.4</v>
       </c>
       <c r="M166">
-        <f>G166</f>
+        <f t="shared" si="21"/>
         <v>218</v>
       </c>
       <c r="N166" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>8.75</v>
       </c>
       <c r="O166" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>475.4</v>
       </c>
       <c r="Q166">
-        <f>IF(E166=0,"",IF(ISNA(F166),"",F166))</f>
+        <f t="shared" si="25"/>
         <v>475.4</v>
       </c>
     </row>
@@ -15116,7 +15111,7 @@
         <v>175</v>
       </c>
       <c r="H167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>81.66</v>
       </c>
       <c r="I167">
@@ -15124,27 +15119,27 @@
         <v>8933210000</v>
       </c>
       <c r="J167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>729485928600</v>
       </c>
       <c r="K167" s="2">
-        <f>IF(E167=0,0,IF(ISNA(F167),"",F167))</f>
+        <f t="shared" si="24"/>
         <v>4565.5</v>
       </c>
       <c r="M167">
-        <f>G167</f>
+        <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="N167" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>81.66</v>
       </c>
       <c r="O167" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4565.5</v>
       </c>
       <c r="Q167">
-        <f>IF(E167=0,"",IF(ISNA(F167),"",F167))</f>
+        <f t="shared" si="25"/>
         <v>4565.5</v>
       </c>
     </row>
@@ -15172,7 +15167,7 @@
         <v>186</v>
       </c>
       <c r="H168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I168">
@@ -15180,27 +15175,27 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K168" s="2">
-        <f>IF(E168=0,0,IF(ISNA(F168),"",F168))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M168">
-        <f>G168</f>
+        <f t="shared" si="21"/>
         <v>186</v>
       </c>
       <c r="N168" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O168" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q168" t="str">
-        <f>IF(E168=0,"",IF(ISNA(F168),"",F168))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15228,7 +15223,7 @@
         <v>209</v>
       </c>
       <c r="H169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I169">
@@ -15236,27 +15231,27 @@
         <v>18897900</v>
       </c>
       <c r="J169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K169" s="2">
-        <f>IF(E169=0,0,IF(ISNA(F169),"",F169))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M169">
-        <f>G169</f>
+        <f t="shared" si="21"/>
         <v>209</v>
       </c>
       <c r="N169" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O169" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q169" t="str">
-        <f>IF(E169=0,"",IF(ISNA(F169),"",F169))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15284,7 +15279,7 @@
         <v>219</v>
       </c>
       <c r="H170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>98.16</v>
       </c>
       <c r="I170">
@@ -15292,27 +15287,27 @@
         <v>51586600</v>
       </c>
       <c r="J170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>5063740656</v>
       </c>
       <c r="K170" s="2">
-        <f>IF(E170=0,0,IF(ISNA(F170),"",F170))</f>
+        <f t="shared" si="24"/>
         <v>12413.7</v>
       </c>
       <c r="M170">
-        <f>G170</f>
+        <f t="shared" si="21"/>
         <v>219</v>
       </c>
       <c r="N170" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>98.16</v>
       </c>
       <c r="O170" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>12413.7</v>
       </c>
       <c r="Q170">
-        <f>IF(E170=0,"",IF(ISNA(F170),"",F170))</f>
+        <f t="shared" si="25"/>
         <v>12413.7</v>
       </c>
     </row>
@@ -15340,7 +15335,7 @@
         <v>234</v>
       </c>
       <c r="H171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>99.37</v>
       </c>
       <c r="I171">
@@ -15348,27 +15343,27 @@
         <v>200777</v>
       </c>
       <c r="J171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>19951210.490000002</v>
       </c>
       <c r="K171" s="2">
-        <f>IF(E171=0,0,IF(ISNA(F171),"",F171))</f>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="M171">
-        <f>G171</f>
+        <f t="shared" si="21"/>
         <v>234</v>
       </c>
       <c r="N171" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>99.37</v>
       </c>
       <c r="O171" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="Q171">
-        <f>IF(E171=0,"",IF(ISNA(F171),"",F171))</f>
+        <f t="shared" si="25"/>
         <v>60</v>
       </c>
     </row>
@@ -15396,7 +15391,7 @@
         <v>212</v>
       </c>
       <c r="H172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>14.45</v>
       </c>
       <c r="I172">
@@ -15404,27 +15399,27 @@
         <v>1592330000</v>
       </c>
       <c r="J172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>23009168500</v>
       </c>
       <c r="K172" s="2">
-        <f>IF(E172=0,0,IF(ISNA(F172),"",F172))</f>
+        <f t="shared" si="24"/>
         <v>3965</v>
       </c>
       <c r="M172">
-        <f>G172</f>
+        <f t="shared" si="21"/>
         <v>212</v>
       </c>
       <c r="N172" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>14.45</v>
       </c>
       <c r="O172" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3965</v>
       </c>
       <c r="Q172">
-        <f>IF(E172=0,"",IF(ISNA(F172),"",F172))</f>
+        <f t="shared" si="25"/>
         <v>3965</v>
       </c>
     </row>
@@ -15452,7 +15447,7 @@
         <v>194</v>
       </c>
       <c r="H173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46.77</v>
       </c>
       <c r="I173">
@@ -15460,27 +15455,27 @@
         <v>695377000</v>
       </c>
       <c r="J173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>32522782290.000004</v>
       </c>
       <c r="K173" s="2">
-        <f>IF(E173=0,0,IF(ISNA(F173),"",F173))</f>
+        <f t="shared" si="24"/>
         <v>1938</v>
       </c>
       <c r="M173">
-        <f>G173</f>
+        <f t="shared" si="21"/>
         <v>194</v>
       </c>
       <c r="N173" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>46.77</v>
       </c>
       <c r="O173" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1938</v>
       </c>
       <c r="Q173">
-        <f>IF(E173=0,"",IF(ISNA(F173),"",F173))</f>
+        <f t="shared" si="25"/>
         <v>1938</v>
       </c>
     </row>
@@ -15508,7 +15503,7 @@
         <v>185</v>
       </c>
       <c r="H174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I174">
@@ -15516,27 +15511,27 @@
         <v>2790030</v>
       </c>
       <c r="J174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K174" s="2">
-        <f>IF(E174=0,0,IF(ISNA(F174),"",F174))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M174">
-        <f>G174</f>
+        <f t="shared" si="21"/>
         <v>185</v>
       </c>
       <c r="N174" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O174" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q174" t="str">
-        <f>IF(E174=0,"",IF(ISNA(F174),"",F174))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15564,7 +15559,7 @@
         <v>190</v>
       </c>
       <c r="H175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I175">
@@ -15572,27 +15567,27 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K175" s="2">
-        <f>IF(E175=0,0,IF(ISNA(F175),"",F175))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M175">
-        <f>G175</f>
+        <f t="shared" si="21"/>
         <v>190</v>
       </c>
       <c r="N175" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O175" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q175" t="str">
-        <f>IF(E175=0,"",IF(ISNA(F175),"",F175))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15620,7 +15615,7 @@
         <v>227</v>
       </c>
       <c r="H176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>69.849999999999994</v>
       </c>
       <c r="I176">
@@ -15628,27 +15623,27 @@
         <v>2071130000</v>
       </c>
       <c r="J176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>144668430500</v>
       </c>
       <c r="K176" s="2">
-        <f>IF(E176=0,0,IF(ISNA(F176),"",F176))</f>
+        <f t="shared" ref="K176:K188" si="26">IF(E176=0,0,IF(ISNA(F176),"",F176))</f>
         <v>43221.3</v>
       </c>
       <c r="M176">
-        <f>G176</f>
+        <f t="shared" si="21"/>
         <v>227</v>
       </c>
       <c r="N176" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>69.849999999999994</v>
       </c>
       <c r="O176" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>43221.3</v>
       </c>
       <c r="Q176">
-        <f>IF(E176=0,"",IF(ISNA(F176),"",F176))</f>
+        <f t="shared" si="25"/>
         <v>43221.3</v>
       </c>
     </row>
@@ -15676,7 +15671,7 @@
         <v>196</v>
       </c>
       <c r="H177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I177">
@@ -15684,27 +15679,27 @@
         <v>4007310</v>
       </c>
       <c r="J177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K177" s="2">
-        <f>IF(E177=0,0,IF(ISNA(F177),"",F177))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M177">
-        <f>G177</f>
+        <f t="shared" si="21"/>
         <v>196</v>
       </c>
       <c r="N177" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O177" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q177" t="str">
-        <f>IF(E177=0,"",IF(ISNA(F177),"",F177))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15732,7 +15727,7 @@
         <v>55</v>
       </c>
       <c r="H178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>64.98</v>
       </c>
       <c r="I178">
@@ -15740,27 +15735,27 @@
         <v>10550300000</v>
       </c>
       <c r="J178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>685558494000</v>
       </c>
       <c r="K178" s="2">
-        <f>IF(E178=0,0,IF(ISNA(F178),"",F178))</f>
+        <f t="shared" si="26"/>
         <v>50315.03</v>
       </c>
       <c r="M178">
-        <f>G178</f>
+        <f t="shared" si="21"/>
         <v>55</v>
       </c>
       <c r="N178" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>64.98</v>
       </c>
       <c r="O178" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>50315.03</v>
       </c>
       <c r="Q178">
-        <f>IF(E178=0,"",IF(ISNA(F178),"",F178))</f>
+        <f t="shared" si="25"/>
         <v>50315.03</v>
       </c>
     </row>
@@ -15788,7 +15783,7 @@
         <v>112</v>
       </c>
       <c r="H179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>80.400000000000006</v>
       </c>
       <c r="I179">
@@ -15796,27 +15791,27 @@
         <v>250925000</v>
       </c>
       <c r="J179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>20174370000</v>
       </c>
       <c r="K179" s="2">
-        <f>IF(E179=0,0,IF(ISNA(F179),"",F179))</f>
+        <f t="shared" si="26"/>
         <v>2219.3000000000002</v>
       </c>
       <c r="M179">
-        <f>G179</f>
+        <f t="shared" si="21"/>
         <v>112</v>
       </c>
       <c r="N179" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>80.400000000000006</v>
       </c>
       <c r="O179" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2219.3000000000002</v>
       </c>
       <c r="Q179">
-        <f>IF(E179=0,"",IF(ISNA(F179),"",F179))</f>
+        <f t="shared" si="25"/>
         <v>2219.3000000000002</v>
       </c>
     </row>
@@ -15844,7 +15839,7 @@
         <v>129</v>
       </c>
       <c r="H180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I180">
@@ -15852,27 +15847,27 @@
         <v>103575</v>
       </c>
       <c r="J180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K180" s="2">
-        <f>IF(E180=0,0,IF(ISNA(F180),"",F180))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M180">
-        <f>G180</f>
+        <f t="shared" si="21"/>
         <v>129</v>
       </c>
       <c r="N180" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O180" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q180" t="str">
-        <f>IF(E180=0,"",IF(ISNA(F180),"",F180))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15900,7 +15895,7 @@
         <v>110</v>
       </c>
       <c r="H181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>47.23</v>
       </c>
       <c r="I181">
@@ -15908,27 +15903,27 @@
         <v>230777</v>
       </c>
       <c r="J181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>10899597.709999999</v>
       </c>
       <c r="K181" s="2">
-        <f>IF(E181=0,0,IF(ISNA(F181),"",F181))</f>
+        <f t="shared" si="26"/>
         <v>77.2</v>
       </c>
       <c r="M181">
-        <f>G181</f>
+        <f t="shared" si="21"/>
         <v>110</v>
       </c>
       <c r="N181" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>47.23</v>
       </c>
       <c r="O181" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>77.2</v>
       </c>
       <c r="Q181">
-        <f>IF(E181=0,"",IF(ISNA(F181),"",F181))</f>
+        <f t="shared" si="25"/>
         <v>77.2</v>
       </c>
     </row>
@@ -15956,7 +15951,7 @@
         <v>251</v>
       </c>
       <c r="H182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I182">
@@ -15964,27 +15959,27 @@
         <v>88033.9</v>
       </c>
       <c r="J182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K182" s="2">
-        <f>IF(E182=0,0,IF(ISNA(F182),"",F182))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M182">
-        <f>G182</f>
+        <f t="shared" si="21"/>
         <v>251</v>
       </c>
       <c r="N182" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O182" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q182" t="str">
-        <f>IF(E182=0,"",IF(ISNA(F182),"",F182))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -16012,7 +16007,7 @@
         <v>188</v>
       </c>
       <c r="H183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I183">
@@ -16020,27 +16015,27 @@
         <v>356941000</v>
       </c>
       <c r="J183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>785270200.00000012</v>
       </c>
       <c r="K183" s="2">
-        <f>IF(E183=0,0,IF(ISNA(F183),"",F183))</f>
+        <f t="shared" si="26"/>
         <v>2200</v>
       </c>
       <c r="M183">
-        <f>G183</f>
+        <f t="shared" si="21"/>
         <v>188</v>
       </c>
       <c r="N183" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="O183" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2200</v>
       </c>
       <c r="Q183">
-        <f>IF(E183=0,"",IF(ISNA(F183),"",F183))</f>
+        <f t="shared" si="25"/>
         <v>2200</v>
       </c>
     </row>
@@ -16068,7 +16063,7 @@
         <v>191</v>
       </c>
       <c r="H184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I184">
@@ -16076,27 +16071,27 @@
         <v>30774800</v>
       </c>
       <c r="J184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K184" s="2">
-        <f>IF(E184=0,0,IF(ISNA(F184),"",F184))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M184">
-        <f>G184</f>
+        <f t="shared" si="21"/>
         <v>191</v>
       </c>
       <c r="N184" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O184" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q184" t="str">
-        <f>IF(E184=0,"",IF(ISNA(F184),"",F184))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -16124,7 +16119,7 @@
         <v>203</v>
       </c>
       <c r="H185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I185">
@@ -16132,27 +16127,27 @@
         <v>23454800</v>
       </c>
       <c r="J185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K185" s="2">
-        <f>IF(E185=0,0,IF(ISNA(F185),"",F185))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M185">
-        <f>G185</f>
+        <f t="shared" si="21"/>
         <v>203</v>
       </c>
       <c r="N185" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O185" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q185" t="str">
-        <f>IF(E185=0,"",IF(ISNA(F185),"",F185))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -16180,7 +16175,7 @@
         <v>189</v>
       </c>
       <c r="H186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>98.94</v>
       </c>
       <c r="I186">
@@ -16188,27 +16183,27 @@
         <v>2055160000</v>
       </c>
       <c r="J186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>203337530400</v>
       </c>
       <c r="K186" s="2">
-        <f>IF(E186=0,0,IF(ISNA(F186),"",F186))</f>
+        <f t="shared" si="26"/>
         <v>13350</v>
       </c>
       <c r="M186">
-        <f>G186</f>
+        <f t="shared" si="21"/>
         <v>189</v>
       </c>
       <c r="N186" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>98.94</v>
       </c>
       <c r="O186" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>13350</v>
       </c>
       <c r="Q186">
-        <f>IF(E186=0,"",IF(ISNA(F186),"",F186))</f>
+        <f t="shared" si="25"/>
         <v>13350</v>
       </c>
     </row>
@@ -16236,7 +16231,7 @@
         <v>42</v>
       </c>
       <c r="H187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>72.84</v>
       </c>
       <c r="I187">
@@ -16244,27 +16239,27 @@
         <v>1713360000</v>
       </c>
       <c r="J187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>124801142400</v>
       </c>
       <c r="K187" s="2">
-        <f>IF(E187=0,0,IF(ISNA(F187),"",F187))</f>
+        <f t="shared" si="26"/>
         <v>3443</v>
       </c>
       <c r="M187">
-        <f>G187</f>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="N187" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>72.84</v>
       </c>
       <c r="O187" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3443</v>
       </c>
       <c r="Q187">
-        <f>IF(E187=0,"",IF(ISNA(F187),"",F187))</f>
+        <f t="shared" si="25"/>
         <v>3443</v>
       </c>
     </row>
@@ -16292,7 +16287,7 @@
         <v>200</v>
       </c>
       <c r="H188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>10.43</v>
       </c>
       <c r="I188">
@@ -16300,27 +16295,27 @@
         <v>510901000</v>
       </c>
       <c r="J188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>5328697430</v>
       </c>
       <c r="K188" s="2">
-        <f>IF(E188=0,0,IF(ISNA(F188),"",F188))</f>
+        <f t="shared" si="26"/>
         <v>7469</v>
       </c>
       <c r="M188">
-        <f>G188</f>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="N188" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>10.43</v>
       </c>
       <c r="O188" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>7469</v>
       </c>
       <c r="Q188">
-        <f>IF(E188=0,"",IF(ISNA(F188),"",F188))</f>
+        <f t="shared" si="25"/>
         <v>7469</v>
       </c>
     </row>
@@ -16348,7 +16343,7 @@
         <v>198</v>
       </c>
       <c r="H189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>98.15</v>
       </c>
       <c r="I189">
@@ -16356,7 +16351,7 @@
         <v>1766870000</v>
       </c>
       <c r="J189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>173418290500</v>
       </c>
       <c r="K189" s="5">
@@ -16364,19 +16359,19 @@
         <v>5197</v>
       </c>
       <c r="M189">
-        <f>G189</f>
+        <f t="shared" si="21"/>
         <v>198</v>
       </c>
       <c r="N189" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>98.15</v>
       </c>
       <c r="O189" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>5197</v>
       </c>
       <c r="Q189" t="str">
-        <f>IF(E189=0,"",IF(ISNA(F189),"",F189))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -16404,7 +16399,7 @@
         <v>205</v>
       </c>
       <c r="H190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0.81</v>
       </c>
       <c r="I190">
@@ -16412,27 +16407,27 @@
         <v>43384100</v>
       </c>
       <c r="J190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>35141121</v>
       </c>
       <c r="K190" s="2">
-        <f>IF(E190=0,0,IF(ISNA(F190),"",F190))</f>
+        <f t="shared" ref="K190:K210" si="27">IF(E190=0,0,IF(ISNA(F190),"",F190))</f>
         <v>822.16</v>
       </c>
       <c r="M190">
-        <f>G190</f>
+        <f t="shared" si="21"/>
         <v>205</v>
       </c>
       <c r="N190" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.81</v>
       </c>
       <c r="O190" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>822.16</v>
       </c>
       <c r="Q190">
-        <f>IF(E190=0,"",IF(ISNA(F190),"",F190))</f>
+        <f t="shared" si="25"/>
         <v>822.16</v>
       </c>
     </row>
@@ -16460,7 +16455,7 @@
         <v>215</v>
       </c>
       <c r="H191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.67</v>
       </c>
       <c r="I191">
@@ -16468,27 +16463,27 @@
         <v>2828960000</v>
       </c>
       <c r="J191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>4724363200</v>
       </c>
       <c r="K191" s="2">
-        <f>IF(E191=0,0,IF(ISNA(F191),"",F191))</f>
+        <f t="shared" si="27"/>
         <v>35334.03</v>
       </c>
       <c r="M191">
-        <f>G191</f>
+        <f t="shared" si="21"/>
         <v>215</v>
       </c>
       <c r="N191" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.67</v>
       </c>
       <c r="O191" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>35334.03</v>
       </c>
       <c r="Q191">
-        <f>IF(E191=0,"",IF(ISNA(F191),"",F191))</f>
+        <f t="shared" si="25"/>
         <v>35334.03</v>
       </c>
     </row>
@@ -16516,7 +16511,7 @@
         <v>202</v>
       </c>
       <c r="H192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I192">
@@ -16524,27 +16519,27 @@
         <v>3983230</v>
       </c>
       <c r="J192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K192" s="2">
-        <f>IF(E192=0,0,IF(ISNA(F192),"",F192))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M192">
-        <f>G192</f>
+        <f t="shared" si="21"/>
         <v>202</v>
       </c>
       <c r="N192" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O192" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q192" t="str">
-        <f>IF(E192=0,"",IF(ISNA(F192),"",F192))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -16572,7 +16567,7 @@
         <v>214</v>
       </c>
       <c r="H193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I193">
@@ -16580,27 +16575,27 @@
         <v>24599000</v>
       </c>
       <c r="J193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K193" s="2">
-        <f>IF(E193=0,0,IF(ISNA(F193),"",F193))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M193">
-        <f>G193</f>
+        <f t="shared" si="21"/>
         <v>214</v>
       </c>
       <c r="N193" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O193" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q193" t="str">
-        <f>IF(E193=0,"",IF(ISNA(F193),"",F193))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -16628,7 +16623,7 @@
         <v>216</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H215" si="12">E194</f>
+        <f t="shared" ref="H194:H215" si="28">E194</f>
         <v>0</v>
       </c>
       <c r="I194">
@@ -16636,27 +16631,27 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K194" s="2">
-        <f>IF(E194=0,0,IF(ISNA(F194),"",F194))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M194">
-        <f>G194</f>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="N194" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O194" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q194" t="str">
-        <f>IF(E194=0,"",IF(ISNA(F194),"",F194))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -16684,7 +16679,7 @@
         <v>192</v>
       </c>
       <c r="H195">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>99.1</v>
       </c>
       <c r="I195">
@@ -16692,27 +16687,27 @@
         <v>118004000</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J215" si="13">I195*H195</f>
+        <f t="shared" ref="J195:J215" si="29">I195*H195</f>
         <v>11694196400</v>
       </c>
       <c r="K195" s="2">
-        <f>IF(E195=0,0,IF(ISNA(F195),"",F195))</f>
+        <f t="shared" si="27"/>
         <v>2308.6</v>
       </c>
       <c r="M195">
-        <f>G195</f>
+        <f t="shared" ref="M195:M215" si="30">G195</f>
         <v>192</v>
       </c>
       <c r="N195" s="2">
-        <f t="shared" ref="N195:N215" si="14">H195</f>
+        <f t="shared" ref="N195:N215" si="31">H195</f>
         <v>99.1</v>
       </c>
       <c r="O195" s="2">
-        <f t="shared" ref="O195:O215" si="15">K195</f>
+        <f t="shared" ref="O195:O215" si="32">K195</f>
         <v>2308.6</v>
       </c>
       <c r="Q195">
-        <f t="shared" ref="Q195:Q215" si="16">IF(E195=0,"",IF(ISNA(F195),"",F195))</f>
+        <f t="shared" ref="Q195:Q215" si="33">IF(E195=0,"",IF(ISNA(F195),"",F195))</f>
         <v>2308.6</v>
       </c>
     </row>
@@ -16740,7 +16735,7 @@
         <v>211</v>
       </c>
       <c r="H196">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>80.959999999999994</v>
       </c>
       <c r="I196">
@@ -16748,27 +16743,27 @@
         <v>140850000</v>
       </c>
       <c r="J196">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>11403216000</v>
       </c>
       <c r="K196" s="2">
-        <f>IF(E196=0,0,IF(ISNA(F196),"",F196))</f>
+        <f t="shared" si="27"/>
         <v>3231</v>
       </c>
       <c r="M196">
-        <f>G196</f>
+        <f t="shared" si="30"/>
         <v>211</v>
       </c>
       <c r="N196" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>80.959999999999994</v>
       </c>
       <c r="O196" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>3231</v>
       </c>
       <c r="Q196">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>3231</v>
       </c>
     </row>
@@ -16796,7 +16791,7 @@
         <v>217</v>
       </c>
       <c r="H197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>19.55</v>
       </c>
       <c r="I197">
@@ -16804,27 +16799,27 @@
         <v>5238870000</v>
       </c>
       <c r="J197">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>102419908500</v>
       </c>
       <c r="K197" s="2">
-        <f>IF(E197=0,0,IF(ISNA(F197),"",F197))</f>
+        <f t="shared" si="27"/>
         <v>35337.72</v>
       </c>
       <c r="M197">
-        <f>G197</f>
+        <f t="shared" si="30"/>
         <v>217</v>
       </c>
       <c r="N197" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>19.55</v>
       </c>
       <c r="O197" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>35337.72</v>
       </c>
       <c r="Q197">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>35337.72</v>
       </c>
     </row>
@@ -16852,7 +16847,7 @@
         <v>208</v>
       </c>
       <c r="H198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>83.56</v>
       </c>
       <c r="I198">
@@ -16860,27 +16855,27 @@
         <v>3500330000</v>
       </c>
       <c r="J198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>292487574800</v>
       </c>
       <c r="K198" s="2">
-        <f>IF(E198=0,0,IF(ISNA(F198),"",F198))</f>
+        <f t="shared" si="27"/>
         <v>3112</v>
       </c>
       <c r="M198">
-        <f>G198</f>
+        <f t="shared" si="30"/>
         <v>208</v>
       </c>
       <c r="N198" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>83.56</v>
       </c>
       <c r="O198" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>3112</v>
       </c>
       <c r="Q198">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>3112</v>
       </c>
     </row>
@@ -16908,7 +16903,7 @@
         <v>204</v>
       </c>
       <c r="H199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I199">
@@ -16916,27 +16911,27 @@
         <v>7491.87</v>
       </c>
       <c r="J199">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K199" s="2">
-        <f>IF(E199=0,0,IF(ISNA(F199),"",F199))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M199">
-        <f>G199</f>
+        <f t="shared" si="30"/>
         <v>204</v>
       </c>
       <c r="N199" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O199" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q199" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -16964,7 +16959,7 @@
         <v>193</v>
       </c>
       <c r="H200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I200" t="e">
@@ -16972,27 +16967,27 @@
         <v>#N/A</v>
       </c>
       <c r="J200" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="K200" s="2">
-        <f>IF(E200=0,0,IF(ISNA(F200),"",F200))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M200">
-        <f>G200</f>
+        <f t="shared" si="30"/>
         <v>193</v>
       </c>
       <c r="N200" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O200" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q200" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -17020,7 +17015,7 @@
         <v>222</v>
       </c>
       <c r="H201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I201">
@@ -17028,27 +17023,27 @@
         <v>98694100</v>
       </c>
       <c r="J201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K201" s="2">
-        <f>IF(E201=0,0,IF(ISNA(F201),"",F201))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M201">
-        <f>G201</f>
+        <f t="shared" si="30"/>
         <v>222</v>
       </c>
       <c r="N201" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O201" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q201" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -17076,7 +17071,7 @@
         <v>206</v>
       </c>
       <c r="H202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>94.94</v>
       </c>
       <c r="I202">
@@ -17084,27 +17079,27 @@
         <v>30317200000</v>
       </c>
       <c r="J202">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>2878314968000</v>
       </c>
       <c r="K202" s="2">
-        <f>IF(E202=0,0,IF(ISNA(F202),"",F202))</f>
+        <f t="shared" si="27"/>
         <v>46512.84</v>
       </c>
       <c r="M202">
-        <f>G202</f>
+        <f t="shared" si="30"/>
         <v>206</v>
       </c>
       <c r="N202" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>94.94</v>
       </c>
       <c r="O202" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>46512.84</v>
       </c>
       <c r="Q202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>46512.84</v>
       </c>
     </row>
@@ -17132,7 +17127,7 @@
         <v>3</v>
       </c>
       <c r="H203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.24</v>
       </c>
       <c r="I203">
@@ -17140,27 +17135,27 @@
         <v>63684800</v>
       </c>
       <c r="J203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>15284352</v>
       </c>
       <c r="K203" s="2">
-        <f>IF(E203=0,0,IF(ISNA(F203),"",F203))</f>
+        <f t="shared" si="27"/>
         <v>34049.1</v>
       </c>
       <c r="M203">
-        <f>G203</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="N203" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0.24</v>
       </c>
       <c r="O203" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>34049.1</v>
       </c>
       <c r="Q203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>34049.1</v>
       </c>
     </row>
@@ -17188,7 +17183,7 @@
         <v>223</v>
       </c>
       <c r="H204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>78.95</v>
       </c>
       <c r="I204">
@@ -17196,27 +17191,27 @@
         <v>11268700000</v>
       </c>
       <c r="J204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>889663865000</v>
       </c>
       <c r="K204" s="2">
-        <f>IF(E204=0,0,IF(ISNA(F204),"",F204))</f>
+        <f t="shared" si="27"/>
         <v>69743</v>
       </c>
       <c r="M204">
-        <f>G204</f>
+        <f t="shared" si="30"/>
         <v>223</v>
       </c>
       <c r="N204" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>78.95</v>
       </c>
       <c r="O204" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>69743</v>
       </c>
       <c r="Q204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>69743</v>
       </c>
     </row>
@@ -17244,7 +17239,7 @@
         <v>230</v>
       </c>
       <c r="H205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>71.63</v>
       </c>
       <c r="I205">
@@ -17252,27 +17247,27 @@
         <v>258811000000</v>
       </c>
       <c r="J205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>18538631930000</v>
       </c>
       <c r="K205" s="2">
-        <f>IF(E205=0,0,IF(ISNA(F205),"",F205))</f>
+        <f t="shared" si="27"/>
         <v>933080.5</v>
       </c>
       <c r="M205">
-        <f>G205</f>
+        <f t="shared" si="30"/>
         <v>230</v>
       </c>
       <c r="N205" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>71.63</v>
       </c>
       <c r="O205" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>933080.5</v>
       </c>
       <c r="Q205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>933080.5</v>
       </c>
     </row>
@@ -17300,7 +17295,7 @@
         <v>235</v>
       </c>
       <c r="H206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>96.73</v>
       </c>
       <c r="I206">
@@ -17308,27 +17303,27 @@
         <v>139766000</v>
       </c>
       <c r="J206">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>13519565180</v>
       </c>
       <c r="K206" s="2">
-        <f>IF(E206=0,0,IF(ISNA(F206),"",F206))</f>
+        <f t="shared" si="27"/>
         <v>993</v>
       </c>
       <c r="M206">
-        <f>G206</f>
+        <f t="shared" si="30"/>
         <v>235</v>
       </c>
       <c r="N206" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>96.73</v>
       </c>
       <c r="O206" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>993</v>
       </c>
       <c r="Q206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>993</v>
       </c>
     </row>
@@ -17356,7 +17351,7 @@
         <v>249</v>
       </c>
       <c r="H207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>40.81</v>
       </c>
       <c r="I207">
@@ -17364,27 +17359,27 @@
         <v>13128900000</v>
       </c>
       <c r="J207">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>535790409000</v>
       </c>
       <c r="K207" s="2">
-        <f>IF(E207=0,0,IF(ISNA(F207),"",F207))</f>
+        <f t="shared" si="27"/>
         <v>11256</v>
       </c>
       <c r="M207">
-        <f>G207</f>
+        <f t="shared" si="30"/>
         <v>249</v>
       </c>
       <c r="N207" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>40.81</v>
       </c>
       <c r="O207" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>11256</v>
       </c>
       <c r="Q207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>11256</v>
       </c>
     </row>
@@ -17412,7 +17407,7 @@
         <v>236</v>
       </c>
       <c r="H208">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I208">
@@ -17420,27 +17415,27 @@
         <v>37688.400000000001</v>
       </c>
       <c r="J208">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K208" s="2">
-        <f>IF(E208=0,0,IF(ISNA(F208),"",F208))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M208">
-        <f>G208</f>
+        <f t="shared" si="30"/>
         <v>236</v>
       </c>
       <c r="N208" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O208" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q208" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -17468,7 +17463,7 @@
         <v>257</v>
       </c>
       <c r="H209">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>84.19</v>
       </c>
       <c r="I209">
@@ -17476,27 +17471,27 @@
         <v>1387960000</v>
       </c>
       <c r="J209">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>116852352400</v>
       </c>
       <c r="K209" s="2">
-        <f>IF(E209=0,0,IF(ISNA(F209),"",F209))</f>
+        <f t="shared" si="27"/>
         <v>11993.89</v>
       </c>
       <c r="M209">
-        <f>G209</f>
+        <f t="shared" si="30"/>
         <v>257</v>
       </c>
       <c r="N209" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>84.19</v>
       </c>
       <c r="O209" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>11993.89</v>
       </c>
       <c r="Q209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>11993.89</v>
       </c>
     </row>
@@ -17524,7 +17519,7 @@
         <v>228</v>
       </c>
       <c r="H210">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>71.86</v>
       </c>
       <c r="I210">
@@ -17532,27 +17527,27 @@
         <v>4311820000</v>
       </c>
       <c r="J210">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>309847385200</v>
       </c>
       <c r="K210" s="2">
-        <f>IF(E210=0,0,IF(ISNA(F210),"",F210))</f>
+        <f t="shared" si="27"/>
         <v>15335.26</v>
       </c>
       <c r="M210">
-        <f>G210</f>
+        <f t="shared" si="30"/>
         <v>228</v>
       </c>
       <c r="N210" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>71.86</v>
       </c>
       <c r="O210" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>15335.26</v>
       </c>
       <c r="Q210">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>15335.26</v>
       </c>
     </row>
@@ -17580,7 +17575,7 @@
         <v>225</v>
       </c>
       <c r="H211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>12.25</v>
       </c>
       <c r="I211">
@@ -17588,7 +17583,7 @@
         <v>6477460</v>
       </c>
       <c r="J211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>79348885</v>
       </c>
       <c r="K211" s="5">
@@ -17596,19 +17591,19 @@
         <v>598.9088532439788</v>
       </c>
       <c r="M211">
-        <f>G211</f>
+        <f t="shared" si="30"/>
         <v>225</v>
       </c>
       <c r="N211" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>12.25</v>
       </c>
       <c r="O211" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>598.9088532439788</v>
       </c>
       <c r="Q211" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -17636,7 +17631,7 @@
         <v>179</v>
       </c>
       <c r="H212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I212">
@@ -17644,7 +17639,7 @@
         <v>34405200</v>
       </c>
       <c r="J212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K212" s="2">
@@ -17652,19 +17647,19 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <f>G212</f>
+        <f t="shared" si="30"/>
         <v>179</v>
       </c>
       <c r="N212" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O212" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q212" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -17692,7 +17687,7 @@
         <v>226</v>
       </c>
       <c r="H213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I213">
@@ -17700,7 +17695,7 @@
         <v>48451700</v>
       </c>
       <c r="J213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K213" s="2">
@@ -17708,19 +17703,19 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <f>G213</f>
+        <f t="shared" si="30"/>
         <v>226</v>
       </c>
       <c r="N213" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O213" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q213" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -17748,7 +17743,7 @@
         <v>229</v>
       </c>
       <c r="H214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I214">
@@ -17756,7 +17751,7 @@
         <v>195783000</v>
       </c>
       <c r="J214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K214" s="2">
@@ -17764,19 +17759,19 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <f>G214</f>
+        <f t="shared" si="30"/>
         <v>229</v>
       </c>
       <c r="N214" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O214" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q214" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -17804,7 +17799,7 @@
         <v>231</v>
       </c>
       <c r="H215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>3.78</v>
       </c>
       <c r="I215">
@@ -17812,7 +17807,7 @@
         <v>118844000</v>
       </c>
       <c r="J215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>449230320</v>
       </c>
       <c r="K215" s="2">
@@ -17820,19 +17815,19 @@
         <v>1130</v>
       </c>
       <c r="M215">
-        <f>G215</f>
+        <f t="shared" si="30"/>
         <v>231</v>
       </c>
       <c r="N215" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>3.78</v>
       </c>
       <c r="O215" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>1130</v>
       </c>
       <c r="Q215">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>1130</v>
       </c>
     </row>
@@ -17844,10 +17839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B44A22E-B40D-45CE-813F-618D6FF3A2FC}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20337,11 +20332,11 @@
         <v>97.04</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">H67*G67</f>
+        <f t="shared" ref="I67:I128" si="3">H67*G67</f>
         <v>2730928792000</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" ref="J67:J130" si="4">D67</f>
+        <f t="shared" ref="J67:J128" si="4">D67</f>
         <v>220250.4</v>
       </c>
       <c r="K67" s="2">
@@ -21419,7 +21414,7 @@
         <v>2009.8103050215293</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -21457,7 +21452,7 @@
         <v>621.12046028222278</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>291</v>
       </c>
@@ -21495,7 +21490,7 @@
         <v>8898.5728168493697</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -21533,7 +21528,7 @@
         <v>8877.3744293544296</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>297</v>
       </c>
@@ -21571,7 +21566,7 @@
         <v>503.54522795171545</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -21609,7 +21604,7 @@
         <v>3606.0761652982401</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>303</v>
       </c>
@@ -21647,7 +21642,7 @@
         <v>5120.6554914989765</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>309</v>
       </c>
@@ -21685,7 +21680,7 @@
         <v>3903.7820851897222</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -21723,7 +21718,7 @@
         <v>19435.798338282071</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>313</v>
       </c>
@@ -21761,7 +21756,7 @@
         <v>21783.991985279266</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>315</v>
       </c>
@@ -21799,7 +21794,7 @@
         <v>3021.8606230841033</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -21837,7 +21832,7 @@
         <v>4040.9050043762882</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>319</v>
       </c>
@@ -21875,7 +21870,7 @@
         <v>1750.0520921622137</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>321</v>
       </c>
@@ -21913,7 +21908,7 @@
         <v>21543.511081469871</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>323</v>
       </c>
@@ -21950,8 +21945,9 @@
         <f t="shared" si="5"/>
         <v>55547.192293871616</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>333</v>
       </c>
@@ -21989,7 +21985,7 @@
         <v>5304.2606778379013</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>335</v>
       </c>
@@ -26673,7 +26669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F62B9D5-ED96-466D-A165-085C55F17493}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
+++ b/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edwin\github\edwinkost\pgb_data_for_prometheus_primes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF3DA05-3850-453B-BE4C-85F698F16C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106AE38F-4715-4938-AD6B-331F3A375ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="734" activeTab="1" xr2:uid="{8DD76264-C2FB-48A2-8B6A-B0A9CA53C1E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="734" activeTab="3" xr2:uid="{8DD76264-C2FB-48A2-8B6A-B0A9CA53C1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="pgb_industrial_split_pow_ic" sheetId="1" r:id="rId1"/>
@@ -1930,7 +1930,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1942,6 +1942,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2046,7 +2050,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13374674067380921"/>
+          <c:y val="0.14866223098333337"/>
+          <c:w val="0.82382152230971128"/>
+          <c:h val="0.78734389635585733"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2091,8 +2105,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9934383202099736E-2"/>
-                  <c:y val="-0.22408829104695246"/>
+                  <c:x val="-8.7200378641194523E-2"/>
+                  <c:y val="-0.21076467146204009"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2129,391 +2143,391 @@
             <c:numRef>
               <c:f>lohrmann_abstm3py_capacmw_2015!$I$2:$I$146</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="145"/>
                 <c:pt idx="1">
-                  <c:v>1502004900</c:v>
+                  <c:v>15020049.000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>438948000</c:v>
+                  <c:v>4389480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3107491992</c:v>
+                  <c:v>31074919.919999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>638028892000</c:v>
+                  <c:v>6380288920</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12054719660</c:v>
+                  <c:v>120547196.59999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34124149010</c:v>
+                  <c:v>341241490.10000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96541085500</c:v>
+                  <c:v>965410855.00000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>434504308200</c:v>
+                  <c:v>4345043082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1935193656</c:v>
+                  <c:v>19351936.560000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>316894668.30000001</c:v>
+                  <c:v>3168946.6830000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46853363120</c:v>
+                  <c:v>468533631.19999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25548354</c:v>
+                  <c:v>255483.53999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>204834972000</c:v>
+                  <c:v>2048349719.9999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>158538310000</c:v>
+                  <c:v>1585383100.0000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89970750</c:v>
+                  <c:v>899707.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10449949000</c:v>
+                  <c:v>104499490</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>220141540</c:v>
+                  <c:v>2201415.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>467418749999.99994</c:v>
+                  <c:v>4674187499.999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2281301400</c:v>
+                  <c:v>22813014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1581795720000</c:v>
+                  <c:v>15817957200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1140810590</c:v>
+                  <c:v>11408105.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3911953444000</c:v>
+                  <c:v>39119534440</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>132431360000</c:v>
+                  <c:v>1324313600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4643853104000</c:v>
+                  <c:v>46438531040</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>114756118000.00002</c:v>
+                  <c:v>1147561180</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10164696960</c:v>
+                  <c:v>101646969.59999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67213920</c:v>
+                  <c:v>672139.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>124152521600</c:v>
+                  <c:v>1241525216</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17015325040</c:v>
+                  <c:v>170153250.40000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2903025567</c:v>
+                  <c:v>29030255.670000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38182386900</c:v>
+                  <c:v>381823869.00000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70453314490</c:v>
+                  <c:v>704533144.89999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61912861.300000004</c:v>
+                  <c:v>619128.61300000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18725041400</c:v>
+                  <c:v>187250414.00000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23816131680</c:v>
+                  <c:v>238161316.80000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>402056231700</c:v>
+                  <c:v>4020562317</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>359418739.60000002</c:v>
+                  <c:v>3594187.3960000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>350092393200</c:v>
+                  <c:v>3500923932</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>299917548900</c:v>
+                  <c:v>2999175489.0000005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2922415650000</c:v>
+                  <c:v>29224156500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1024602480</c:v>
+                  <c:v>10246024.800000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6559278000</c:v>
+                  <c:v>65592779.999999993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1149887178000</c:v>
+                  <c:v>11498871780</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4313901970</c:v>
+                  <c:v>43139019.699999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>76237989600</c:v>
+                  <c:v>762379896.00000012</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>73755500</c:v>
+                  <c:v>737555</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>151043640</c:v>
+                  <c:v>1510436.4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34309406460</c:v>
+                  <c:v>343094064.59999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>321459586200</c:v>
+                  <c:v>3214595862.0000005</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1285437164000</c:v>
+                  <c:v>12854371640</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>314158781300</c:v>
+                  <c:v>3141587813</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>182354994799.99997</c:v>
+                  <c:v>1823549948</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>346271621300</c:v>
+                  <c:v>3462716213</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>41602378800</c:v>
+                  <c:v>416023788</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7552398</c:v>
+                  <c:v>75523.98</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12897608930</c:v>
+                  <c:v>128976089.30000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>987889524000</c:v>
+                  <c:v>9878895240</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1533506775</c:v>
+                  <c:v>15335067.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2730928792000</c:v>
+                  <c:v>27309287920</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>28787280</c:v>
+                  <c:v>287872.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>700164598000</c:v>
+                  <c:v>7001645980</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4340010</c:v>
+                  <c:v>43400.1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>127830733800</c:v>
+                  <c:v>1278307338</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1413696018000</c:v>
+                  <c:v>14136960180</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4629654018</c:v>
+                  <c:v>46296540.18</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>69715560360</c:v>
+                  <c:v>697155603.60000014</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>709486620</c:v>
+                  <c:v>7094866.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>629299934</c:v>
+                  <c:v>6292999.3399999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>17536.2225</c:v>
+                  <c:v>175.362225</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>211685400</c:v>
+                  <c:v>2116854.0000000005</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>517764224100</c:v>
+                  <c:v>5177642241</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12414841880</c:v>
+                  <c:v>124148418.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>321072879600</c:v>
+                  <c:v>3210728796</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4640856688</c:v>
+                  <c:v>46408566.879999995</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3210529151.9999995</c:v>
+                  <c:v>32105291.52</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>171880.21639999998</c:v>
+                  <c:v>1718.8021639999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>579932871900</c:v>
+                  <c:v>5799328719</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>206334384000</c:v>
+                  <c:v>2063343840</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>234038339.99999997</c:v>
+                  <c:v>2340383.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>820646680</c:v>
+                  <c:v>8206466.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24430511450</c:v>
+                  <c:v>244305114.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18249390</c:v>
+                  <c:v>182493.9</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>595385094000</c:v>
+                  <c:v>5953850940.000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1924435530</c:v>
+                  <c:v>19244355.300000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>87335820</c:v>
+                  <c:v>873358.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96846036000</c:v>
+                  <c:v>968460360.00000012</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>96239609400</c:v>
+                  <c:v>962396094</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>50253669</c:v>
+                  <c:v>502536.69</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8972966400</c:v>
+                  <c:v>89729663.999999985</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>22595272700</c:v>
+                  <c:v>225952727</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11057764410</c:v>
+                  <c:v>110577644.09999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>757939815600</c:v>
+                  <c:v>7579398156</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1023512616000</c:v>
+                  <c:v>10235126160</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5633460000</c:v>
+                  <c:v>56334600.000000007</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12110273880</c:v>
+                  <c:v>121102738.8</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1336625472</c:v>
+                  <c:v>13366254.720000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>994022869000</c:v>
+                  <c:v>9940228689.9999981</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>12043151250000</c:v>
+                  <c:v>120431512500</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>24791951640</c:v>
+                  <c:v>247919516.39999998</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>558451250</c:v>
+                  <c:v>5584512.5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>729485928600</c:v>
+                  <c:v>7294859286</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5063740656</c:v>
+                  <c:v>50637406.559999995</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19951210.490000002</c:v>
+                  <c:v>199512.10490000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>23009168500</c:v>
+                  <c:v>230091684.99999997</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>32522782290.000004</c:v>
+                  <c:v>325227822.89999998</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>144668430500</c:v>
+                  <c:v>1446684304.9999998</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>685558494000</c:v>
+                  <c:v>6855584940</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>20174370000</c:v>
+                  <c:v>201743700</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>10899597.709999999</c:v>
+                  <c:v>108995.97709999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>785270200.00000012</c:v>
+                  <c:v>7852702.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>203337530400</c:v>
+                  <c:v>2033375304</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>124801142400</c:v>
+                  <c:v>1248011424</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5328697430</c:v>
+                  <c:v>53286974.300000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>35141121</c:v>
+                  <c:v>351411.21000000008</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4724363200</c:v>
+                  <c:v>47243632</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>11694196400</c:v>
+                  <c:v>116941964</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>11403216000</c:v>
+                  <c:v>114032160</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>102419908500</c:v>
+                  <c:v>1024199085</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>292487574800</c:v>
+                  <c:v>2924875748</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2878314968000</c:v>
+                  <c:v>28783149680</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>15284352</c:v>
+                  <c:v>152843.51999999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>889663865000</c:v>
+                  <c:v>8896638650</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>18538631930000</c:v>
+                  <c:v>185386319299.99997</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>13519565180</c:v>
+                  <c:v>135195651.80000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>535790409000</c:v>
+                  <c:v>5357904090</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>116852352400</c:v>
+                  <c:v>1168523524</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>309847385200</c:v>
+                  <c:v>3098473852</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>449230320</c:v>
+                  <c:v>4492303.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,7 +2965,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3236,391 +3250,391 @@
             <c:numRef>
               <c:f>lohrmann_abstm3py_capacmw_2015!$I$2:$I$146</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="145"/>
                 <c:pt idx="1">
-                  <c:v>1502004900</c:v>
+                  <c:v>15020049.000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>438948000</c:v>
+                  <c:v>4389480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3107491992</c:v>
+                  <c:v>31074919.919999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>638028892000</c:v>
+                  <c:v>6380288920</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12054719660</c:v>
+                  <c:v>120547196.59999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34124149010</c:v>
+                  <c:v>341241490.10000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96541085500</c:v>
+                  <c:v>965410855.00000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>434504308200</c:v>
+                  <c:v>4345043082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1935193656</c:v>
+                  <c:v>19351936.560000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>316894668.30000001</c:v>
+                  <c:v>3168946.6830000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46853363120</c:v>
+                  <c:v>468533631.19999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25548354</c:v>
+                  <c:v>255483.53999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>204834972000</c:v>
+                  <c:v>2048349719.9999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>158538310000</c:v>
+                  <c:v>1585383100.0000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89970750</c:v>
+                  <c:v>899707.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10449949000</c:v>
+                  <c:v>104499490</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>220141540</c:v>
+                  <c:v>2201415.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>467418749999.99994</c:v>
+                  <c:v>4674187499.999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2281301400</c:v>
+                  <c:v>22813014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1581795720000</c:v>
+                  <c:v>15817957200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1140810590</c:v>
+                  <c:v>11408105.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3911953444000</c:v>
+                  <c:v>39119534440</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>132431360000</c:v>
+                  <c:v>1324313600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4643853104000</c:v>
+                  <c:v>46438531040</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>114756118000.00002</c:v>
+                  <c:v>1147561180</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10164696960</c:v>
+                  <c:v>101646969.59999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67213920</c:v>
+                  <c:v>672139.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>124152521600</c:v>
+                  <c:v>1241525216</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17015325040</c:v>
+                  <c:v>170153250.40000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2903025567</c:v>
+                  <c:v>29030255.670000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38182386900</c:v>
+                  <c:v>381823869.00000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70453314490</c:v>
+                  <c:v>704533144.89999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61912861.300000004</c:v>
+                  <c:v>619128.61300000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18725041400</c:v>
+                  <c:v>187250414.00000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23816131680</c:v>
+                  <c:v>238161316.80000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>402056231700</c:v>
+                  <c:v>4020562317</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>359418739.60000002</c:v>
+                  <c:v>3594187.3960000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>350092393200</c:v>
+                  <c:v>3500923932</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>299917548900</c:v>
+                  <c:v>2999175489.0000005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2922415650000</c:v>
+                  <c:v>29224156500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1024602480</c:v>
+                  <c:v>10246024.800000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6559278000</c:v>
+                  <c:v>65592779.999999993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1149887178000</c:v>
+                  <c:v>11498871780</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4313901970</c:v>
+                  <c:v>43139019.699999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>76237989600</c:v>
+                  <c:v>762379896.00000012</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>73755500</c:v>
+                  <c:v>737555</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>151043640</c:v>
+                  <c:v>1510436.4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34309406460</c:v>
+                  <c:v>343094064.59999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>321459586200</c:v>
+                  <c:v>3214595862.0000005</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1285437164000</c:v>
+                  <c:v>12854371640</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>314158781300</c:v>
+                  <c:v>3141587813</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>182354994799.99997</c:v>
+                  <c:v>1823549948</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>346271621300</c:v>
+                  <c:v>3462716213</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>41602378800</c:v>
+                  <c:v>416023788</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7552398</c:v>
+                  <c:v>75523.98</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12897608930</c:v>
+                  <c:v>128976089.30000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>987889524000</c:v>
+                  <c:v>9878895240</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1533506775</c:v>
+                  <c:v>15335067.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2730928792000</c:v>
+                  <c:v>27309287920</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>28787280</c:v>
+                  <c:v>287872.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>700164598000</c:v>
+                  <c:v>7001645980</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4340010</c:v>
+                  <c:v>43400.1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>127830733800</c:v>
+                  <c:v>1278307338</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1413696018000</c:v>
+                  <c:v>14136960180</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4629654018</c:v>
+                  <c:v>46296540.18</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>69715560360</c:v>
+                  <c:v>697155603.60000014</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>709486620</c:v>
+                  <c:v>7094866.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>629299934</c:v>
+                  <c:v>6292999.3399999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>17536.2225</c:v>
+                  <c:v>175.362225</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>211685400</c:v>
+                  <c:v>2116854.0000000005</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>517764224100</c:v>
+                  <c:v>5177642241</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12414841880</c:v>
+                  <c:v>124148418.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>321072879600</c:v>
+                  <c:v>3210728796</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4640856688</c:v>
+                  <c:v>46408566.879999995</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3210529151.9999995</c:v>
+                  <c:v>32105291.52</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>171880.21639999998</c:v>
+                  <c:v>1718.8021639999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>579932871900</c:v>
+                  <c:v>5799328719</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>206334384000</c:v>
+                  <c:v>2063343840</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>234038339.99999997</c:v>
+                  <c:v>2340383.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>820646680</c:v>
+                  <c:v>8206466.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24430511450</c:v>
+                  <c:v>244305114.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18249390</c:v>
+                  <c:v>182493.9</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>595385094000</c:v>
+                  <c:v>5953850940.000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1924435530</c:v>
+                  <c:v>19244355.300000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>87335820</c:v>
+                  <c:v>873358.20000000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96846036000</c:v>
+                  <c:v>968460360.00000012</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>96239609400</c:v>
+                  <c:v>962396094</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>50253669</c:v>
+                  <c:v>502536.69</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8972966400</c:v>
+                  <c:v>89729663.999999985</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>22595272700</c:v>
+                  <c:v>225952727</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11057764410</c:v>
+                  <c:v>110577644.09999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>757939815600</c:v>
+                  <c:v>7579398156</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1023512616000</c:v>
+                  <c:v>10235126160</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5633460000</c:v>
+                  <c:v>56334600.000000007</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12110273880</c:v>
+                  <c:v>121102738.8</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1336625472</c:v>
+                  <c:v>13366254.720000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>994022869000</c:v>
+                  <c:v>9940228689.9999981</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>12043151250000</c:v>
+                  <c:v>120431512500</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>24791951640</c:v>
+                  <c:v>247919516.39999998</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>558451250</c:v>
+                  <c:v>5584512.5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>729485928600</c:v>
+                  <c:v>7294859286</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5063740656</c:v>
+                  <c:v>50637406.559999995</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19951210.490000002</c:v>
+                  <c:v>199512.10490000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>23009168500</c:v>
+                  <c:v>230091684.99999997</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>32522782290.000004</c:v>
+                  <c:v>325227822.89999998</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>144668430500</c:v>
+                  <c:v>1446684304.9999998</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>685558494000</c:v>
+                  <c:v>6855584940</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>20174370000</c:v>
+                  <c:v>201743700</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>10899597.709999999</c:v>
+                  <c:v>108995.97709999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>785270200.00000012</c:v>
+                  <c:v>7852702.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>203337530400</c:v>
+                  <c:v>2033375304</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>124801142400</c:v>
+                  <c:v>1248011424</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5328697430</c:v>
+                  <c:v>53286974.300000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>35141121</c:v>
+                  <c:v>351411.21000000008</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4724363200</c:v>
+                  <c:v>47243632</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>11694196400</c:v>
+                  <c:v>116941964</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>11403216000</c:v>
+                  <c:v>114032160</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>102419908500</c:v>
+                  <c:v>1024199085</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>292487574800</c:v>
+                  <c:v>2924875748</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2878314968000</c:v>
+                  <c:v>28783149680</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>15284352</c:v>
+                  <c:v>152843.51999999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>889663865000</c:v>
+                  <c:v>8896638650</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>18538631930000</c:v>
+                  <c:v>185386319299.99997</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>13519565180</c:v>
+                  <c:v>135195651.80000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>535790409000</c:v>
+                  <c:v>5357904090</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>116852352400</c:v>
+                  <c:v>1168523524</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>309847385200</c:v>
+                  <c:v>3098473852</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>449230320</c:v>
+                  <c:v>4492303.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,7 +4071,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4212,6 +4226,1157 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lohrmann_abstm3py_capacmw_2015!$C$2:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="0">
+                  <c:v>96894.079859999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>387720933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3023967416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25745566129</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1046790000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7327328751</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>904771000000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>336664000000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>228264000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35534718380</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>201849000000</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>554308000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1509501251</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>622257000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87374251820</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1190171710</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8644590489</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3547259571</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>1354570000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5071004490</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>1035090000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31167918671</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6285988.4409999996</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>8318970000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8117165290</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>1022730000000</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>19818300000000</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>344192000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1154993837</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21698826037</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>739441647.60000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91613876332</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>649741000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45964512274</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86332174349</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>390112000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>942678796.70000005</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>190713000000</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>155989000000</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>4142310000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6455042.426</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6379024949</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>486096000000</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>2312130000000</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00E+00">
+                  <c:v>4334600000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10199314741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3724206122</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>1110270000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7876947957</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>211861000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96011738141</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3881037359</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>439656.88770000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3888525999</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00E+00">
+                  <c:v>1651580000000</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>107274000000</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00E+00">
+                  <c:v>3030700000000</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00E+00">
+                  <c:v>4746700000000</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>472833000000</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>925635000000</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>169997000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79362065.230000004</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>1144190000000</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>1285830000000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50636346284</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>11741900000000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>555545690.79999995</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>439770000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>54082837.329999998</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>590092000000</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>10463700000000</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>1907370000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55479969726</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2125112876</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7828417902</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>203980119.09999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>106584239.09999999</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>291621000000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3540348.1839999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6589539612</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>911806598.79999995</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00E+00">
+                  <c:v>1964680000000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18134058906</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14273103530</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2592576288</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00E+00">
+                  <c:v>1319810000000</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00E+00">
+                  <c:v>174227000000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4308501889</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1070166018</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00E+00">
+                  <c:v>108327000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6838382.8899999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>538649128.70000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2761481.2760000001</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00E+00">
+                  <c:v>2224800000000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10638694981</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>985354180.60000002</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00E+00">
+                  <c:v>482753000000</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0.00E+00">
+                  <c:v>215712000000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1386022513</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99150234049</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>81698697129</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25476883260</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="0.00E+00">
+                  <c:v>1976880000000</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="0.00E+00">
+                  <c:v>1294910000000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14105404332</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>22820136497</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="0.00E+00">
+                  <c:v>392163000000</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="0.00E+00">
+                  <c:v>741641000000</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="0.00E+00">
+                  <c:v>14186100000000</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="0.00E+00">
+                  <c:v>131394000000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4444434029</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="0.00E+00">
+                  <c:v>924623000000</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="0.00E+00">
+                  <c:v>858458000000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9232794642</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45685399275</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>52365377741</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="0.00E+00">
+                  <c:v>788496000000</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="0.00E+00">
+                  <c:v>1475960000000</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="0.00E+00">
+                  <c:v>127895000000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>408316386.19999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4901376829</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="0.00E+00">
+                  <c:v>4130420000000</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="0.00E+00">
+                  <c:v>604916000000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>28167351644</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="0.00E+00">
+                  <c:v>4120850000000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1572717174</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="0.00E+00">
+                  <c:v>107817000000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3925469.8569999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1707947.128</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="0.00E+00">
+                  <c:v>518205000000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>45743280823</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="0.00E+00">
+                  <c:v>262310000000</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="0.00E+00">
+                  <c:v>306218000000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1051785.237</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="0.00E+00">
+                  <c:v>3481990000000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>524566107</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="0.00E+00">
+                  <c:v>4037530000000</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="0.00E+00">
+                  <c:v>37995100000000</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="0.00E+00">
+                  <c:v>176705000000</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="0.00E+00">
+                  <c:v>842246000000</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="0.00E+00">
+                  <c:v>632420000000</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="0.00E+00">
+                  <c:v>953012000000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>10030935.390000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2991604.716</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7632158938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lohrmann_abstm3py_capacmw_2015!$I$2:$I$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="145"/>
+                <c:pt idx="1">
+                  <c:v>15020049.000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4389480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31074919.919999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6380288920</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120547196.59999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341241490.10000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>965410855.00000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4345043082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19351936.560000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3168946.6830000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>468533631.19999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255483.53999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2048349719.9999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1585383100.0000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>899707.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104499490</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2201415.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4674187499.999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22813014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15817957200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11408105.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39119534440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1324313600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46438531040</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1147561180</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>101646969.59999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>672139.20000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1241525216</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170153250.40000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29030255.670000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>381823869.00000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>704533144.89999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>619128.61300000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187250414.00000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>238161316.80000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4020562317</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3594187.3960000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3500923932</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2999175489.0000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29224156500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10246024.800000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>65592779.999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11498871780</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43139019.699999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>762379896.00000012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>737555</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1510436.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>343094064.59999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3214595862.0000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12854371640</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3141587813</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1823549948</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3462716213</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>416023788</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>75523.98</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>128976089.30000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9878895240</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15335067.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27309287920</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>287872.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7001645980</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43400.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1278307338</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14136960180</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46296540.18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>697155603.60000014</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7094866.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6292999.3399999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>175.362225</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2116854.0000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5177642241</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>124148418.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3210728796</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>46408566.879999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32105291.52</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1718.8021639999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5799328719</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2063343840</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2340383.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8206466.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>244305114.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>182493.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5953850940.000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19244355.300000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>873358.20000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>968460360.00000012</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>962396094</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>502536.69</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>89729663.999999985</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>225952727</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>110577644.09999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7579398156</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10235126160</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>56334600.000000007</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>121102738.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>13366254.720000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9940228689.9999981</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>120431512500</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>247919516.39999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5584512.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7294859286</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>50637406.559999995</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>199512.10490000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>230091684.99999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>325227822.89999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1446684304.9999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6855584940</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>201743700</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>108995.97709999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7852702.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2033375304</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1248011424</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>53286974.300000004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>351411.21000000008</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>47243632</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>116941964</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>114032160</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1024199085</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2924875748</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>28783149680</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>152843.51999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8896638650</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>185386319299.99997</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>135195651.80000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5357904090</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1168523524</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3098473852</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4492303.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6997-405B-9D5C-1B2131A144D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="636166591"/>
+        <c:axId val="636167071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="636166591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636167071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="636167071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636166591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4253,6 +5418,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5324,20 +6529,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>979343</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5365,15 +7086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1116157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>735157</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5395,6 +7116,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>77932</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12123</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29273656-6D60-C265-849F-74BCECFAFDD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5778,8 +7535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1C3275-AD4E-4E48-923E-AC570E341997}">
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView topLeftCell="A185" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K189" sqref="K189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5875,7 +7632,7 @@
         <v>84181300</v>
       </c>
       <c r="J2">
-        <f>I2*H2</f>
+        <f>I2*H2/100</f>
         <v>0</v>
       </c>
       <c r="K2" s="2">
@@ -5935,8 +7692,8 @@
         <v>262130000</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="3">I3*H3</f>
-        <v>1502004900</v>
+        <f t="shared" ref="J3:J66" si="3">I3*H3/100</f>
+        <v>15020049</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
@@ -5992,7 +7749,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>438948000</v>
+        <v>4389480</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="1"/>
@@ -6160,7 +7917,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>3107491992</v>
+        <v>31074919.920000002</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
@@ -6272,7 +8029,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>638028892000</v>
+        <v>6380288920</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
@@ -6328,7 +8085,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>12054719660</v>
+        <v>120547196.59999999</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
@@ -6440,7 +8197,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>34124149010</v>
+        <v>341241490.10000002</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
@@ -6496,7 +8253,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>96541085500</v>
+        <v>965410855</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
@@ -6552,7 +8309,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>434504308200</v>
+        <v>4345043082</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
@@ -6608,7 +8365,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>1935193656</v>
+        <v>19351936.559999999</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
@@ -6664,7 +8421,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>316894668.30000001</v>
+        <v>3168946.6830000002</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
@@ -6720,7 +8477,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>46853363120</v>
+        <v>468533631.19999999</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
@@ -6776,7 +8533,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>25548354</v>
+        <v>255483.54</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
@@ -6832,7 +8589,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>204834972000</v>
+        <v>2048349720</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
@@ -6888,7 +8645,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>158538310000</v>
+        <v>1585383100</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
@@ -7168,7 +8925,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>89970750</v>
+        <v>899707.5</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
@@ -7224,7 +8981,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>10449949000</v>
+        <v>104499490</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
@@ -7280,7 +9037,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>220141540</v>
+        <v>2201415.4</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
@@ -7336,7 +9093,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>467418749999.99994</v>
+        <v>4674187499.999999</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
@@ -7448,7 +9205,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>2281301400</v>
+        <v>22813014</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
@@ -7504,7 +9261,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>1581795720000</v>
+        <v>15817957200</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
@@ -7728,7 +9485,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>1140810590</v>
+        <v>11408105.9</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
@@ -7840,7 +9597,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>3911953444000</v>
+        <v>39119534440</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
@@ -7952,7 +9709,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>797574059.39999998</v>
+        <v>7975740.5939999996</v>
       </c>
       <c r="K39" s="5">
         <f>9+10+10+2+25+15</f>
@@ -8064,11 +9821,11 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>39466224</v>
+        <v>394662.24</v>
       </c>
       <c r="K41" s="5">
-        <f>0.59966*(J41)^0.3797</f>
-        <v>459.4009953559123</v>
+        <f>3.4287*(J41)^0.3797</f>
+        <v>457.10538630475844</v>
       </c>
       <c r="M41">
         <f t="shared" si="4"/>
@@ -8080,7 +9837,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="6"/>
-        <v>459.4009953559123</v>
+        <v>457.10538630475844</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="7"/>
@@ -8120,7 +9877,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>132431360000</v>
+        <v>1324313600</v>
       </c>
       <c r="K42" s="2">
         <f>IF(E42=0,0,IF(ISNA(F42),"",F42))</f>
@@ -8176,7 +9933,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>4643853104000</v>
+        <v>46438531040</v>
       </c>
       <c r="K43" s="2">
         <f>IF(E43=0,0,IF(ISNA(F43),"",F43))</f>
@@ -8232,7 +9989,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>114756118000.00002</v>
+        <v>1147561180.0000002</v>
       </c>
       <c r="K44" s="2">
         <f>IF(E44=0,0,IF(ISNA(F44),"",F44))</f>
@@ -8400,11 +10157,11 @@
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>52173936</v>
+        <v>521739.36</v>
       </c>
       <c r="K47" s="5">
-        <f>0.59966*(J47)^0.3797</f>
-        <v>510.76627374319855</v>
+        <f>3.4287*(J47)^0.3797</f>
+        <v>508.21399437749795</v>
       </c>
       <c r="M47">
         <f t="shared" si="4"/>
@@ -8416,7 +10173,7 @@
       </c>
       <c r="O47" s="2">
         <f t="shared" si="6"/>
-        <v>510.76627374319855</v>
+        <v>508.21399437749795</v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="7"/>
@@ -8456,7 +10213,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>10164696960</v>
+        <v>101646969.59999999</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" ref="K48:K79" si="8">IF(E48=0,0,IF(ISNA(F48),"",F48))</f>
@@ -8512,7 +10269,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>67213920</v>
+        <v>672139.2</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="8"/>
@@ -8568,7 +10325,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
-        <v>124152521600</v>
+        <v>1241525216</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="8"/>
@@ -8624,7 +10381,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>17015325040</v>
+        <v>170153250.40000001</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="8"/>
@@ -8736,7 +10493,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>2903025567</v>
+        <v>29030255.670000002</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="8"/>
@@ -8792,7 +10549,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>38182386900</v>
+        <v>381823869</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="8"/>
@@ -8848,7 +10605,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>70453314490</v>
+        <v>704533144.89999998</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="8"/>
@@ -8904,7 +10661,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>61912861.300000004</v>
+        <v>619128.61300000001</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="8"/>
@@ -9016,7 +10773,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>18725041400</v>
+        <v>187250414</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="8"/>
@@ -9072,7 +10829,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>23816131680</v>
+        <v>238161316.80000001</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="8"/>
@@ -9128,7 +10885,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>402056231700</v>
+        <v>4020562317</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="8"/>
@@ -9296,7 +11053,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
-        <v>359418739.60000002</v>
+        <v>3594187.3960000002</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="8"/>
@@ -9352,7 +11109,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
-        <v>350092393200</v>
+        <v>3500923932</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="8"/>
@@ -9519,7 +11276,7 @@
         <v>7040100</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="11">I67*H67</f>
+        <f t="shared" ref="J67:J130" si="11">I67*H67/100</f>
         <v>0</v>
       </c>
       <c r="K67" s="2">
@@ -9576,7 +11333,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="11"/>
-        <v>299917548900</v>
+        <v>2999175489</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="8"/>
@@ -9632,7 +11389,7 @@
       </c>
       <c r="J69">
         <f t="shared" si="11"/>
-        <v>2922415650000</v>
+        <v>29224156500</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" si="8"/>
@@ -9744,7 +11501,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="11"/>
-        <v>1024602480</v>
+        <v>10246024.800000001</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="8"/>
@@ -9856,7 +11613,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="11"/>
-        <v>6559278000</v>
+        <v>65592780</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="8"/>
@@ -9912,7 +11669,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="11"/>
-        <v>1149887178000</v>
+        <v>11498871780</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="8"/>
@@ -9968,7 +11725,7 @@
       </c>
       <c r="J75">
         <f t="shared" si="11"/>
-        <v>4313901970</v>
+        <v>43139019.700000003</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="8"/>
@@ -10080,7 +11837,7 @@
       </c>
       <c r="J77">
         <f t="shared" si="11"/>
-        <v>76237989600</v>
+        <v>762379896</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="8"/>
@@ -10248,7 +12005,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="11"/>
-        <v>73755500</v>
+        <v>737555</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" ref="K80:K111" si="15">IF(E80=0,0,IF(ISNA(F80),"",F80))</f>
@@ -10528,7 +12285,7 @@
       </c>
       <c r="J85">
         <f t="shared" si="11"/>
-        <v>151043640</v>
+        <v>1510436.4</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="15"/>
@@ -10584,7 +12341,7 @@
       </c>
       <c r="J86">
         <f t="shared" si="11"/>
-        <v>34309406460</v>
+        <v>343094064.60000002</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="15"/>
@@ -10640,7 +12397,7 @@
       </c>
       <c r="J87">
         <f t="shared" si="11"/>
-        <v>321459586200</v>
+        <v>3214595862</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="15"/>
@@ -10752,7 +12509,7 @@
       </c>
       <c r="J89">
         <f t="shared" si="11"/>
-        <v>1285437164000</v>
+        <v>12854371640</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="15"/>
@@ -10808,7 +12565,7 @@
       </c>
       <c r="J90">
         <f t="shared" si="11"/>
-        <v>314158781300</v>
+        <v>3141587813</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="15"/>
@@ -10864,7 +12621,7 @@
       </c>
       <c r="J91">
         <f t="shared" si="11"/>
-        <v>182354994799.99997</v>
+        <v>1823549947.9999998</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="15"/>
@@ -10920,7 +12677,7 @@
       </c>
       <c r="J92">
         <f t="shared" si="11"/>
-        <v>346271621300</v>
+        <v>3462716213</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="15"/>
@@ -10976,7 +12733,7 @@
       </c>
       <c r="J93">
         <f t="shared" si="11"/>
-        <v>41602378800</v>
+        <v>416023788</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="15"/>
@@ -11032,7 +12789,7 @@
       </c>
       <c r="J94">
         <f t="shared" si="11"/>
-        <v>7552398</v>
+        <v>75523.98</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="15"/>
@@ -11088,7 +12845,7 @@
       </c>
       <c r="J95">
         <f t="shared" si="11"/>
-        <v>12897608930</v>
+        <v>128976089.3</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="15"/>
@@ -11144,7 +12901,7 @@
       </c>
       <c r="J96">
         <f t="shared" si="11"/>
-        <v>987889524000</v>
+        <v>9878895240</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="15"/>
@@ -11200,7 +12957,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="11"/>
-        <v>1533506775</v>
+        <v>15335067.75</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="15"/>
@@ -11256,7 +13013,7 @@
       </c>
       <c r="J98">
         <f t="shared" si="11"/>
-        <v>2730928792000</v>
+        <v>27309287920</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="15"/>
@@ -11312,7 +13069,7 @@
       </c>
       <c r="J99">
         <f t="shared" si="11"/>
-        <v>28787280</v>
+        <v>287872.8</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="15"/>
@@ -11368,7 +13125,7 @@
       </c>
       <c r="J100">
         <f t="shared" si="11"/>
-        <v>700164598000</v>
+        <v>7001645980</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="15"/>
@@ -11424,7 +13181,7 @@
       </c>
       <c r="J101">
         <f t="shared" si="11"/>
-        <v>4340010</v>
+        <v>43400.1</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="15"/>
@@ -11536,7 +13293,7 @@
       </c>
       <c r="J103">
         <f t="shared" si="11"/>
-        <v>127830733800</v>
+        <v>1278307338</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="15"/>
@@ -11592,7 +13349,7 @@
       </c>
       <c r="J104">
         <f t="shared" si="11"/>
-        <v>1413696018000</v>
+        <v>14136960180</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="15"/>
@@ -11648,7 +13405,7 @@
       </c>
       <c r="J105">
         <f t="shared" si="11"/>
-        <v>4629654018</v>
+        <v>46296540.18</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="15"/>
@@ -11704,7 +13461,7 @@
       </c>
       <c r="J106">
         <f t="shared" si="11"/>
-        <v>69715560360</v>
+        <v>697155603.60000002</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="15"/>
@@ -11816,7 +13573,7 @@
       </c>
       <c r="J108">
         <f t="shared" si="11"/>
-        <v>709486620</v>
+        <v>7094866.2000000002</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="15"/>
@@ -11872,7 +13629,7 @@
       </c>
       <c r="J109">
         <f t="shared" si="11"/>
-        <v>629299934</v>
+        <v>6292999.3399999999</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="15"/>
@@ -11984,7 +13741,7 @@
       </c>
       <c r="J111">
         <f t="shared" si="11"/>
-        <v>17536.2225</v>
+        <v>175.362225</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="15"/>
@@ -12040,7 +13797,7 @@
       </c>
       <c r="J112">
         <f t="shared" si="11"/>
-        <v>211685400</v>
+        <v>2116854</v>
       </c>
       <c r="K112" s="2">
         <f t="shared" ref="K112:K143" si="17">IF(E112=0,0,IF(ISNA(F112),"",F112))</f>
@@ -12152,7 +13909,7 @@
       </c>
       <c r="J114">
         <f t="shared" si="11"/>
-        <v>517764224100</v>
+        <v>5177642241</v>
       </c>
       <c r="K114" s="2">
         <f t="shared" si="17"/>
@@ -12320,7 +14077,7 @@
       </c>
       <c r="J117">
         <f t="shared" si="11"/>
-        <v>12414841880</v>
+        <v>124148418.8</v>
       </c>
       <c r="K117" s="2">
         <f t="shared" si="17"/>
@@ -12488,7 +14245,7 @@
       </c>
       <c r="J120">
         <f t="shared" si="11"/>
-        <v>321072879600</v>
+        <v>3210728796</v>
       </c>
       <c r="K120" s="2">
         <f t="shared" si="17"/>
@@ -12656,7 +14413,7 @@
       </c>
       <c r="J123">
         <f t="shared" si="11"/>
-        <v>4640856688</v>
+        <v>46408566.880000003</v>
       </c>
       <c r="K123" s="2">
         <f t="shared" si="17"/>
@@ -12768,7 +14525,7 @@
       </c>
       <c r="J125">
         <f t="shared" si="11"/>
-        <v>3210529151.9999995</v>
+        <v>32105291.519999996</v>
       </c>
       <c r="K125" s="2">
         <f t="shared" si="17"/>
@@ -12824,7 +14581,7 @@
       </c>
       <c r="J126">
         <f t="shared" si="11"/>
-        <v>171880.21639999998</v>
+        <v>1718.8021639999997</v>
       </c>
       <c r="K126" s="2">
         <f t="shared" si="17"/>
@@ -12880,7 +14637,7 @@
       </c>
       <c r="J127">
         <f t="shared" si="11"/>
-        <v>579932871900</v>
+        <v>5799328719</v>
       </c>
       <c r="K127" s="2">
         <f t="shared" si="17"/>
@@ -12992,7 +14749,7 @@
       </c>
       <c r="J129">
         <f t="shared" si="11"/>
-        <v>206334384000</v>
+        <v>2063343840</v>
       </c>
       <c r="K129" s="2">
         <f t="shared" si="17"/>
@@ -13103,8 +14860,8 @@
         <v>339186000</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="20">I131*H131</f>
-        <v>234038339.99999997</v>
+        <f t="shared" ref="J131:J194" si="20">I131*H131/100</f>
+        <v>2340383.4</v>
       </c>
       <c r="K131" s="2">
         <f t="shared" si="17"/>
@@ -13160,7 +14917,7 @@
       </c>
       <c r="J132">
         <f t="shared" si="20"/>
-        <v>820646680</v>
+        <v>8206466.7999999998</v>
       </c>
       <c r="K132" s="2">
         <f t="shared" si="17"/>
@@ -13216,7 +14973,7 @@
       </c>
       <c r="J133">
         <f t="shared" si="20"/>
-        <v>24430511450</v>
+        <v>244305114.5</v>
       </c>
       <c r="K133" s="2">
         <f t="shared" si="17"/>
@@ -13328,7 +15085,7 @@
       </c>
       <c r="J135">
         <f t="shared" si="20"/>
-        <v>18249390</v>
+        <v>182493.9</v>
       </c>
       <c r="K135" s="2">
         <f t="shared" si="17"/>
@@ -13552,7 +15309,7 @@
       </c>
       <c r="J139">
         <f t="shared" si="20"/>
-        <v>595385094000</v>
+        <v>5953850940</v>
       </c>
       <c r="K139" s="2">
         <f t="shared" si="17"/>
@@ -13664,7 +15421,7 @@
       </c>
       <c r="J141">
         <f t="shared" si="20"/>
-        <v>1924435530</v>
+        <v>19244355.300000001</v>
       </c>
       <c r="K141" s="2">
         <f t="shared" si="17"/>
@@ -13720,7 +15477,7 @@
       </c>
       <c r="J142">
         <f t="shared" si="20"/>
-        <v>87335820</v>
+        <v>873358.2</v>
       </c>
       <c r="K142" s="2">
         <f t="shared" si="17"/>
@@ -13832,7 +15589,7 @@
       </c>
       <c r="J144">
         <f t="shared" si="20"/>
-        <v>96846036000</v>
+        <v>968460360</v>
       </c>
       <c r="K144" s="2">
         <f t="shared" ref="K144:K175" si="24">IF(E144=0,0,IF(ISNA(F144),"",F144))</f>
@@ -13944,7 +15701,7 @@
       </c>
       <c r="J146">
         <f t="shared" si="20"/>
-        <v>96239609400</v>
+        <v>962396094</v>
       </c>
       <c r="K146" s="2">
         <f t="shared" si="24"/>
@@ -14000,7 +15757,7 @@
       </c>
       <c r="J147">
         <f t="shared" si="20"/>
-        <v>50253669</v>
+        <v>502536.69</v>
       </c>
       <c r="K147" s="2">
         <f t="shared" si="24"/>
@@ -14056,7 +15813,7 @@
       </c>
       <c r="J148">
         <f t="shared" si="20"/>
-        <v>8972966400</v>
+        <v>89729664</v>
       </c>
       <c r="K148" s="2">
         <f t="shared" si="24"/>
@@ -14168,7 +15925,7 @@
       </c>
       <c r="J150">
         <f t="shared" si="20"/>
-        <v>22595272700</v>
+        <v>225952727</v>
       </c>
       <c r="K150" s="2">
         <f t="shared" si="24"/>
@@ -14336,7 +16093,7 @@
       </c>
       <c r="J153">
         <f t="shared" si="20"/>
-        <v>11057764410</v>
+        <v>110577644.09999999</v>
       </c>
       <c r="K153" s="2">
         <f t="shared" si="24"/>
@@ -14392,7 +16149,7 @@
       </c>
       <c r="J154">
         <f t="shared" si="20"/>
-        <v>757939815600</v>
+        <v>7579398156</v>
       </c>
       <c r="K154" s="2">
         <f t="shared" si="24"/>
@@ -14448,7 +16205,7 @@
       </c>
       <c r="J155">
         <f t="shared" si="20"/>
-        <v>1023512616000</v>
+        <v>10235126160</v>
       </c>
       <c r="K155" s="2">
         <f t="shared" si="24"/>
@@ -14504,7 +16261,7 @@
       </c>
       <c r="J156">
         <f t="shared" si="20"/>
-        <v>5633460000</v>
+        <v>56334600</v>
       </c>
       <c r="K156" s="2">
         <f t="shared" si="24"/>
@@ -14560,7 +16317,7 @@
       </c>
       <c r="J157">
         <f t="shared" si="20"/>
-        <v>12110273880</v>
+        <v>121102738.8</v>
       </c>
       <c r="K157" s="2">
         <f t="shared" si="24"/>
@@ -14616,7 +16373,7 @@
       </c>
       <c r="J158">
         <f t="shared" si="20"/>
-        <v>1336625472</v>
+        <v>13366254.720000001</v>
       </c>
       <c r="K158" s="2">
         <f t="shared" si="24"/>
@@ -14672,7 +16429,7 @@
       </c>
       <c r="J159">
         <f t="shared" si="20"/>
-        <v>994022869000</v>
+        <v>9940228690</v>
       </c>
       <c r="K159" s="2">
         <f t="shared" si="24"/>
@@ -14728,7 +16485,7 @@
       </c>
       <c r="J160">
         <f t="shared" si="20"/>
-        <v>12043151250000</v>
+        <v>120431512500</v>
       </c>
       <c r="K160" s="2">
         <f t="shared" si="24"/>
@@ -15008,7 +16765,7 @@
       </c>
       <c r="J165">
         <f t="shared" si="20"/>
-        <v>24791951640</v>
+        <v>247919516.40000001</v>
       </c>
       <c r="K165" s="2">
         <f t="shared" si="24"/>
@@ -15064,7 +16821,7 @@
       </c>
       <c r="J166">
         <f t="shared" si="20"/>
-        <v>558451250</v>
+        <v>5584512.5</v>
       </c>
       <c r="K166" s="2">
         <f t="shared" si="24"/>
@@ -15120,7 +16877,7 @@
       </c>
       <c r="J167">
         <f t="shared" si="20"/>
-        <v>729485928600</v>
+        <v>7294859286</v>
       </c>
       <c r="K167" s="2">
         <f t="shared" si="24"/>
@@ -15288,7 +17045,7 @@
       </c>
       <c r="J170">
         <f t="shared" si="20"/>
-        <v>5063740656</v>
+        <v>50637406.560000002</v>
       </c>
       <c r="K170" s="2">
         <f t="shared" si="24"/>
@@ -15344,7 +17101,7 @@
       </c>
       <c r="J171">
         <f t="shared" si="20"/>
-        <v>19951210.490000002</v>
+        <v>199512.10490000003</v>
       </c>
       <c r="K171" s="2">
         <f t="shared" si="24"/>
@@ -15400,7 +17157,7 @@
       </c>
       <c r="J172">
         <f t="shared" si="20"/>
-        <v>23009168500</v>
+        <v>230091685</v>
       </c>
       <c r="K172" s="2">
         <f t="shared" si="24"/>
@@ -15456,7 +17213,7 @@
       </c>
       <c r="J173">
         <f t="shared" si="20"/>
-        <v>32522782290.000004</v>
+        <v>325227822.90000004</v>
       </c>
       <c r="K173" s="2">
         <f t="shared" si="24"/>
@@ -15624,7 +17381,7 @@
       </c>
       <c r="J176">
         <f t="shared" si="20"/>
-        <v>144668430500</v>
+        <v>1446684305</v>
       </c>
       <c r="K176" s="2">
         <f t="shared" ref="K176:K188" si="26">IF(E176=0,0,IF(ISNA(F176),"",F176))</f>
@@ -15736,7 +17493,7 @@
       </c>
       <c r="J178">
         <f t="shared" si="20"/>
-        <v>685558494000</v>
+        <v>6855584940</v>
       </c>
       <c r="K178" s="2">
         <f t="shared" si="26"/>
@@ -15792,7 +17549,7 @@
       </c>
       <c r="J179">
         <f t="shared" si="20"/>
-        <v>20174370000</v>
+        <v>201743700</v>
       </c>
       <c r="K179" s="2">
         <f t="shared" si="26"/>
@@ -15904,7 +17661,7 @@
       </c>
       <c r="J181">
         <f t="shared" si="20"/>
-        <v>10899597.709999999</v>
+        <v>108995.97709999999</v>
       </c>
       <c r="K181" s="2">
         <f t="shared" si="26"/>
@@ -16016,7 +17773,7 @@
       </c>
       <c r="J183">
         <f t="shared" si="20"/>
-        <v>785270200.00000012</v>
+        <v>7852702.0000000009</v>
       </c>
       <c r="K183" s="2">
         <f t="shared" si="26"/>
@@ -16184,7 +17941,7 @@
       </c>
       <c r="J186">
         <f t="shared" si="20"/>
-        <v>203337530400</v>
+        <v>2033375304</v>
       </c>
       <c r="K186" s="2">
         <f t="shared" si="26"/>
@@ -16240,7 +17997,7 @@
       </c>
       <c r="J187">
         <f t="shared" si="20"/>
-        <v>124801142400</v>
+        <v>1248011424</v>
       </c>
       <c r="K187" s="2">
         <f t="shared" si="26"/>
@@ -16296,7 +18053,7 @@
       </c>
       <c r="J188">
         <f t="shared" si="20"/>
-        <v>5328697430</v>
+        <v>53286974.299999997</v>
       </c>
       <c r="K188" s="2">
         <f t="shared" si="26"/>
@@ -16352,7 +18109,7 @@
       </c>
       <c r="J189">
         <f t="shared" si="20"/>
-        <v>173418290500</v>
+        <v>1734182905</v>
       </c>
       <c r="K189" s="5">
         <f>200+3015+670+600+240+220+126+126</f>
@@ -16408,7 +18165,7 @@
       </c>
       <c r="J190">
         <f t="shared" si="20"/>
-        <v>35141121</v>
+        <v>351411.21</v>
       </c>
       <c r="K190" s="2">
         <f t="shared" ref="K190:K210" si="27">IF(E190=0,0,IF(ISNA(F190),"",F190))</f>
@@ -16464,7 +18221,7 @@
       </c>
       <c r="J191">
         <f t="shared" si="20"/>
-        <v>4724363200</v>
+        <v>47243632</v>
       </c>
       <c r="K191" s="2">
         <f t="shared" si="27"/>
@@ -16687,8 +18444,8 @@
         <v>118004000</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J215" si="29">I195*H195</f>
-        <v>11694196400</v>
+        <f t="shared" ref="J195:J215" si="29">I195*H195/100</f>
+        <v>116941964</v>
       </c>
       <c r="K195" s="2">
         <f t="shared" si="27"/>
@@ -16744,7 +18501,7 @@
       </c>
       <c r="J196">
         <f t="shared" si="29"/>
-        <v>11403216000</v>
+        <v>114032160</v>
       </c>
       <c r="K196" s="2">
         <f t="shared" si="27"/>
@@ -16800,7 +18557,7 @@
       </c>
       <c r="J197">
         <f t="shared" si="29"/>
-        <v>102419908500</v>
+        <v>1024199085</v>
       </c>
       <c r="K197" s="2">
         <f t="shared" si="27"/>
@@ -16856,7 +18613,7 @@
       </c>
       <c r="J198">
         <f t="shared" si="29"/>
-        <v>292487574800</v>
+        <v>2924875748</v>
       </c>
       <c r="K198" s="2">
         <f t="shared" si="27"/>
@@ -17080,7 +18837,7 @@
       </c>
       <c r="J202">
         <f t="shared" si="29"/>
-        <v>2878314968000</v>
+        <v>28783149680</v>
       </c>
       <c r="K202" s="2">
         <f t="shared" si="27"/>
@@ -17136,7 +18893,7 @@
       </c>
       <c r="J203">
         <f t="shared" si="29"/>
-        <v>15284352</v>
+        <v>152843.51999999999</v>
       </c>
       <c r="K203" s="2">
         <f t="shared" si="27"/>
@@ -17192,7 +18949,7 @@
       </c>
       <c r="J204">
         <f t="shared" si="29"/>
-        <v>889663865000</v>
+        <v>8896638650</v>
       </c>
       <c r="K204" s="2">
         <f t="shared" si="27"/>
@@ -17248,7 +19005,7 @@
       </c>
       <c r="J205">
         <f t="shared" si="29"/>
-        <v>18538631930000</v>
+        <v>185386319300</v>
       </c>
       <c r="K205" s="2">
         <f t="shared" si="27"/>
@@ -17304,7 +19061,7 @@
       </c>
       <c r="J206">
         <f t="shared" si="29"/>
-        <v>13519565180</v>
+        <v>135195651.80000001</v>
       </c>
       <c r="K206" s="2">
         <f t="shared" si="27"/>
@@ -17360,7 +19117,7 @@
       </c>
       <c r="J207">
         <f t="shared" si="29"/>
-        <v>535790409000</v>
+        <v>5357904090</v>
       </c>
       <c r="K207" s="2">
         <f t="shared" si="27"/>
@@ -17472,7 +19229,7 @@
       </c>
       <c r="J209">
         <f t="shared" si="29"/>
-        <v>116852352400</v>
+        <v>1168523524</v>
       </c>
       <c r="K209" s="2">
         <f t="shared" si="27"/>
@@ -17528,7 +19285,7 @@
       </c>
       <c r="J210">
         <f t="shared" si="29"/>
-        <v>309847385200</v>
+        <v>3098473852</v>
       </c>
       <c r="K210" s="2">
         <f t="shared" si="27"/>
@@ -17584,11 +19341,11 @@
       </c>
       <c r="J211">
         <f t="shared" si="29"/>
-        <v>79348885</v>
+        <v>793488.85</v>
       </c>
       <c r="K211" s="5">
-        <f>0.59966*(J211)^0.3797</f>
-        <v>598.9088532439788</v>
+        <f>175+150</f>
+        <v>325</v>
       </c>
       <c r="M211">
         <f t="shared" si="30"/>
@@ -17600,7 +19357,7 @@
       </c>
       <c r="O211" s="2">
         <f t="shared" si="32"/>
-        <v>598.9088532439788</v>
+        <v>325</v>
       </c>
       <c r="Q211" t="str">
         <f t="shared" si="33"/>
@@ -17808,7 +19565,7 @@
       </c>
       <c r="J215">
         <f t="shared" si="29"/>
-        <v>449230320</v>
+        <v>4492303.2</v>
       </c>
       <c r="K215" s="2">
         <f>IF(E215=0,0,IF(ISNA(F215),"",F215))</f>
@@ -17839,10 +19596,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B44A22E-B40D-45CE-813F-618D6FF3A2FC}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17854,12 +19612,13 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17882,7 +19641,7 @@
         <f>pgb_industrial_split_pow_ic!H1</f>
         <v>percentage_for_electricity_production</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>448</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -17892,7 +19651,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -17918,11 +19677,15 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <f>0.59966*(G2*H2)^0.3797</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>3.4287*(G2*H2/100)^0.3797</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <f>C2/(D2*24*365)</f>
+        <v>0.11060968020547945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -17947,20 +19710,20 @@
         <f>VLOOKUP(A3,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>5.73</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">H3*G3</f>
-        <v>1502004900</v>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I66" si="0">H3/100*G3</f>
+        <v>15020049.000000002</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="1">D3</f>
         <v>97</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="2">0.59966*(G3*H3)^0.3797</f>
-        <v>1829.3095086274263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K3:K66" si="2">3.4287*(G3*H3/100)^0.3797</f>
+        <v>1820.168519583392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -17985,9 +19748,9 @@
         <f>VLOOKUP(A4,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>438948000</v>
+        <v>4389480</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
@@ -17995,10 +19758,10 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="2"/>
-        <v>1146.6459061533835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1140.9161607953104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -18023,9 +19786,9 @@
         <f>VLOOKUP(A5,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>65.34</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>3107491992</v>
+        <v>31074919.919999998</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="1"/>
@@ -18033,10 +19796,10 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>2410.8665111664318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2398.8195042158472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -18061,9 +19824,9 @@
         <f>VLOOKUP(A6,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>70.12</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>638028892000</v>
+        <v>6380288920</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="1"/>
@@ -18071,10 +19834,10 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>18205.514612422852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18114.542358231691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -18099,9 +19862,9 @@
         <f>VLOOKUP(A7,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>12.86</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>12054719660</v>
+        <v>120547196.59999999</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
@@ -18109,10 +19872,10 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="2"/>
-        <v>4033.8564294118037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4013.6994044509879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -18137,9 +19900,9 @@
         <f>VLOOKUP(A8,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>83.09</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>34124149010</v>
+        <v>341241490.10000002</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
@@ -18147,10 +19910,10 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="2"/>
-        <v>5988.3704296975293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5958.4467736779652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -18175,9 +19938,9 @@
         <f>VLOOKUP(A9,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>41.35</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>96541085500</v>
+        <v>965410855.00000012</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -18185,10 +19948,10 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>8887.9232215115098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8843.5106120493583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -18213,9 +19976,9 @@
         <f>VLOOKUP(A10,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>70.86</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
-        <v>434504308200</v>
+        <v>4345043082</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -18223,10 +19986,10 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="2"/>
-        <v>15734.445237241056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15655.82082138947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -18251,9 +20014,9 @@
         <f>VLOOKUP(A11,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>98.36</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>1935193656</v>
+        <v>19351936.560000002</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
@@ -18261,10 +20024,10 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="2"/>
-        <v>2014.0690099584137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2004.0047848138254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -18289,9 +20052,9 @@
         <f>VLOOKUP(A12,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>98.73</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>316894668.30000001</v>
+        <v>3168946.6830000002</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="1"/>
@@ -18299,10 +20062,10 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="2"/>
-        <v>1013.2170288049398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1008.1540223995971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -18327,9 +20090,9 @@
         <f>VLOOKUP(A13,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>92.72</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
-        <v>46853363120</v>
+        <v>468533631.19999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
@@ -18337,10 +20100,10 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="2"/>
-        <v>6754.3778294568247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6720.6264640114705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -18365,9 +20128,9 @@
         <f>VLOOKUP(A14,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>58.5</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>25548354</v>
+        <v>255483.53999999998</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="1"/>
@@ -18375,10 +20138,10 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="2"/>
-        <v>389.47607357224541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>387.52987665770064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -18403,9 +20166,9 @@
         <f>VLOOKUP(A15,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>73.739999999999995</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
-        <v>204834972000</v>
+        <v>2048349719.9999998</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
@@ -18413,10 +20176,10 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="2"/>
-        <v>11826.200012263884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11767.10494703035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -18441,9 +20204,9 @@
         <f>VLOOKUP(A16,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>13.57</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
-        <v>158538310000</v>
+        <v>1585383100.0000002</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="1"/>
@@ -18451,7 +20214,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="2"/>
-        <v>10729.909164665178</v>
+        <v>10676.29222250468</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -18479,9 +20242,9 @@
         <f>VLOOKUP(A17,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <f t="shared" si="0"/>
-        <v>89970750</v>
+        <v>899707.5</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="1"/>
@@ -18489,7 +20252,7 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="2"/>
-        <v>628.17024285368188</v>
+        <v>625.03130038351321</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -18517,9 +20280,9 @@
         <f>VLOOKUP(A18,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>2.74</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <f t="shared" si="0"/>
-        <v>10449949000</v>
+        <v>104499490</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
@@ -18527,7 +20290,7 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="2"/>
-        <v>3820.8741303453635</v>
+        <v>3801.7813697166089</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -18555,9 +20318,9 @@
         <f>VLOOKUP(A19,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>6.2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <f t="shared" si="0"/>
-        <v>220141540</v>
+        <v>2201415.4</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="1"/>
@@ -18565,7 +20328,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="2"/>
-        <v>882.32590431687163</v>
+        <v>877.91695581111549</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -18593,9 +20356,9 @@
         <f>VLOOKUP(A20,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>38.549999999999997</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <f t="shared" si="0"/>
-        <v>467418749999.99994</v>
+        <v>4674187499.999999</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="1"/>
@@ -18603,7 +20366,7 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
-        <v>16176.795592689425</v>
+        <v>16095.96076917653</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -18631,9 +20394,9 @@
         <f>VLOOKUP(A21,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>11.9</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <f t="shared" si="0"/>
-        <v>2281301400</v>
+        <v>22813014</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
@@ -18641,7 +20404,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="2"/>
-        <v>2143.9124144079497</v>
+        <v>2133.199366780389</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -18669,9 +20432,9 @@
         <f>VLOOKUP(A22,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>89.61</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <f t="shared" si="0"/>
-        <v>1581795720000</v>
+        <v>15817957200</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="1"/>
@@ -18679,7 +20442,7 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="2"/>
-        <v>25699.370517767798</v>
+        <v>25570.951754713449</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -18707,9 +20470,9 @@
         <f>VLOOKUP(A23,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>65.3</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <f t="shared" si="0"/>
-        <v>1140810590</v>
+        <v>11408105.9</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="1"/>
@@ -18717,7 +20480,7 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="2"/>
-        <v>1647.893205512476</v>
+        <v>1639.6587467364809</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -18775,9 +20538,9 @@
         <f>VLOOKUP(A25,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>88.36</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <f t="shared" si="0"/>
-        <v>3911953444000</v>
+        <v>39119534440</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="1"/>
@@ -18785,7 +20548,7 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="2"/>
-        <v>36244.069942276881</v>
+        <v>36062.959722988649</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -18843,9 +20606,9 @@
         <f>VLOOKUP(A27,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>92.48</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="7">
         <f t="shared" si="0"/>
-        <v>132431360000</v>
+        <v>1324313600</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
@@ -18853,7 +20616,7 @@
       </c>
       <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>10021.321656765555</v>
+        <v>9971.2454990463648</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -18881,9 +20644,9 @@
         <f>VLOOKUP(A28,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>64.459999999999994</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>4643853104000</v>
+        <v>46438531040</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="1"/>
@@ -18891,7 +20654,7 @@
       </c>
       <c r="K28" s="2">
         <f t="shared" si="2"/>
-        <v>38682.883234428402</v>
+        <v>38489.586359203124</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -18919,9 +20682,9 @@
         <f>VLOOKUP(A29,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>72.040000000000006</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="7">
         <f t="shared" si="0"/>
-        <v>114756118000.00002</v>
+        <v>1147561180</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="1"/>
@@ -18929,7 +20692,7 @@
       </c>
       <c r="K29" s="2">
         <f t="shared" si="2"/>
-        <v>9490.7813911998674</v>
+        <v>9443.3563227206796</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -18987,9 +20750,9 @@
         <f>VLOOKUP(A31,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>38.72</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="7">
         <f t="shared" si="0"/>
-        <v>10164696960</v>
+        <v>101646969.59999999</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="1"/>
@@ -18997,7 +20760,7 @@
       </c>
       <c r="K31" s="2">
         <f t="shared" si="2"/>
-        <v>3780.9317470698497</v>
+        <v>3762.0385769894369</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -19025,9 +20788,9 @@
         <f>VLOOKUP(A32,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.51</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="7">
         <f t="shared" si="0"/>
-        <v>67213920</v>
+        <v>672139.20000000007</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="1"/>
@@ -19035,7 +20798,7 @@
       </c>
       <c r="K32" s="2">
         <f t="shared" si="2"/>
-        <v>562.3301224286995</v>
+        <v>559.5201805003328</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -19063,9 +20826,9 @@
         <f>VLOOKUP(A33,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>47.68</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7">
         <f t="shared" si="0"/>
-        <v>124152521600</v>
+        <v>1241525216</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="1"/>
@@ -19073,7 +20836,7 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="2"/>
-        <v>9778.6747391687659</v>
+        <v>9729.8110787360274</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -19101,9 +20864,9 @@
         <f>VLOOKUP(A34,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>96.88</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="7">
         <f t="shared" si="0"/>
-        <v>17015325040</v>
+        <v>170153250.40000001</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="1"/>
@@ -19111,7 +20874,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>4597.8534352963579</v>
+        <v>4574.8781390548556</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -19139,9 +20902,9 @@
         <f>VLOOKUP(A35,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>96.01</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="7">
         <f t="shared" si="0"/>
-        <v>2903025567</v>
+        <v>29030255.670000002</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
@@ -19149,7 +20912,7 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>2349.3599026629054</v>
+        <v>2337.6202418622265</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -19177,9 +20940,9 @@
         <f>VLOOKUP(A36,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>12.39</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="7">
         <f t="shared" si="0"/>
-        <v>38182386900</v>
+        <v>381823869.00000006</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="1"/>
@@ -19187,7 +20950,7 @@
       </c>
       <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>6249.4023966289824</v>
+        <v>6218.1743739406775</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -19215,9 +20978,9 @@
         <f>VLOOKUP(A37,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>90.11</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="7">
         <f t="shared" si="0"/>
-        <v>70453314490</v>
+        <v>704533144.89999998</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="1"/>
@@ -19225,7 +20988,7 @@
       </c>
       <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>7885.936091190285</v>
+        <v>7846.5303727639712</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -19253,9 +21016,9 @@
         <f>VLOOKUP(A38,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>12.89</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="7">
         <f t="shared" si="0"/>
-        <v>61912861.300000004</v>
+        <v>619128.61300000001</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="1"/>
@@ -19263,7 +21026,7 @@
       </c>
       <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>545.05995848458451</v>
+        <v>542.33631489920356</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -19291,9 +21054,9 @@
         <f>VLOOKUP(A39,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>96.2</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="7">
         <f t="shared" si="0"/>
-        <v>18725041400</v>
+        <v>187250414.00000003</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="1"/>
@@ -19301,7 +21064,7 @@
       </c>
       <c r="K39" s="2">
         <f t="shared" si="2"/>
-        <v>4768.0852588240323</v>
+        <v>4744.2593207275131</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -19329,9 +21092,9 @@
         <f>VLOOKUP(A40,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>76.56</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="7">
         <f t="shared" si="0"/>
-        <v>23816131680</v>
+        <v>238161316.80000001</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="1"/>
@@ -19339,7 +21102,7 @@
       </c>
       <c r="K40" s="2">
         <f t="shared" si="2"/>
-        <v>5223.9989833271293</v>
+        <v>5197.8948619373759</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -19367,9 +21130,9 @@
         <f>VLOOKUP(A41,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>72.39</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="7">
         <f t="shared" si="0"/>
-        <v>402056231700</v>
+        <v>4020562317</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="1"/>
@@ -19377,7 +21140,7 @@
       </c>
       <c r="K41" s="2">
         <f t="shared" si="2"/>
-        <v>15277.517067791601</v>
+        <v>15201.175904375512</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -19435,9 +21198,9 @@
         <f>VLOOKUP(A43,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>45.56</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="7">
         <f t="shared" si="0"/>
-        <v>359418739.60000002</v>
+        <v>3594187.3960000002</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="1"/>
@@ -19445,7 +21208,7 @@
       </c>
       <c r="K43" s="2">
         <f t="shared" si="2"/>
-        <v>1062.837018965796</v>
+        <v>1057.5260633838441</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -19473,9 +21236,9 @@
         <f>VLOOKUP(A44,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>92.46</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="7">
         <f t="shared" si="0"/>
-        <v>350092393200</v>
+        <v>3500923932</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="1"/>
@@ -19483,7 +21246,7 @@
       </c>
       <c r="K44" s="2">
         <f t="shared" si="2"/>
-        <v>14495.434636724674</v>
+        <v>14423.001509045649</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -19511,9 +21274,9 @@
         <f>VLOOKUP(A45,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>98.79</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="7">
         <f t="shared" si="0"/>
-        <v>299917548900</v>
+        <v>2999175489.0000005</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="1"/>
@@ -19521,7 +21284,7 @@
       </c>
       <c r="K45" s="2">
         <f t="shared" si="2"/>
-        <v>13668.557798081352</v>
+        <v>13600.256542066012</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -19549,9 +21312,9 @@
         <f>VLOOKUP(A46,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>81.06</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="7">
         <f t="shared" si="0"/>
-        <v>2922415650000</v>
+        <v>29224156500</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="1"/>
@@ -19559,7 +21322,7 @@
       </c>
       <c r="K46" s="2">
         <f t="shared" si="2"/>
-        <v>32444.965156807884</v>
+        <v>32282.838917571862</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -19587,9 +21350,9 @@
         <f>VLOOKUP(A47,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>76.56</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="7">
         <f t="shared" si="0"/>
-        <v>1024602480</v>
+        <v>10246024.800000001</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="1"/>
@@ -19597,7 +21360,7 @@
       </c>
       <c r="K47" s="2">
         <f t="shared" si="2"/>
-        <v>1582.0236327717496</v>
+        <v>1574.1183217096425</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -19625,9 +21388,9 @@
         <f>VLOOKUP(A48,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>3.19</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="7">
         <f t="shared" si="0"/>
-        <v>6559278000</v>
+        <v>65592779.999999993</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="1"/>
@@ -19635,7 +21398,7 @@
       </c>
       <c r="K48" s="2">
         <f t="shared" si="2"/>
-        <v>3201.5870748475068</v>
+        <v>3185.588867744395</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -19663,9 +21426,9 @@
         <f>VLOOKUP(A49,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>26.73</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="7">
         <f t="shared" si="0"/>
-        <v>1149887178000</v>
+        <v>11498871780</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="1"/>
@@ -19673,7 +21436,7 @@
       </c>
       <c r="K49" s="2">
         <f t="shared" si="2"/>
-        <v>22768.576109425689</v>
+        <v>22654.802412966477</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -19701,9 +21464,9 @@
         <f>VLOOKUP(A50,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>19.989999999999998</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="7">
         <f t="shared" si="0"/>
-        <v>4313901970</v>
+        <v>43139019.699999996</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="1"/>
@@ -19711,7 +21474,7 @@
       </c>
       <c r="K50" s="2">
         <f t="shared" si="2"/>
-        <v>2730.645501100938</v>
+        <v>2717.0005708739895</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -19739,9 +21502,9 @@
         <f>VLOOKUP(A51,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>37.770000000000003</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="7">
         <f t="shared" si="0"/>
-        <v>76237989600</v>
+        <v>762379896.00000012</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="1"/>
@@ -19749,7 +21512,7 @@
       </c>
       <c r="K51" s="2">
         <f t="shared" si="2"/>
-        <v>8125.7896269838166</v>
+        <v>8085.1853696921416</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -19807,9 +21570,9 @@
         <f>VLOOKUP(A53,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="7">
         <f t="shared" si="0"/>
-        <v>73755500</v>
+        <v>737555</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="1"/>
@@ -19817,7 +21580,7 @@
       </c>
       <c r="K53" s="2">
         <f t="shared" si="2"/>
-        <v>582.51433655553933</v>
+        <v>579.60353488784199</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -19875,9 +21638,9 @@
         <f>VLOOKUP(A55,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>1.27</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="7">
         <f t="shared" si="0"/>
-        <v>151043640</v>
+        <v>1510436.4</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="1"/>
@@ -19885,7 +21648,7 @@
       </c>
       <c r="K55" s="2">
         <f t="shared" si="2"/>
-        <v>764.73378653749523</v>
+        <v>760.91244130784696</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -19913,9 +21676,9 @@
         <f>VLOOKUP(A56,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>94.69</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="7">
         <f t="shared" si="0"/>
-        <v>34309406460</v>
+        <v>343094064.59999996</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="1"/>
@@ -19923,7 +21686,7 @@
       </c>
       <c r="K56" s="2">
         <f t="shared" si="2"/>
-        <v>6000.6939099479905</v>
+        <v>5970.7086739730166</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -19951,9 +21714,9 @@
         <f>VLOOKUP(A57,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>52.18</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="7">
         <f t="shared" si="0"/>
-        <v>321459586200</v>
+        <v>3214595862.0000005</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="1"/>
@@ -19961,7 +21724,7 @@
       </c>
       <c r="K57" s="2">
         <f t="shared" si="2"/>
-        <v>14033.337414301148</v>
+        <v>13963.213368615945</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -19989,9 +21752,9 @@
         <f>VLOOKUP(A58,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>34.43</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="7">
         <f t="shared" si="0"/>
-        <v>1285437164000</v>
+        <v>12854371640</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="1"/>
@@ -19999,7 +21762,7 @@
       </c>
       <c r="K58" s="2">
         <f t="shared" si="2"/>
-        <v>23752.62918983999</v>
+        <v>23633.938218100469</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -20027,9 +21790,9 @@
         <f>VLOOKUP(A59,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>92.53</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="7">
         <f t="shared" si="0"/>
-        <v>314158781300</v>
+        <v>3141587813</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="1"/>
@@ -20037,7 +21800,7 @@
       </c>
       <c r="K59" s="2">
         <f t="shared" si="2"/>
-        <v>13911.457490395638</v>
+        <v>13841.942473988318</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -20065,9 +21828,9 @@
         <f>VLOOKUP(A60,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>65.959999999999994</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="7">
         <f t="shared" si="0"/>
-        <v>182354994799.99997</v>
+        <v>1823549948</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="1"/>
@@ -20075,7 +21838,7 @@
       </c>
       <c r="K60" s="2">
         <f t="shared" si="2"/>
-        <v>11315.546071460192</v>
+        <v>11259.002724268992</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -20103,9 +21866,9 @@
         <f>VLOOKUP(A61,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>94.27</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="7">
         <f t="shared" si="0"/>
-        <v>346271621300</v>
+        <v>3462716213</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="1"/>
@@ -20113,7 +21876,7 @@
       </c>
       <c r="K61" s="2">
         <f t="shared" si="2"/>
-        <v>14435.162510055159</v>
+        <v>14363.03055986797</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -20141,9 +21904,9 @@
         <f>VLOOKUP(A62,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>43.6</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="7">
         <f t="shared" si="0"/>
-        <v>41602378800</v>
+        <v>416023788</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="1"/>
@@ -20151,7 +21914,7 @@
       </c>
       <c r="K62" s="2">
         <f t="shared" si="2"/>
-        <v>6456.3081034807674</v>
+        <v>6424.0461809572798</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -20179,9 +21942,9 @@
         <f>VLOOKUP(A63,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.42</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="7">
         <f t="shared" si="0"/>
-        <v>7552398</v>
+        <v>75523.98</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="1"/>
@@ -20189,7 +21952,7 @@
       </c>
       <c r="K63" s="2">
         <f t="shared" si="2"/>
-        <v>245.19629582228868</v>
+        <v>243.97105939117679</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -20217,9 +21980,9 @@
         <f>VLOOKUP(A64,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>96.43</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="7">
         <f t="shared" si="0"/>
-        <v>12897608930</v>
+        <v>128976089.30000001</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="1"/>
@@ -20227,7 +21990,7 @@
       </c>
       <c r="K64" s="2">
         <f t="shared" si="2"/>
-        <v>4138.7140880866491</v>
+        <v>4118.0330934506001</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -20255,9 +22018,9 @@
         <f>VLOOKUP(A65,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>53.94</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="7">
         <f t="shared" si="0"/>
-        <v>987889524000</v>
+        <v>9878895240</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="1"/>
@@ -20265,7 +22028,7 @@
       </c>
       <c r="K65" s="2">
         <f t="shared" si="2"/>
-        <v>21492.941286995439</v>
+        <v>21385.541888532836</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -20293,9 +22056,9 @@
         <f>VLOOKUP(A66,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>96.45</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="7">
         <f t="shared" si="0"/>
-        <v>1533506775</v>
+        <v>15335067.75</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="1"/>
@@ -20303,7 +22066,7 @@
       </c>
       <c r="K66" s="2">
         <f t="shared" si="2"/>
-        <v>1843.7835687017177</v>
+        <v>1834.5702533378683</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -20331,17 +22094,17 @@
         <f>VLOOKUP(A67,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>97.04</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I128" si="3">H67*G67</f>
-        <v>2730928792000</v>
+      <c r="I67" s="7">
+        <f t="shared" ref="I67:I130" si="3">H67/100*G67</f>
+        <v>27309287920</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" ref="J67:J128" si="4">D67</f>
         <v>220250.4</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" ref="K67:K130" si="5">0.59966*(G67*H67)^0.3797</f>
-        <v>31620.747356573967</v>
+        <f t="shared" ref="K67:K130" si="5">3.4287*(G67*H67/100)^0.3797</f>
+        <v>31462.739701889277</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -20369,9 +22132,9 @@
         <f>VLOOKUP(A68,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.8</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="7">
         <f t="shared" si="3"/>
-        <v>28787280</v>
+        <v>287872.8</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="4"/>
@@ -20379,7 +22142,7 @@
       </c>
       <c r="K68" s="2">
         <f t="shared" si="5"/>
-        <v>407.53373088361008</v>
+        <v>405.49730055210392</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -20407,9 +22170,9 @@
         <f>VLOOKUP(A69,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>53.62</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="7">
         <f t="shared" si="3"/>
-        <v>700164598000</v>
+        <v>7001645980</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" si="4"/>
@@ -20417,7 +22180,7 @@
       </c>
       <c r="K69" s="2">
         <f t="shared" si="5"/>
-        <v>18859.387181242684</v>
+        <v>18765.147551050035</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -20445,9 +22208,9 @@
         <f>VLOOKUP(A70,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.03</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="7">
         <f t="shared" si="3"/>
-        <v>4340010</v>
+        <v>43400.1</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="4"/>
@@ -20455,7 +22218,7 @@
       </c>
       <c r="K70" s="2">
         <f t="shared" si="5"/>
-        <v>198.68281778577423</v>
+        <v>197.69000741002739</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -20483,9 +22246,9 @@
         <f>VLOOKUP(A71,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>93.94</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="7">
         <f t="shared" si="3"/>
-        <v>127830733800</v>
+        <v>1278307338</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="4"/>
@@ -20493,7 +22256,7 @@
       </c>
       <c r="K71" s="2">
         <f t="shared" si="5"/>
-        <v>9887.6821469558818</v>
+        <v>9838.2737807117028</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -20521,9 +22284,9 @@
         <f>VLOOKUP(A72,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>95.11</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="7">
         <f t="shared" si="3"/>
-        <v>1413696018000</v>
+        <v>14136960180</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="4"/>
@@ -20531,7 +22294,7 @@
       </c>
       <c r="K72" s="2">
         <f t="shared" si="5"/>
-        <v>24626.078912413112</v>
+        <v>24503.023346105583</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -20559,9 +22322,9 @@
         <f>VLOOKUP(A73,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>98.89</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="7">
         <f t="shared" si="3"/>
-        <v>4629654018</v>
+        <v>46296540.18</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="4"/>
@@ -20569,7 +22332,7 @@
       </c>
       <c r="K73" s="2">
         <f t="shared" si="5"/>
-        <v>2804.8772489478138</v>
+        <v>2790.8613855405729</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -20597,9 +22360,9 @@
         <f>VLOOKUP(A74,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>80.040000000000006</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="7">
         <f t="shared" si="3"/>
-        <v>69715560360</v>
+        <v>697155603.60000014</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="4"/>
@@ -20607,7 +22370,7 @@
       </c>
       <c r="K74" s="2">
         <f t="shared" si="5"/>
-        <v>7854.4788763019469</v>
+        <v>7815.2303483648957</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -20635,9 +22398,9 @@
         <f>VLOOKUP(A75,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>1.01</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="7">
         <f t="shared" si="3"/>
-        <v>709486620</v>
+        <v>7094866.2000000002</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="4"/>
@@ -20645,7 +22408,7 @@
       </c>
       <c r="K75" s="2">
         <f t="shared" si="5"/>
-        <v>1375.9688329795067</v>
+        <v>1369.0931698028376</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -20673,9 +22436,9 @@
         <f>VLOOKUP(A76,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>6.77</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="7">
         <f t="shared" si="3"/>
-        <v>629299934</v>
+        <v>6292999.3399999999</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="4"/>
@@ -20683,7 +22446,7 @@
       </c>
       <c r="K76" s="2">
         <f t="shared" si="5"/>
-        <v>1314.7141702555446</v>
+        <v>1308.144594265442</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -20711,9 +22474,9 @@
         <f>VLOOKUP(A77,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="7">
         <f t="shared" si="3"/>
-        <v>17536.2225</v>
+        <v>175.362225</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="4"/>
@@ -20721,7 +22484,7 @@
       </c>
       <c r="K77" s="2">
         <f t="shared" si="5"/>
-        <v>24.509113191089106</v>
+        <v>24.386642097978754</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -20749,9 +22512,9 @@
         <f>VLOOKUP(A78,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>1.8</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="7">
         <f t="shared" si="3"/>
-        <v>211685400</v>
+        <v>2116854.0000000005</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="4"/>
@@ -20759,7 +22522,7 @@
       </c>
       <c r="K78" s="2">
         <f t="shared" si="5"/>
-        <v>869.30047572914634</v>
+        <v>864.95661478755108</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -20787,9 +22550,9 @@
         <f>VLOOKUP(A79,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>95.77</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="7">
         <f t="shared" si="3"/>
-        <v>517764224100</v>
+        <v>5177642241</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="4"/>
@@ -20797,7 +22560,7 @@
       </c>
       <c r="K79" s="2">
         <f t="shared" si="5"/>
-        <v>16817.483704116737</v>
+        <v>16733.447386827323</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -20855,9 +22618,9 @@
         <f>VLOOKUP(A81,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>22.84</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="7">
         <f t="shared" si="3"/>
-        <v>12414841880</v>
+        <v>124148418.8</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="4"/>
@@ -20865,7 +22628,7 @@
       </c>
       <c r="K81" s="2">
         <f t="shared" si="5"/>
-        <v>4079.1957947939759</v>
+        <v>4058.8122107734339</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -20923,9 +22686,9 @@
         <f>VLOOKUP(A83,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>82.06</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="7">
         <f t="shared" si="3"/>
-        <v>321072879600</v>
+        <v>3210728796</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="4"/>
@@ -20933,7 +22696,7 @@
       </c>
       <c r="K83" s="2">
         <f t="shared" si="5"/>
-        <v>14026.925039798445</v>
+        <v>13956.833036501257</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -20961,9 +22724,9 @@
         <f>VLOOKUP(A84,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>86.32</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="7">
         <f t="shared" si="3"/>
-        <v>4640856688</v>
+        <v>46408566.879999995</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="4"/>
@@ -20971,7 +22734,7 @@
       </c>
       <c r="K84" s="2">
         <f t="shared" si="5"/>
-        <v>2807.4523948068236</v>
+        <v>2793.4236634950657</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -20999,9 +22762,9 @@
         <f>VLOOKUP(A85,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>88.32</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="7">
         <f t="shared" si="3"/>
-        <v>3210529151.9999995</v>
+        <v>32105291.52</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="4"/>
@@ -21009,7 +22772,7 @@
       </c>
       <c r="K85" s="2">
         <f t="shared" si="5"/>
-        <v>2440.9125603433222</v>
+        <v>2428.7154144441124</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -21037,9 +22800,9 @@
         <f>VLOOKUP(A86,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>48.94</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="7">
         <f t="shared" si="3"/>
-        <v>171880.21639999998</v>
+        <v>1718.8021639999999</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="4"/>
@@ -21047,7 +22810,7 @@
       </c>
       <c r="K86" s="2">
         <f t="shared" si="5"/>
-        <v>58.306953651021125</v>
+        <v>58.015596052975859</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -21075,9 +22838,9 @@
         <f>VLOOKUP(A87,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>62.43</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="7">
         <f t="shared" si="3"/>
-        <v>579932871900</v>
+        <v>5799328719</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="4"/>
@@ -21085,7 +22848,7 @@
       </c>
       <c r="K87" s="2">
         <f t="shared" si="5"/>
-        <v>17557.375725287839</v>
+        <v>17469.64219611197</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -21113,9 +22876,9 @@
         <f>VLOOKUP(A88,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>90.4</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="7">
         <f t="shared" si="3"/>
-        <v>206334384000</v>
+        <v>2063343840</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="4"/>
@@ -21123,7 +22886,7 @@
       </c>
       <c r="K88" s="2">
         <f t="shared" si="5"/>
-        <v>11858.995905862377</v>
+        <v>11799.736960813721</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -21151,9 +22914,9 @@
         <f>VLOOKUP(A89,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.69</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="7">
         <f t="shared" si="3"/>
-        <v>234038339.99999997</v>
+        <v>2340383.4</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="4"/>
@@ -21161,7 +22924,7 @@
       </c>
       <c r="K89" s="2">
         <f t="shared" si="5"/>
-        <v>903.07403926743336</v>
+        <v>898.56141313174396</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -21189,9 +22952,9 @@
         <f>VLOOKUP(A90,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>2.59</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="7">
         <f t="shared" si="3"/>
-        <v>820646680</v>
+        <v>8206466.7999999998</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="4"/>
@@ -21199,7 +22962,7 @@
       </c>
       <c r="K90" s="2">
         <f t="shared" si="5"/>
-        <v>1454.1533092401901</v>
+        <v>1446.8869612518245</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -21227,9 +22990,9 @@
         <f>VLOOKUP(A91,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>69.05</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="7">
         <f t="shared" si="3"/>
-        <v>24430511450</v>
+        <v>244305114.5</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="4"/>
@@ -21237,7 +23000,7 @@
       </c>
       <c r="K91" s="2">
         <f t="shared" si="5"/>
-        <v>5274.7644806864137</v>
+        <v>5248.4066860647645</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -21295,9 +23058,9 @@
         <f>VLOOKUP(A93,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.09</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="7">
         <f t="shared" si="3"/>
-        <v>18249390</v>
+        <v>182493.9</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="4"/>
@@ -21305,7 +23068,7 @@
       </c>
       <c r="K93" s="2">
         <f t="shared" si="5"/>
-        <v>342.768638806186</v>
+        <v>341.05583714130159</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -21363,9 +23126,9 @@
         <f>VLOOKUP(A95,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>83.4</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="7">
         <f t="shared" si="3"/>
-        <v>595385094000</v>
+        <v>5953850940.000001</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="4"/>
@@ -21373,7 +23136,7 @@
       </c>
       <c r="K95" s="2">
         <f t="shared" si="5"/>
-        <v>17733.557395297197</v>
+        <v>17644.943493112984</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -21401,9 +23164,9 @@
         <f>VLOOKUP(A96,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>6.21</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="7">
         <f t="shared" si="3"/>
-        <v>1924435530</v>
+        <v>19244355.300000001</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="4"/>
@@ -21411,7 +23174,7 @@
       </c>
       <c r="K96" s="2">
         <f t="shared" si="5"/>
-        <v>2009.8103050215293</v>
+        <v>1999.7673604612194</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -21439,9 +23202,9 @@
         <f>VLOOKUP(A97,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.27</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="7">
         <f t="shared" si="3"/>
-        <v>87335820</v>
+        <v>873358.20000000007</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="4"/>
@@ -21449,7 +23212,7 @@
       </c>
       <c r="K97" s="2">
         <f t="shared" si="5"/>
-        <v>621.12046028222278</v>
+        <v>618.01674530359924</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -21477,9 +23240,9 @@
         <f>VLOOKUP(A98,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>88.76</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="7">
         <f t="shared" si="3"/>
-        <v>96846036000</v>
+        <v>968460360.00000012</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="4"/>
@@ -21487,7 +23250,7 @@
       </c>
       <c r="K98" s="2">
         <f t="shared" si="5"/>
-        <v>8898.5728168493697</v>
+        <v>8854.1069917701589</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -21515,9 +23278,9 @@
         <f>VLOOKUP(A99,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>48.26</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="7">
         <f t="shared" si="3"/>
-        <v>96239609400</v>
+        <v>962396094</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="4"/>
@@ -21525,7 +23288,7 @@
       </c>
       <c r="K99" s="2">
         <f t="shared" si="5"/>
-        <v>8877.3744293544296</v>
+        <v>8833.0145317997467</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -21553,9 +23316,9 @@
         <f>VLOOKUP(A100,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>1.41</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="7">
         <f t="shared" si="3"/>
-        <v>50253669</v>
+        <v>502536.69</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="4"/>
@@ -21563,7 +23326,7 @@
       </c>
       <c r="K100" s="2">
         <f t="shared" si="5"/>
-        <v>503.54522795171545</v>
+        <v>501.02903187326399</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -21591,9 +23354,9 @@
         <f>VLOOKUP(A101,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>1.92</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="7">
         <f t="shared" si="3"/>
-        <v>8972966400</v>
+        <v>89729663.999999985</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="4"/>
@@ -21601,7 +23364,7 @@
       </c>
       <c r="K101" s="2">
         <f t="shared" si="5"/>
-        <v>3606.0761652982401</v>
+        <v>3588.0567418144124</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -21629,9 +23392,9 @@
         <f>VLOOKUP(A102,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>81.62</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="7">
         <f t="shared" si="3"/>
-        <v>22595272700</v>
+        <v>225952727</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="4"/>
@@ -21639,7 +23402,7 @@
       </c>
       <c r="K102" s="2">
         <f t="shared" si="5"/>
-        <v>5120.6554914989765</v>
+        <v>5095.0677735511335</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -21667,9 +23430,9 @@
         <f>VLOOKUP(A103,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>13.77</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="7">
         <f t="shared" si="3"/>
-        <v>11057764410</v>
+        <v>110577644.09999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="4"/>
@@ -21677,7 +23440,7 @@
       </c>
       <c r="K103" s="2">
         <f t="shared" si="5"/>
-        <v>3903.7820851897222</v>
+        <v>3884.2750367090066</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -21705,9 +23468,9 @@
         <f>VLOOKUP(A104,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>96.36</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="7">
         <f t="shared" si="3"/>
-        <v>757939815600</v>
+        <v>7579398156</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="4"/>
@@ -21715,7 +23478,7 @@
       </c>
       <c r="K104" s="2">
         <f t="shared" si="5"/>
-        <v>19435.798338282071</v>
+        <v>19338.67840377432</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -21743,9 +23506,9 @@
         <f>VLOOKUP(A105,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>67.58</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="7">
         <f t="shared" si="3"/>
-        <v>1023512616000</v>
+        <v>10235126160</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="4"/>
@@ -21753,7 +23516,7 @@
       </c>
       <c r="K105" s="2">
         <f t="shared" si="5"/>
-        <v>21783.991985279266</v>
+        <v>21675.138217705411</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -21781,9 +23544,9 @@
         <f>VLOOKUP(A106,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>1.7</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="7">
         <f t="shared" si="3"/>
-        <v>5633460000</v>
+        <v>56334600.000000007</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="4"/>
@@ -21791,7 +23554,7 @@
       </c>
       <c r="K106" s="2">
         <f t="shared" si="5"/>
-        <v>3021.8606230841033</v>
+        <v>3006.7605021270233</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -21819,9 +23582,9 @@
         <f>VLOOKUP(A107,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>52.41</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="7">
         <f t="shared" si="3"/>
-        <v>12110273880</v>
+        <v>121102738.8</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="4"/>
@@ -21829,7 +23592,7 @@
       </c>
       <c r="K107" s="2">
         <f t="shared" si="5"/>
-        <v>4040.9050043762882</v>
+        <v>4020.7127579582852</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -21857,9 +23620,9 @@
         <f>VLOOKUP(A108,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>94.92</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="7">
         <f t="shared" si="3"/>
-        <v>1336625472</v>
+        <v>13366254.720000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="4"/>
@@ -21867,7 +23630,7 @@
       </c>
       <c r="K108" s="2">
         <f t="shared" si="5"/>
-        <v>1750.0520921622137</v>
+        <v>1741.3071493706861</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -21895,9 +23658,9 @@
         <f>VLOOKUP(A109,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>58.73</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="7">
         <f t="shared" si="3"/>
-        <v>994022869000</v>
+        <v>9940228689.9999981</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="4"/>
@@ -21905,7 +23668,7 @@
       </c>
       <c r="K109" s="2">
         <f t="shared" si="5"/>
-        <v>21543.511081469871</v>
+        <v>21435.858987695152</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -21933,9 +23696,9 @@
         <f>VLOOKUP(A110,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>91.95</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="7">
         <f t="shared" si="3"/>
-        <v>12043151250000</v>
+        <v>120431512500</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="4"/>
@@ -21943,7 +23706,7 @@
       </c>
       <c r="K110" s="2">
         <f t="shared" si="5"/>
-        <v>55547.192293871616</v>
+        <v>55269.62511686267</v>
       </c>
       <c r="M110" s="6"/>
     </row>
@@ -21972,9 +23735,9 @@
         <f>VLOOKUP(A111,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>89.49</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="7">
         <f t="shared" si="3"/>
-        <v>24791951640</v>
+        <v>247919516.39999998</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="4"/>
@@ -21982,7 +23745,7 @@
       </c>
       <c r="K111" s="2">
         <f t="shared" si="5"/>
-        <v>5304.2606778379013</v>
+        <v>5277.7554918569904</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -22010,9 +23773,9 @@
         <f>VLOOKUP(A112,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>8.75</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="7">
         <f t="shared" si="3"/>
-        <v>558451250</v>
+        <v>5584512.5</v>
       </c>
       <c r="J112" s="2">
         <f t="shared" si="4"/>
@@ -22020,7 +23783,7 @@
       </c>
       <c r="K112" s="2">
         <f t="shared" si="5"/>
-        <v>1256.4215780135517</v>
+        <v>1250.1432878580877</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -22048,9 +23811,9 @@
         <f>VLOOKUP(A113,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>81.66</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="7">
         <f t="shared" si="3"/>
-        <v>729485928600</v>
+        <v>7294859286</v>
       </c>
       <c r="J113" s="2">
         <f t="shared" si="4"/>
@@ -22058,7 +23821,7 @@
       </c>
       <c r="K113" s="2">
         <f t="shared" si="5"/>
-        <v>19155.460836105914</v>
+        <v>19059.741737281762</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -22086,9 +23849,9 @@
         <f>VLOOKUP(A114,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>98.16</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="7">
         <f t="shared" si="3"/>
-        <v>5063740656</v>
+        <v>50637406.559999995</v>
       </c>
       <c r="J114" s="2">
         <f t="shared" si="4"/>
@@ -22096,7 +23859,7 @@
       </c>
       <c r="K114" s="2">
         <f t="shared" si="5"/>
-        <v>2901.9698218333606</v>
+        <v>2887.4687905850124</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -22124,9 +23887,9 @@
         <f>VLOOKUP(A115,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>99.37</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="7">
         <f t="shared" si="3"/>
-        <v>19951210.490000002</v>
+        <v>199512.10490000001</v>
       </c>
       <c r="J115" s="2">
         <f t="shared" si="4"/>
@@ -22134,7 +23897,7 @@
       </c>
       <c r="K115" s="2">
         <f t="shared" si="5"/>
-        <v>354.57115728046995</v>
+        <v>352.79937888608373</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -22162,9 +23925,9 @@
         <f>VLOOKUP(A116,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>14.45</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="7">
         <f t="shared" si="3"/>
-        <v>23009168500</v>
+        <v>230091684.99999997</v>
       </c>
       <c r="J116" s="2">
         <f t="shared" si="4"/>
@@ -22172,7 +23935,7 @@
       </c>
       <c r="K116" s="2">
         <f t="shared" si="5"/>
-        <v>5156.0706726659209</v>
+        <v>5130.3059864240186</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -22200,9 +23963,9 @@
         <f>VLOOKUP(A117,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>46.77</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="7">
         <f t="shared" si="3"/>
-        <v>32522782290.000004</v>
+        <v>325227822.89999998</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" si="4"/>
@@ -22210,7 +23973,7 @@
       </c>
       <c r="K117" s="2">
         <f t="shared" si="5"/>
-        <v>5880.0733961887281</v>
+        <v>5850.6908962677444</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -22238,9 +24001,9 @@
         <f>VLOOKUP(A118,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>69.849999999999994</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="7">
         <f t="shared" si="3"/>
-        <v>144668430500</v>
+        <v>1446684304.9999998</v>
       </c>
       <c r="J118" s="2">
         <f t="shared" si="4"/>
@@ -22248,7 +24011,7 @@
       </c>
       <c r="K118" s="2">
         <f t="shared" si="5"/>
-        <v>10363.322201774865</v>
+        <v>10311.537080525864</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -22276,9 +24039,9 @@
         <f>VLOOKUP(A119,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>64.98</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="7">
         <f t="shared" si="3"/>
-        <v>685558494000</v>
+        <v>6855584940</v>
       </c>
       <c r="J119" s="2">
         <f t="shared" si="4"/>
@@ -22286,7 +24049,7 @@
       </c>
       <c r="K119" s="2">
         <f t="shared" si="5"/>
-        <v>18709.026200139913</v>
+        <v>18615.537917969225</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -22314,9 +24077,9 @@
         <f>VLOOKUP(A120,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>80.400000000000006</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="7">
         <f t="shared" si="3"/>
-        <v>20174370000</v>
+        <v>201743700</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" si="4"/>
@@ -22324,7 +24087,7 @@
       </c>
       <c r="K120" s="2">
         <f t="shared" si="5"/>
-        <v>4904.9844333554756</v>
+        <v>4880.474415365079</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -22352,9 +24115,9 @@
         <f>VLOOKUP(A121,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>47.23</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="7">
         <f t="shared" si="3"/>
-        <v>10899597.709999999</v>
+        <v>108995.97709999999</v>
       </c>
       <c r="J121" s="2">
         <f t="shared" si="4"/>
@@ -22362,7 +24125,7 @@
       </c>
       <c r="K121" s="2">
         <f t="shared" si="5"/>
-        <v>281.84467601080939</v>
+        <v>280.43630903770634</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -22390,9 +24153,9 @@
         <f>VLOOKUP(A122,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="7">
         <f t="shared" si="3"/>
-        <v>785270200.00000012</v>
+        <v>7852702.0000000009</v>
       </c>
       <c r="J122" s="2">
         <f t="shared" si="4"/>
@@ -22400,7 +24163,7 @@
       </c>
       <c r="K122" s="2">
         <f t="shared" si="5"/>
-        <v>1430.025688610152</v>
+        <v>1422.8799054112876</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -22424,13 +24187,13 @@
         <f>VLOOKUP(F123,pgb_industrial_water_demad_2015!$D$2:$E$241,2,FALSE)</f>
         <v>2055160000</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="4">
         <f>VLOOKUP(A123,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>98.94</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="7">
         <f t="shared" si="3"/>
-        <v>203337530400</v>
+        <v>2033375304</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" si="4"/>
@@ -22438,7 +24201,7 @@
       </c>
       <c r="K123" s="2">
         <f t="shared" si="5"/>
-        <v>11793.298255863694</v>
+        <v>11734.367599437617</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -22466,9 +24229,9 @@
         <f>VLOOKUP(A124,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>72.84</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="7">
         <f t="shared" si="3"/>
-        <v>124801142400</v>
+        <v>1248011424</v>
       </c>
       <c r="J124" s="2">
         <f t="shared" si="4"/>
@@ -22476,7 +24239,7 @@
       </c>
       <c r="K124" s="2">
         <f t="shared" si="5"/>
-        <v>9798.0413501874737</v>
+        <v>9749.0809155466122</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -22504,9 +24267,9 @@
         <f>VLOOKUP(A125,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>10.43</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="7">
         <f t="shared" si="3"/>
-        <v>5328697430</v>
+        <v>53286974.300000004</v>
       </c>
       <c r="J125" s="2">
         <f t="shared" si="4"/>
@@ -22514,7 +24277,7 @@
       </c>
       <c r="K125" s="2">
         <f t="shared" si="5"/>
-        <v>2958.7147537120163</v>
+        <v>2943.9301702281605</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -22572,9 +24335,9 @@
         <f>VLOOKUP(A127,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.81</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="7">
         <f t="shared" si="3"/>
-        <v>35141121</v>
+        <v>351411.21000000008</v>
       </c>
       <c r="J127" s="2">
         <f t="shared" si="4"/>
@@ -22582,7 +24345,7 @@
       </c>
       <c r="K127" s="2">
         <f t="shared" si="5"/>
-        <v>439.59350597275278</v>
+        <v>437.39687418191897</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -22610,9 +24373,9 @@
         <f>VLOOKUP(A128,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>1.67</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="7">
         <f t="shared" si="3"/>
-        <v>4724363200</v>
+        <v>47243632</v>
       </c>
       <c r="J128" s="2">
         <f t="shared" si="4"/>
@@ -22620,10 +24383,10 @@
       </c>
       <c r="K128" s="2">
         <f t="shared" si="5"/>
-        <v>2826.5275513115848</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2812.403502178649</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>387</v>
       </c>
@@ -22653,7 +24416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>389</v>
       </c>
@@ -22683,7 +24446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>393</v>
       </c>
@@ -22708,20 +24471,20 @@
         <f>VLOOKUP(A131,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>99.1</v>
       </c>
-      <c r="I131">
-        <f t="shared" ref="I131:I146" si="6">H131*G131</f>
-        <v>11694196400</v>
+      <c r="I131" s="7">
+        <f t="shared" ref="I131:I146" si="6">H131/100*G131</f>
+        <v>116941964</v>
       </c>
       <c r="J131" s="2">
         <f t="shared" ref="J131:J146" si="7">D131</f>
         <v>2308.6</v>
       </c>
       <c r="K131" s="2">
-        <f t="shared" ref="K131:K146" si="8">0.59966*(G131*H131)^0.3797</f>
-        <v>3987.6169649403546</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K131:K146" si="8">3.4287*(G131*H131/100)^0.3797</f>
+        <v>3967.6909967996862</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>395</v>
       </c>
@@ -22746,9 +24509,9 @@
         <f>VLOOKUP(A132,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>80.959999999999994</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="7">
         <f t="shared" si="6"/>
-        <v>11403216000</v>
+        <v>114032160</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" si="7"/>
@@ -22756,10 +24519,10 @@
       </c>
       <c r="K132" s="2">
         <f t="shared" si="8"/>
-        <v>3949.6477572836038</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3929.9115198088271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>397</v>
       </c>
@@ -22784,9 +24547,9 @@
         <f>VLOOKUP(A133,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>19.55</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="7">
         <f t="shared" si="6"/>
-        <v>102419908500</v>
+        <v>1024199085</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" si="7"/>
@@ -22794,10 +24557,10 @@
       </c>
       <c r="K133" s="2">
         <f t="shared" si="8"/>
-        <v>9089.6682078093963</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9044.2474864335745</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>399</v>
       </c>
@@ -22822,9 +24585,9 @@
         <f>VLOOKUP(A134,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>83.56</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="7">
         <f t="shared" si="6"/>
-        <v>292487574800</v>
+        <v>2924875748</v>
       </c>
       <c r="J134" s="2">
         <f t="shared" si="7"/>
@@ -22832,10 +24595,10 @@
       </c>
       <c r="K134" s="2">
         <f t="shared" si="8"/>
-        <v>13538.983793026604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13471.330013315877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>405</v>
       </c>
@@ -22865,7 +24628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>407</v>
       </c>
@@ -22890,9 +24653,9 @@
         <f>VLOOKUP(A136,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>94.94</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="7">
         <f t="shared" si="6"/>
-        <v>2878314968000</v>
+        <v>28783149680</v>
       </c>
       <c r="J136" s="2">
         <f t="shared" si="7"/>
@@ -22900,10 +24663,10 @@
       </c>
       <c r="K136" s="2">
         <f t="shared" si="8"/>
-        <v>32258.182831712878</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32096.989936549719</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>409</v>
       </c>
@@ -22928,9 +24691,9 @@
         <f>VLOOKUP(A137,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>0.24</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="7">
         <f t="shared" si="6"/>
-        <v>15284352</v>
+        <v>152843.51999999999</v>
       </c>
       <c r="J137" s="2">
         <f t="shared" si="7"/>
@@ -22938,10 +24701,10 @@
       </c>
       <c r="K137" s="2">
         <f t="shared" si="8"/>
-        <v>320.45251034111294</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>318.85122150926333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>411</v>
       </c>
@@ -22966,9 +24729,9 @@
         <f>VLOOKUP(A138,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>78.95</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="7">
         <f t="shared" si="6"/>
-        <v>889663865000</v>
+        <v>8896638650</v>
       </c>
       <c r="J138" s="2">
         <f t="shared" si="7"/>
@@ -22976,10 +24739,10 @@
       </c>
       <c r="K138" s="2">
         <f t="shared" si="8"/>
-        <v>20655.046364492602</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20551.833894633644</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>413</v>
       </c>
@@ -23004,9 +24767,9 @@
         <f>VLOOKUP(A139,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>71.63</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="7">
         <f t="shared" si="6"/>
-        <v>18538631930000</v>
+        <v>185386319299.99997</v>
       </c>
       <c r="J139" s="2">
         <f t="shared" si="7"/>
@@ -23014,10 +24777,18 @@
       </c>
       <c r="K139" s="2">
         <f t="shared" si="8"/>
-        <v>65432.599802990255</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65105.635626014759</v>
+      </c>
+      <c r="N139" s="7">
+        <f>C139/(D139*24*365)</f>
+        <v>4648.4094166027498</v>
+      </c>
+      <c r="O139" s="7">
+        <f>I139/(D139*24*365)</f>
+        <v>22.680595980624972</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>415</v>
       </c>
@@ -23042,9 +24813,9 @@
         <f>VLOOKUP(A140,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>96.73</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="7">
         <f t="shared" si="6"/>
-        <v>13519565180</v>
+        <v>135195651.80000001</v>
       </c>
       <c r="J140" s="2">
         <f t="shared" si="7"/>
@@ -23052,10 +24823,10 @@
       </c>
       <c r="K140" s="2">
         <f t="shared" si="8"/>
-        <v>4213.3896752425644</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4192.335529578314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>417</v>
       </c>
@@ -23080,9 +24851,9 @@
         <f>VLOOKUP(A141,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>40.81</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="7">
         <f t="shared" si="6"/>
-        <v>535790409000</v>
+        <v>5357904090</v>
       </c>
       <c r="J141" s="2">
         <f t="shared" si="7"/>
@@ -23090,10 +24861,10 @@
       </c>
       <c r="K141" s="2">
         <f t="shared" si="8"/>
-        <v>17037.444625341403</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16952.309171814217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>421</v>
       </c>
@@ -23118,9 +24889,9 @@
         <f>VLOOKUP(A142,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>84.19</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="7">
         <f t="shared" si="6"/>
-        <v>116852352400</v>
+        <v>1168523524</v>
       </c>
       <c r="J142" s="2">
         <f t="shared" si="7"/>
@@ -23128,10 +24899,10 @@
       </c>
       <c r="K142" s="2">
         <f t="shared" si="8"/>
-        <v>9556.239463122678</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9508.4873031833158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>423</v>
       </c>
@@ -23156,9 +24927,9 @@
         <f>VLOOKUP(A143,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>71.86</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="7">
         <f t="shared" si="6"/>
-        <v>309847385200</v>
+        <v>3098473852</v>
       </c>
       <c r="J143" s="2">
         <f t="shared" si="7"/>
@@ -23166,10 +24937,10 @@
       </c>
       <c r="K143" s="2">
         <f t="shared" si="8"/>
-        <v>13838.655991974794</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13769.504761846592</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>429</v>
       </c>
@@ -23254,9 +25025,9 @@
         <f>VLOOKUP(A146,pgb_industrial_split_pow_ic!$A$2:$H$215,8,FALSE)</f>
         <v>3.78</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="7">
         <f t="shared" si="6"/>
-        <v>449230320</v>
+        <v>4492303.2</v>
       </c>
       <c r="J146" s="2">
         <f t="shared" si="7"/>
@@ -23264,12 +25035,13 @@
       </c>
       <c r="K146" s="2">
         <f t="shared" si="8"/>
-        <v>1156.7715068249256</v>
+        <v>1150.9911642309205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23277,7 +25049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAAF385-A838-4992-A7B0-DD653900DDC1}">
   <dimension ref="B1:E241"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D69" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -26669,8 +28441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F62B9D5-ED96-466D-A165-085C55F17493}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28832,8 +30604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37798545-028E-4090-90F7-BE248CA361D1}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29243,7 +31015,7 @@
       </c>
       <c r="B41">
         <f>pgb_industrial_split_pow_ic!K41</f>
-        <v>459.4009953559123</v>
+        <v>457.10538630475844</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -29303,7 +31075,7 @@
       </c>
       <c r="B47">
         <f>pgb_industrial_split_pow_ic!K47</f>
-        <v>510.76627374319855</v>
+        <v>508.21399437749795</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -30943,7 +32715,7 @@
       </c>
       <c r="B211">
         <f>pgb_industrial_split_pow_ic!K211</f>
-        <v>598.9088532439788</v>
+        <v>325</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
+++ b/data/pcrglobwb_industrial_split_pow_man_and_lohrmann_ic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edwin\github\edwinkost\pgb_data_for_prometheus_primes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106AE38F-4715-4938-AD6B-331F3A375ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B71939E-1ED0-4C21-B71F-4D4D8436947F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="734" activeTab="3" xr2:uid="{8DD76264-C2FB-48A2-8B6A-B0A9CA53C1E5}"/>
   </bookViews>
@@ -7535,8 +7535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1C3275-AD4E-4E48-923E-AC570E341997}">
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K189" sqref="K189"/>
+    <sheetView topLeftCell="A149" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19598,9 +19598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B44A22E-B40D-45CE-813F-618D6FF3A2FC}">
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O139" sqref="O139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25049,7 +25049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAAF385-A838-4992-A7B0-DD653900DDC1}">
   <dimension ref="B1:E241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D69" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -28441,9 +28441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F62B9D5-ED96-466D-A165-085C55F17493}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -30604,7 +30602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37798545-028E-4090-90F7-BE248CA361D1}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
